--- a/Safeway/wwwroot/exportTemplate/小微评审.xlsx
+++ b/Safeway/wwwroot/exportTemplate/小微评审.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="198">
   <si>
     <t>得分总计:</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -771,14 +771,6 @@
     <t>对安全生产目标、计划的实施情况进行考核。</t>
   </si>
   <si>
-    <t>4.修改页眉：被评审企业</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>未制定年度安全生产目标、计划相关材料的，不得分。</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>依据安全生产相关法律法规要求，结合自身实际，制定年度安全生产目标和年度安全生产计划。</t>
   </si>
   <si>
@@ -795,10 +787,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>3.输入小组成员</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>实际得分</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -826,10 +814,6 @@
   </si>
   <si>
     <t>一级</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.输入评审时间</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
@@ -878,10 +862,6 @@
     </r>
   </si>
   <si>
-    <t>1.点击复制按钮：自动复制描述和实际得分</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>评审时间:</t>
     </r>
@@ -907,12 +887,11 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>操作说明</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>江苏省工贸行业小微企业安全生产标准化评分表</t>
     <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>未制定年度安全生产目标、计划相关材料的，不得分。</t>
   </si>
 </sst>
 </file>
@@ -1271,6 +1250,87 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1282,87 +1342,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1646,8 +1625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" zoomScaleSheetLayoutView="71" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="71" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1665,61 +1644,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="60" customHeight="1">
-      <c r="A1" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49" t="s">
-        <v>201</v>
-      </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
+      <c r="A1" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
     </row>
     <row r="2" spans="1:12" s="42" customFormat="1" ht="18.75">
       <c r="A2" s="45" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="47" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D2" s="45"/>
-      <c r="E2" s="51" t="s">
-        <v>198</v>
-      </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="E2" s="78" t="s">
+        <v>193</v>
+      </c>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="44"/>
-      <c r="I2" s="43" t="s">
-        <v>197</v>
-      </c>
+      <c r="I2" s="43"/>
       <c r="J2" s="43"/>
       <c r="K2" s="43"/>
       <c r="L2" s="43"/>
     </row>
     <row r="3" spans="1:12" s="42" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A3" s="51" t="s">
-        <v>196</v>
-      </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="A3" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
       <c r="D3" s="45"/>
-      <c r="E3" s="51" t="s">
-        <v>195</v>
-      </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
+      <c r="E3" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
       <c r="H3" s="44"/>
-      <c r="I3" s="43" t="s">
-        <v>194</v>
-      </c>
+      <c r="I3" s="43"/>
       <c r="J3" s="43"/>
       <c r="K3" s="43"/>
       <c r="L3" s="43"/>
@@ -1740,71 +1713,67 @@
     </row>
     <row r="5" spans="1:12" s="38" customFormat="1" ht="38.25">
       <c r="A5" s="40" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>185</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="I5" s="36"/>
       <c r="J5" s="39"/>
       <c r="K5" s="39"/>
       <c r="L5" s="39"/>
     </row>
     <row r="6" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A6" s="52" t="s">
-        <v>184</v>
-      </c>
-      <c r="B6" s="55" t="s">
-        <v>183</v>
-      </c>
-      <c r="C6" s="56" t="s">
+      <c r="A6" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="B6" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="E6" s="59">
+      <c r="C6" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="54">
         <v>4</v>
       </c>
-      <c r="F6" s="60" t="s">
-        <v>180</v>
+      <c r="F6" s="52" t="s">
+        <v>197</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="37"/>
-      <c r="I6" s="36" t="s">
-        <v>179</v>
-      </c>
+      <c r="I6" s="36"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" s="6" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A7" s="53"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="60"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="52"/>
       <c r="G7" s="20"/>
       <c r="H7" s="33"/>
       <c r="I7" s="7"/>
@@ -1813,9 +1782,9 @@
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12" s="6" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A8" s="53"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="58"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="69"/>
       <c r="D8" s="17" t="s">
         <v>178</v>
       </c>
@@ -1833,20 +1802,20 @@
       <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12" s="6" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A9" s="53"/>
-      <c r="B9" s="55" t="s">
+      <c r="A9" s="65"/>
+      <c r="B9" s="53" t="s">
         <v>176</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="E9" s="59">
+      <c r="E9" s="54">
         <v>6</v>
       </c>
-      <c r="F9" s="60" t="s">
+      <c r="F9" s="52" t="s">
         <v>173</v>
       </c>
       <c r="G9" s="14"/>
@@ -1857,12 +1826,12 @@
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12" s="6" customFormat="1" ht="51" customHeight="1">
-      <c r="A10" s="53"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="60"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="52"/>
       <c r="G10" s="12"/>
       <c r="H10" s="20"/>
       <c r="I10" s="7"/>
@@ -1871,16 +1840,16 @@
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A11" s="53"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="55" t="s">
+      <c r="A11" s="65"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="E11" s="59">
+      <c r="E11" s="54">
         <v>6</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="52" t="s">
         <v>171</v>
       </c>
       <c r="G11" s="14"/>
@@ -1891,12 +1860,12 @@
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A12" s="53"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="60"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="52"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="7"/>
@@ -1905,12 +1874,12 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A13" s="53"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="60"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="52"/>
       <c r="G13" s="12"/>
       <c r="H13" s="20"/>
       <c r="I13" s="7"/>
@@ -1919,18 +1888,18 @@
       <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A14" s="53"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="56" t="s">
+      <c r="A14" s="65"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="67" t="s">
         <v>170</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="E14" s="59">
+      <c r="E14" s="54">
         <v>12</v>
       </c>
-      <c r="F14" s="60" t="s">
+      <c r="F14" s="52" t="s">
         <v>168</v>
       </c>
       <c r="G14" s="14"/>
@@ -1941,12 +1910,12 @@
       <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A15" s="53"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="60"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="52"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="7"/>
@@ -1955,12 +1924,12 @@
       <c r="L15" s="7"/>
     </row>
     <row r="16" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A16" s="53"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="60"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="52"/>
       <c r="G16" s="12"/>
       <c r="H16" s="20"/>
       <c r="I16" s="7"/>
@@ -1969,20 +1938,20 @@
       <c r="L16" s="7"/>
     </row>
     <row r="17" spans="1:12" s="6" customFormat="1" ht="24" customHeight="1">
-      <c r="A17" s="53"/>
-      <c r="B17" s="55" t="s">
+      <c r="A17" s="65"/>
+      <c r="B17" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="67" t="s">
         <v>166</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="E17" s="59">
+      <c r="E17" s="54">
         <v>8</v>
       </c>
-      <c r="F17" s="60" t="s">
+      <c r="F17" s="52" t="s">
         <v>164</v>
       </c>
       <c r="G17" s="14"/>
@@ -1993,12 +1962,12 @@
       <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12" s="6" customFormat="1" ht="12.75">
-      <c r="A18" s="53"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="60"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="52"/>
       <c r="G18" s="12"/>
       <c r="H18" s="20"/>
       <c r="I18" s="7"/>
@@ -2007,18 +1976,18 @@
       <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A19" s="53"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="56" t="s">
+      <c r="A19" s="65"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="67" t="s">
         <v>163</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="D19" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="E19" s="59">
+      <c r="E19" s="54">
         <v>4</v>
       </c>
-      <c r="F19" s="60" t="s">
+      <c r="F19" s="52" t="s">
         <v>161</v>
       </c>
       <c r="G19" s="14"/>
@@ -2029,12 +1998,12 @@
       <c r="L19" s="7"/>
     </row>
     <row r="20" spans="1:12" s="6" customFormat="1" ht="12.75">
-      <c r="A20" s="54"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="60"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="52"/>
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
       <c r="I20" s="7"/>
@@ -2043,20 +2012,20 @@
       <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12" s="6" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A21" s="61"/>
-      <c r="B21" s="61" t="s">
+      <c r="A21" s="70"/>
+      <c r="B21" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="D21" s="55" t="s">
+      <c r="D21" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="E21" s="59">
+      <c r="E21" s="54">
         <v>4</v>
       </c>
-      <c r="F21" s="60" t="s">
+      <c r="F21" s="52" t="s">
         <v>157</v>
       </c>
       <c r="G21" s="14"/>
@@ -2067,12 +2036,12 @@
       <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A22" s="62"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="60"/>
+      <c r="A22" s="71"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="52"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="7"/>
@@ -2081,12 +2050,12 @@
       <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A23" s="62"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="60"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="52"/>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
       <c r="I23" s="7"/>
@@ -2095,8 +2064,8 @@
       <c r="L23" s="7"/>
     </row>
     <row r="24" spans="1:12" s="6" customFormat="1" ht="229.5">
-      <c r="A24" s="63"/>
-      <c r="B24" s="63"/>
+      <c r="A24" s="72"/>
+      <c r="B24" s="72"/>
       <c r="C24" s="19" t="s">
         <v>156</v>
       </c>
@@ -2117,18 +2086,18 @@
       <c r="L24" s="7"/>
     </row>
     <row r="25" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A25" s="61"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="56" t="s">
+      <c r="A25" s="70"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="E25" s="59">
+      <c r="E25" s="54">
         <v>10</v>
       </c>
-      <c r="F25" s="60" t="s">
+      <c r="F25" s="52" t="s">
         <v>151</v>
       </c>
       <c r="G25" s="16"/>
@@ -2139,12 +2108,12 @@
       <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A26" s="62"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60"/>
+      <c r="A26" s="71"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="52"/>
       <c r="G26" s="13"/>
       <c r="H26" s="12"/>
       <c r="I26" s="7"/>
@@ -2153,12 +2122,12 @@
       <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A27" s="62"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="60"/>
+      <c r="A27" s="71"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="13"/>
       <c r="H27" s="12"/>
       <c r="I27" s="7"/>
@@ -2167,12 +2136,12 @@
       <c r="L27" s="7"/>
     </row>
     <row r="28" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A28" s="62"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="60"/>
+      <c r="A28" s="71"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="52"/>
       <c r="G28" s="13"/>
       <c r="H28" s="20"/>
       <c r="I28" s="7"/>
@@ -2181,18 +2150,18 @@
       <c r="L28" s="7"/>
     </row>
     <row r="29" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A29" s="62"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="56" t="s">
+      <c r="A29" s="71"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="67" t="s">
         <v>150</v>
       </c>
-      <c r="D29" s="55" t="s">
+      <c r="D29" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="E29" s="59">
+      <c r="E29" s="54">
         <v>6</v>
       </c>
-      <c r="F29" s="60" t="s">
+      <c r="F29" s="52" t="s">
         <v>148</v>
       </c>
       <c r="G29" s="14"/>
@@ -2203,12 +2172,12 @@
       <c r="L29" s="7"/>
     </row>
     <row r="30" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A30" s="62"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="60"/>
+      <c r="A30" s="71"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="52"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="7"/>
@@ -2217,12 +2186,12 @@
       <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A31" s="62"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="60"/>
+      <c r="A31" s="71"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="52"/>
       <c r="G31" s="12"/>
       <c r="H31" s="20"/>
       <c r="I31" s="7"/>
@@ -2231,20 +2200,20 @@
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A32" s="62"/>
-      <c r="B32" s="52" t="s">
+      <c r="A32" s="71"/>
+      <c r="B32" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="52" t="s">
+      <c r="C32" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="D32" s="55" t="s">
+      <c r="D32" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="E32" s="59">
+      <c r="E32" s="54">
         <v>8</v>
       </c>
-      <c r="F32" s="60" t="s">
+      <c r="F32" s="52" t="s">
         <v>144</v>
       </c>
       <c r="G32" s="14"/>
@@ -2255,12 +2224,12 @@
       <c r="L32" s="7"/>
     </row>
     <row r="33" spans="1:12" s="6" customFormat="1" ht="12.75">
-      <c r="A33" s="62"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="60"/>
+      <c r="A33" s="71"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="52"/>
       <c r="G33" s="20"/>
       <c r="H33" s="20"/>
       <c r="I33" s="7"/>
@@ -2269,9 +2238,9 @@
       <c r="L33" s="7"/>
     </row>
     <row r="34" spans="1:12" s="6" customFormat="1" ht="25.5">
-      <c r="A34" s="62"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="54"/>
+      <c r="A34" s="71"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="66"/>
       <c r="D34" s="17" t="s">
         <v>143</v>
       </c>
@@ -2289,18 +2258,18 @@
       <c r="L34" s="7"/>
     </row>
     <row r="35" spans="1:12" s="6" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A35" s="62"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="56" t="s">
+      <c r="A35" s="71"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="D35" s="55" t="s">
+      <c r="D35" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="E35" s="59">
+      <c r="E35" s="54">
         <v>10</v>
       </c>
-      <c r="F35" s="60" t="s">
+      <c r="F35" s="52" t="s">
         <v>139</v>
       </c>
       <c r="G35" s="14"/>
@@ -2311,12 +2280,12 @@
       <c r="L35" s="7"/>
     </row>
     <row r="36" spans="1:12" s="6" customFormat="1" ht="12.75">
-      <c r="A36" s="63"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="60"/>
+      <c r="A36" s="72"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="52"/>
       <c r="G36" s="20"/>
       <c r="H36" s="20"/>
       <c r="I36" s="7"/>
@@ -2325,8 +2294,8 @@
       <c r="L36" s="7"/>
     </row>
     <row r="37" spans="1:12" s="6" customFormat="1" ht="62.1" customHeight="1">
-      <c r="A37" s="61"/>
-      <c r="B37" s="61"/>
+      <c r="A37" s="70"/>
+      <c r="B37" s="70"/>
       <c r="C37" s="19" t="s">
         <v>138</v>
       </c>
@@ -2347,18 +2316,18 @@
       <c r="L37" s="7"/>
     </row>
     <row r="38" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A38" s="62"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="56" t="s">
+      <c r="A38" s="71"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="D38" s="55" t="s">
+      <c r="D38" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="E38" s="59">
+      <c r="E38" s="54">
         <v>4</v>
       </c>
-      <c r="F38" s="60" t="s">
+      <c r="F38" s="52" t="s">
         <v>133</v>
       </c>
       <c r="G38" s="14"/>
@@ -2369,12 +2338,12 @@
       <c r="L38" s="7"/>
     </row>
     <row r="39" spans="1:12" s="6" customFormat="1" ht="12.75">
-      <c r="A39" s="62"/>
-      <c r="B39" s="63"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="60"/>
+      <c r="A39" s="71"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="52"/>
       <c r="G39" s="12"/>
       <c r="H39" s="20"/>
       <c r="I39" s="7"/>
@@ -2383,20 +2352,20 @@
       <c r="L39" s="7"/>
     </row>
     <row r="40" spans="1:12" s="6" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A40" s="62"/>
-      <c r="B40" s="55" t="s">
+      <c r="A40" s="71"/>
+      <c r="B40" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="C40" s="52" t="s">
+      <c r="C40" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="D40" s="55" t="s">
+      <c r="D40" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="E40" s="59">
+      <c r="E40" s="54">
         <v>6</v>
       </c>
-      <c r="F40" s="60" t="s">
+      <c r="F40" s="52" t="s">
         <v>129</v>
       </c>
       <c r="G40" s="14"/>
@@ -2407,12 +2376,12 @@
       <c r="L40" s="7"/>
     </row>
     <row r="41" spans="1:12" s="6" customFormat="1" ht="55.5" customHeight="1">
-      <c r="A41" s="62"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="60"/>
+      <c r="A41" s="71"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="52"/>
       <c r="G41" s="20"/>
       <c r="H41" s="20"/>
       <c r="I41" s="7"/>
@@ -2421,8 +2390,8 @@
       <c r="L41" s="7"/>
     </row>
     <row r="42" spans="1:12" s="6" customFormat="1" ht="51">
-      <c r="A42" s="62"/>
-      <c r="B42" s="55"/>
+      <c r="A42" s="71"/>
+      <c r="B42" s="53"/>
       <c r="C42" s="19" t="s">
         <v>128</v>
       </c>
@@ -2443,20 +2412,20 @@
       <c r="L42" s="7"/>
     </row>
     <row r="43" spans="1:12" s="6" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A43" s="62"/>
-      <c r="B43" s="52" t="s">
+      <c r="A43" s="71"/>
+      <c r="B43" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="C43" s="52" t="s">
+      <c r="C43" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="D43" s="55" t="s">
+      <c r="D43" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="E43" s="59">
+      <c r="E43" s="54">
         <v>4</v>
       </c>
-      <c r="F43" s="60" t="s">
+      <c r="F43" s="52" t="s">
         <v>122</v>
       </c>
       <c r="G43" s="14"/>
@@ -2467,12 +2436,12 @@
       <c r="L43" s="7"/>
     </row>
     <row r="44" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A44" s="62"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="60"/>
+      <c r="A44" s="71"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="52"/>
       <c r="G44" s="20"/>
       <c r="H44" s="20"/>
       <c r="I44" s="7"/>
@@ -2481,8 +2450,8 @@
       <c r="L44" s="7"/>
     </row>
     <row r="45" spans="1:12" s="6" customFormat="1" ht="78.599999999999994" customHeight="1">
-      <c r="A45" s="63"/>
-      <c r="B45" s="54"/>
+      <c r="A45" s="72"/>
+      <c r="B45" s="66"/>
       <c r="C45" s="19" t="s">
         <v>121</v>
       </c>
@@ -2503,18 +2472,18 @@
       <c r="L45" s="7"/>
     </row>
     <row r="46" spans="1:12" s="6" customFormat="1" ht="81" customHeight="1">
-      <c r="A46" s="61"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="52" t="s">
+      <c r="A46" s="70"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="D46" s="55" t="s">
+      <c r="D46" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="E46" s="59">
+      <c r="E46" s="54">
         <v>6</v>
       </c>
-      <c r="F46" s="60" t="s">
+      <c r="F46" s="52" t="s">
         <v>116</v>
       </c>
       <c r="G46" s="14"/>
@@ -2525,12 +2494,12 @@
       <c r="L46" s="7"/>
     </row>
     <row r="47" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A47" s="62"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="60"/>
+      <c r="A47" s="71"/>
+      <c r="B47" s="71"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="52"/>
       <c r="G47" s="20"/>
       <c r="H47" s="20"/>
       <c r="I47" s="7"/>
@@ -2539,12 +2508,12 @@
       <c r="L47" s="7"/>
     </row>
     <row r="48" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A48" s="62"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="55"/>
+      <c r="A48" s="71"/>
+      <c r="B48" s="71"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="53"/>
       <c r="G48" s="12"/>
       <c r="H48" s="15"/>
       <c r="I48" s="7"/>
@@ -2553,16 +2522,16 @@
       <c r="L48" s="7"/>
     </row>
     <row r="49" spans="1:12" s="6" customFormat="1" ht="12.75">
-      <c r="A49" s="62"/>
-      <c r="B49" s="62"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="55" t="s">
+      <c r="A49" s="71"/>
+      <c r="B49" s="71"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="E49" s="59">
+      <c r="E49" s="54">
         <v>6</v>
       </c>
-      <c r="F49" s="60" t="s">
+      <c r="F49" s="52" t="s">
         <v>114</v>
       </c>
       <c r="G49" s="14"/>
@@ -2573,12 +2542,12 @@
       <c r="L49" s="7"/>
     </row>
     <row r="50" spans="1:12" s="6" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A50" s="63"/>
-      <c r="B50" s="63"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="60"/>
+      <c r="A50" s="72"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="52"/>
       <c r="G50" s="20"/>
       <c r="H50" s="20"/>
       <c r="I50" s="7"/>
@@ -2587,10 +2556,10 @@
       <c r="L50" s="7"/>
     </row>
     <row r="51" spans="1:12" s="6" customFormat="1" ht="51" customHeight="1">
-      <c r="A51" s="61" t="s">
+      <c r="A51" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="B51" s="52" t="s">
+      <c r="B51" s="64" t="s">
         <v>112</v>
       </c>
       <c r="C51" s="19" t="s">
@@ -2613,9 +2582,9 @@
       <c r="L51" s="7"/>
     </row>
     <row r="52" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A52" s="62"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="52" t="s">
+      <c r="A52" s="71"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="64" t="s">
         <v>108</v>
       </c>
       <c r="D52" s="17" t="s">
@@ -2635,9 +2604,9 @@
       <c r="L52" s="7"/>
     </row>
     <row r="53" spans="1:12" s="6" customFormat="1" ht="38.25">
-      <c r="A53" s="62"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="53"/>
+      <c r="A53" s="71"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="65"/>
       <c r="D53" s="17" t="s">
         <v>105</v>
       </c>
@@ -2655,9 +2624,9 @@
       <c r="L53" s="7"/>
     </row>
     <row r="54" spans="1:12" s="6" customFormat="1" ht="76.5">
-      <c r="A54" s="63"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="54"/>
+      <c r="A54" s="72"/>
+      <c r="B54" s="66"/>
+      <c r="C54" s="66"/>
       <c r="D54" s="17" t="s">
         <v>103</v>
       </c>
@@ -2675,7 +2644,7 @@
       <c r="L54" s="7"/>
     </row>
     <row r="55" spans="1:12" s="6" customFormat="1" ht="63.75">
-      <c r="A55" s="61"/>
+      <c r="A55" s="70"/>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
       <c r="D55" s="34" t="s">
@@ -2695,11 +2664,11 @@
       <c r="L55" s="7"/>
     </row>
     <row r="56" spans="1:12" s="6" customFormat="1" ht="156.94999999999999" customHeight="1">
-      <c r="A56" s="62"/>
-      <c r="B56" s="52" t="s">
+      <c r="A56" s="71"/>
+      <c r="B56" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="C56" s="61" t="s">
+      <c r="C56" s="70" t="s">
         <v>98</v>
       </c>
       <c r="D56" s="17" t="s">
@@ -2719,9 +2688,9 @@
       <c r="L56" s="7"/>
     </row>
     <row r="57" spans="1:12" s="6" customFormat="1" ht="89.1" customHeight="1">
-      <c r="A57" s="62"/>
-      <c r="B57" s="53"/>
-      <c r="C57" s="62"/>
+      <c r="A57" s="71"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="71"/>
       <c r="D57" s="17" t="s">
         <v>96</v>
       </c>
@@ -2739,9 +2708,9 @@
       <c r="L57" s="7"/>
     </row>
     <row r="58" spans="1:12" s="6" customFormat="1" ht="74.45" customHeight="1">
-      <c r="A58" s="62"/>
-      <c r="B58" s="53"/>
-      <c r="C58" s="62"/>
+      <c r="A58" s="71"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="71"/>
       <c r="D58" s="17" t="s">
         <v>95</v>
       </c>
@@ -2759,9 +2728,9 @@
       <c r="L58" s="7"/>
     </row>
     <row r="59" spans="1:12" s="6" customFormat="1" ht="89.25">
-      <c r="A59" s="63"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="63"/>
+      <c r="A59" s="72"/>
+      <c r="B59" s="66"/>
+      <c r="C59" s="72"/>
       <c r="D59" s="17" t="s">
         <v>94</v>
       </c>
@@ -2780,7 +2749,7 @@
     </row>
     <row r="60" spans="1:12" s="6" customFormat="1" ht="150.94999999999999" customHeight="1">
       <c r="A60" s="35"/>
-      <c r="B60" s="61"/>
+      <c r="B60" s="70"/>
       <c r="C60" s="32"/>
       <c r="D60" s="17" t="s">
         <v>93</v>
@@ -2800,7 +2769,7 @@
     </row>
     <row r="61" spans="1:12" s="6" customFormat="1" ht="174" customHeight="1">
       <c r="A61" s="35"/>
-      <c r="B61" s="63"/>
+      <c r="B61" s="72"/>
       <c r="C61" s="30"/>
       <c r="D61" s="17" t="s">
         <v>92</v>
@@ -2819,9 +2788,9 @@
       <c r="L61" s="7"/>
     </row>
     <row r="62" spans="1:12" s="6" customFormat="1" ht="260.45" customHeight="1">
-      <c r="A62" s="61"/>
-      <c r="B62" s="61"/>
-      <c r="C62" s="61"/>
+      <c r="A62" s="70"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="70"/>
       <c r="D62" s="17" t="s">
         <v>91</v>
       </c>
@@ -2839,9 +2808,9 @@
       <c r="L62" s="7"/>
     </row>
     <row r="63" spans="1:12" s="6" customFormat="1" ht="60.6" customHeight="1">
-      <c r="A63" s="63"/>
-      <c r="B63" s="63"/>
-      <c r="C63" s="63"/>
+      <c r="A63" s="72"/>
+      <c r="B63" s="72"/>
+      <c r="C63" s="72"/>
       <c r="D63" s="34" t="s">
         <v>90</v>
       </c>
@@ -2859,8 +2828,8 @@
       <c r="L63" s="7"/>
     </row>
     <row r="64" spans="1:12" s="6" customFormat="1" ht="59.1" customHeight="1">
-      <c r="A64" s="61"/>
-      <c r="B64" s="61"/>
+      <c r="A64" s="70"/>
+      <c r="B64" s="70"/>
       <c r="C64" s="32"/>
       <c r="D64" s="17" t="s">
         <v>89</v>
@@ -2879,8 +2848,8 @@
       <c r="L64" s="7"/>
     </row>
     <row r="65" spans="1:12" s="6" customFormat="1" ht="66" customHeight="1">
-      <c r="A65" s="62"/>
-      <c r="B65" s="62"/>
+      <c r="A65" s="71"/>
+      <c r="B65" s="71"/>
       <c r="C65" s="31"/>
       <c r="D65" s="17" t="s">
         <v>87</v>
@@ -2899,8 +2868,8 @@
       <c r="L65" s="7"/>
     </row>
     <row r="66" spans="1:12" s="6" customFormat="1" ht="57.95" customHeight="1">
-      <c r="A66" s="62"/>
-      <c r="B66" s="62"/>
+      <c r="A66" s="71"/>
+      <c r="B66" s="71"/>
       <c r="C66" s="31"/>
       <c r="D66" s="17" t="s">
         <v>86</v>
@@ -2919,8 +2888,8 @@
       <c r="L66" s="7"/>
     </row>
     <row r="67" spans="1:12" s="6" customFormat="1" ht="48" customHeight="1">
-      <c r="A67" s="62"/>
-      <c r="B67" s="62"/>
+      <c r="A67" s="71"/>
+      <c r="B67" s="71"/>
       <c r="C67" s="31"/>
       <c r="D67" s="17" t="s">
         <v>85</v>
@@ -2939,8 +2908,8 @@
       <c r="L67" s="7"/>
     </row>
     <row r="68" spans="1:12" s="6" customFormat="1" ht="59.1" customHeight="1">
-      <c r="A68" s="63"/>
-      <c r="B68" s="63"/>
+      <c r="A68" s="72"/>
+      <c r="B68" s="72"/>
       <c r="C68" s="30"/>
       <c r="D68" s="17" t="s">
         <v>84</v>
@@ -2959,18 +2928,18 @@
       <c r="L68" s="7"/>
     </row>
     <row r="69" spans="1:12" s="6" customFormat="1" ht="54" customHeight="1">
-      <c r="A69" s="61"/>
-      <c r="B69" s="61"/>
-      <c r="C69" s="52" t="s">
+      <c r="A69" s="70"/>
+      <c r="B69" s="70"/>
+      <c r="C69" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="D69" s="55" t="s">
+      <c r="D69" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="E69" s="59">
+      <c r="E69" s="54">
         <v>10</v>
       </c>
-      <c r="F69" s="60" t="s">
+      <c r="F69" s="52" t="s">
         <v>81</v>
       </c>
       <c r="G69" s="14"/>
@@ -2981,12 +2950,12 @@
       <c r="L69" s="7"/>
     </row>
     <row r="70" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A70" s="62"/>
-      <c r="B70" s="62"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="59"/>
-      <c r="F70" s="60"/>
+      <c r="A70" s="71"/>
+      <c r="B70" s="71"/>
+      <c r="C70" s="65"/>
+      <c r="D70" s="53"/>
+      <c r="E70" s="54"/>
+      <c r="F70" s="52"/>
       <c r="G70" s="12"/>
       <c r="H70" s="12"/>
       <c r="I70" s="7"/>
@@ -2995,12 +2964,12 @@
       <c r="L70" s="7"/>
     </row>
     <row r="71" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A71" s="62"/>
-      <c r="B71" s="62"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="55"/>
-      <c r="E71" s="59"/>
-      <c r="F71" s="60"/>
+      <c r="A71" s="71"/>
+      <c r="B71" s="71"/>
+      <c r="C71" s="65"/>
+      <c r="D71" s="53"/>
+      <c r="E71" s="54"/>
+      <c r="F71" s="52"/>
       <c r="G71" s="20"/>
       <c r="H71" s="20"/>
       <c r="I71" s="7"/>
@@ -3009,9 +2978,9 @@
       <c r="L71" s="7"/>
     </row>
     <row r="72" spans="1:12" s="6" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A72" s="63"/>
-      <c r="B72" s="63"/>
-      <c r="C72" s="54"/>
+      <c r="A72" s="72"/>
+      <c r="B72" s="72"/>
+      <c r="C72" s="66"/>
       <c r="D72" s="17" t="s">
         <v>80</v>
       </c>
@@ -3029,8 +2998,8 @@
       <c r="L72" s="7"/>
     </row>
     <row r="73" spans="1:12" s="6" customFormat="1" ht="60" customHeight="1">
-      <c r="A73" s="61"/>
-      <c r="B73" s="61"/>
+      <c r="A73" s="70"/>
+      <c r="B73" s="70"/>
       <c r="C73" s="19" t="s">
         <v>78</v>
       </c>
@@ -3051,18 +3020,18 @@
       <c r="L73" s="7"/>
     </row>
     <row r="74" spans="1:12" s="6" customFormat="1" ht="54" customHeight="1">
-      <c r="A74" s="62"/>
-      <c r="B74" s="62"/>
-      <c r="C74" s="64" t="s">
+      <c r="A74" s="71"/>
+      <c r="B74" s="71"/>
+      <c r="C74" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="D74" s="55" t="s">
+      <c r="D74" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="E74" s="59">
+      <c r="E74" s="54">
         <v>20</v>
       </c>
-      <c r="F74" s="60" t="s">
+      <c r="F74" s="52" t="s">
         <v>74</v>
       </c>
       <c r="G74" s="14"/>
@@ -3073,12 +3042,12 @@
       <c r="L74" s="7"/>
     </row>
     <row r="75" spans="1:12" s="6" customFormat="1" ht="51" customHeight="1">
-      <c r="A75" s="63"/>
-      <c r="B75" s="63"/>
-      <c r="C75" s="65"/>
-      <c r="D75" s="55"/>
-      <c r="E75" s="59"/>
-      <c r="F75" s="60"/>
+      <c r="A75" s="72"/>
+      <c r="B75" s="72"/>
+      <c r="C75" s="74"/>
+      <c r="D75" s="53"/>
+      <c r="E75" s="54"/>
+      <c r="F75" s="52"/>
       <c r="G75" s="20"/>
       <c r="H75" s="20"/>
       <c r="I75" s="7"/>
@@ -3087,13 +3056,13 @@
       <c r="L75" s="7"/>
     </row>
     <row r="76" spans="1:12" s="6" customFormat="1" ht="59.45" customHeight="1">
-      <c r="A76" s="52" t="s">
+      <c r="A76" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="B76" s="55" t="s">
+      <c r="B76" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="C76" s="52" t="s">
+      <c r="C76" s="64" t="s">
         <v>71</v>
       </c>
       <c r="D76" s="17" t="s">
@@ -3113,9 +3082,9 @@
       <c r="L76" s="7"/>
     </row>
     <row r="77" spans="1:12" s="6" customFormat="1" ht="45.95" customHeight="1">
-      <c r="A77" s="53"/>
-      <c r="B77" s="55"/>
-      <c r="C77" s="54"/>
+      <c r="A77" s="65"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="66"/>
       <c r="D77" s="17" t="s">
         <v>69</v>
       </c>
@@ -3133,18 +3102,18 @@
       <c r="L77" s="7"/>
     </row>
     <row r="78" spans="1:12" s="6" customFormat="1" ht="54" customHeight="1">
-      <c r="A78" s="53"/>
-      <c r="B78" s="55"/>
-      <c r="C78" s="56" t="s">
+      <c r="A78" s="65"/>
+      <c r="B78" s="53"/>
+      <c r="C78" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="D78" s="55" t="s">
+      <c r="D78" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="E78" s="59">
+      <c r="E78" s="54">
         <v>16</v>
       </c>
-      <c r="F78" s="60" t="s">
+      <c r="F78" s="52" t="s">
         <v>66</v>
       </c>
       <c r="G78" s="14"/>
@@ -3155,12 +3124,12 @@
       <c r="L78" s="7"/>
     </row>
     <row r="79" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A79" s="53"/>
-      <c r="B79" s="55"/>
-      <c r="C79" s="57"/>
-      <c r="D79" s="55"/>
-      <c r="E79" s="59"/>
-      <c r="F79" s="60"/>
+      <c r="A79" s="65"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="68"/>
+      <c r="D79" s="53"/>
+      <c r="E79" s="54"/>
+      <c r="F79" s="52"/>
       <c r="G79" s="20"/>
       <c r="H79" s="20"/>
       <c r="I79" s="7"/>
@@ -3169,9 +3138,9 @@
       <c r="L79" s="7"/>
     </row>
     <row r="80" spans="1:12" s="6" customFormat="1" ht="25.5">
-      <c r="A80" s="53"/>
-      <c r="B80" s="55"/>
-      <c r="C80" s="58"/>
+      <c r="A80" s="65"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="69"/>
       <c r="D80" s="17" t="s">
         <v>65</v>
       </c>
@@ -3189,20 +3158,20 @@
       <c r="L80" s="7"/>
     </row>
     <row r="81" spans="1:12" s="6" customFormat="1" ht="54" customHeight="1">
-      <c r="A81" s="53"/>
-      <c r="B81" s="55" t="s">
+      <c r="A81" s="65"/>
+      <c r="B81" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="56" t="s">
+      <c r="C81" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="D81" s="55" t="s">
+      <c r="D81" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="E81" s="59">
+      <c r="E81" s="54">
         <v>20</v>
       </c>
-      <c r="F81" s="60" t="s">
+      <c r="F81" s="52" t="s">
         <v>60</v>
       </c>
       <c r="G81" s="14"/>
@@ -3213,12 +3182,12 @@
       <c r="L81" s="7"/>
     </row>
     <row r="82" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A82" s="53"/>
-      <c r="B82" s="55"/>
-      <c r="C82" s="58"/>
-      <c r="D82" s="55"/>
-      <c r="E82" s="59"/>
-      <c r="F82" s="60"/>
+      <c r="A82" s="65"/>
+      <c r="B82" s="53"/>
+      <c r="C82" s="69"/>
+      <c r="D82" s="53"/>
+      <c r="E82" s="54"/>
+      <c r="F82" s="52"/>
       <c r="G82" s="12"/>
       <c r="H82" s="20"/>
       <c r="I82" s="7"/>
@@ -3227,18 +3196,18 @@
       <c r="L82" s="7"/>
     </row>
     <row r="83" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A83" s="53"/>
-      <c r="B83" s="55"/>
-      <c r="C83" s="56" t="s">
+      <c r="A83" s="65"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="D83" s="55" t="s">
+      <c r="D83" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="E83" s="59">
+      <c r="E83" s="54">
         <v>12</v>
       </c>
-      <c r="F83" s="60" t="s">
+      <c r="F83" s="52" t="s">
         <v>57</v>
       </c>
       <c r="G83" s="14"/>
@@ -3249,12 +3218,12 @@
       <c r="L83" s="7"/>
     </row>
     <row r="84" spans="1:12" s="6" customFormat="1" ht="12.75">
-      <c r="A84" s="53"/>
-      <c r="B84" s="55"/>
-      <c r="C84" s="57"/>
-      <c r="D84" s="55"/>
-      <c r="E84" s="59"/>
-      <c r="F84" s="60"/>
+      <c r="A84" s="65"/>
+      <c r="B84" s="53"/>
+      <c r="C84" s="68"/>
+      <c r="D84" s="53"/>
+      <c r="E84" s="54"/>
+      <c r="F84" s="52"/>
       <c r="G84" s="12"/>
       <c r="H84" s="20"/>
       <c r="I84" s="7"/>
@@ -3263,16 +3232,16 @@
       <c r="L84" s="7"/>
     </row>
     <row r="85" spans="1:12" s="6" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A85" s="53"/>
-      <c r="B85" s="55"/>
-      <c r="C85" s="57"/>
-      <c r="D85" s="66" t="s">
+      <c r="A85" s="65"/>
+      <c r="B85" s="53"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="E85" s="67">
+      <c r="E85" s="62">
         <v>16</v>
       </c>
-      <c r="F85" s="68" t="s">
+      <c r="F85" s="63" t="s">
         <v>55</v>
       </c>
       <c r="G85" s="29"/>
@@ -3283,12 +3252,12 @@
       <c r="L85" s="7"/>
     </row>
     <row r="86" spans="1:12" s="6" customFormat="1" ht="12.75">
-      <c r="A86" s="53"/>
-      <c r="B86" s="55"/>
-      <c r="C86" s="57"/>
-      <c r="D86" s="66"/>
-      <c r="E86" s="67"/>
-      <c r="F86" s="68"/>
+      <c r="A86" s="65"/>
+      <c r="B86" s="53"/>
+      <c r="C86" s="68"/>
+      <c r="D86" s="58"/>
+      <c r="E86" s="62"/>
+      <c r="F86" s="63"/>
       <c r="G86" s="28"/>
       <c r="H86" s="28"/>
       <c r="I86" s="7"/>
@@ -3297,12 +3266,12 @@
       <c r="L86" s="7"/>
     </row>
     <row r="87" spans="1:12" s="6" customFormat="1" ht="12.75">
-      <c r="A87" s="54"/>
-      <c r="B87" s="55"/>
-      <c r="C87" s="58"/>
-      <c r="D87" s="66"/>
-      <c r="E87" s="67"/>
-      <c r="F87" s="68"/>
+      <c r="A87" s="66"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="69"/>
+      <c r="D87" s="58"/>
+      <c r="E87" s="62"/>
+      <c r="F87" s="63"/>
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="7"/>
@@ -3311,8 +3280,8 @@
       <c r="L87" s="7"/>
     </row>
     <row r="88" spans="1:12" s="6" customFormat="1" ht="96.6" customHeight="1">
-      <c r="A88" s="52"/>
-      <c r="B88" s="55" t="s">
+      <c r="A88" s="64"/>
+      <c r="B88" s="53" t="s">
         <v>54</v>
       </c>
       <c r="C88" s="19" t="s">
@@ -3335,8 +3304,8 @@
       <c r="L88" s="7"/>
     </row>
     <row r="89" spans="1:12" s="6" customFormat="1" ht="72" customHeight="1">
-      <c r="A89" s="53"/>
-      <c r="B89" s="55"/>
+      <c r="A89" s="65"/>
+      <c r="B89" s="53"/>
       <c r="C89" s="19" t="s">
         <v>51</v>
       </c>
@@ -3357,20 +3326,20 @@
       <c r="L89" s="7"/>
     </row>
     <row r="90" spans="1:12" s="6" customFormat="1" ht="12.75">
-      <c r="A90" s="53"/>
-      <c r="B90" s="55" t="s">
+      <c r="A90" s="65"/>
+      <c r="B90" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="C90" s="55" t="s">
+      <c r="C90" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="D90" s="55" t="s">
+      <c r="D90" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E90" s="59">
+      <c r="E90" s="54">
         <v>12</v>
       </c>
-      <c r="F90" s="60" t="s">
+      <c r="F90" s="52" t="s">
         <v>46</v>
       </c>
       <c r="G90" s="14"/>
@@ -3381,12 +3350,12 @@
       <c r="L90" s="7"/>
     </row>
     <row r="91" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A91" s="53"/>
-      <c r="B91" s="55"/>
-      <c r="C91" s="55"/>
-      <c r="D91" s="55"/>
-      <c r="E91" s="59"/>
-      <c r="F91" s="60"/>
+      <c r="A91" s="65"/>
+      <c r="B91" s="53"/>
+      <c r="C91" s="53"/>
+      <c r="D91" s="53"/>
+      <c r="E91" s="54"/>
+      <c r="F91" s="52"/>
       <c r="G91" s="12"/>
       <c r="H91" s="12"/>
       <c r="I91" s="7"/>
@@ -3395,12 +3364,12 @@
       <c r="L91" s="7"/>
     </row>
     <row r="92" spans="1:12" s="6" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A92" s="53"/>
-      <c r="B92" s="55"/>
-      <c r="C92" s="55"/>
-      <c r="D92" s="55"/>
-      <c r="E92" s="59"/>
-      <c r="F92" s="60"/>
+      <c r="A92" s="65"/>
+      <c r="B92" s="53"/>
+      <c r="C92" s="53"/>
+      <c r="D92" s="53"/>
+      <c r="E92" s="54"/>
+      <c r="F92" s="52"/>
       <c r="G92" s="12"/>
       <c r="H92" s="20"/>
       <c r="I92" s="7"/>
@@ -3409,16 +3378,16 @@
       <c r="L92" s="7"/>
     </row>
     <row r="93" spans="1:12" s="6" customFormat="1" ht="12.75">
-      <c r="A93" s="53"/>
-      <c r="B93" s="55"/>
-      <c r="C93" s="55"/>
-      <c r="D93" s="55" t="s">
+      <c r="A93" s="65"/>
+      <c r="B93" s="53"/>
+      <c r="C93" s="53"/>
+      <c r="D93" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="E93" s="59">
+      <c r="E93" s="54">
         <v>8</v>
       </c>
-      <c r="F93" s="60" t="s">
+      <c r="F93" s="52" t="s">
         <v>44</v>
       </c>
       <c r="G93" s="14"/>
@@ -3429,12 +3398,12 @@
       <c r="L93" s="7"/>
     </row>
     <row r="94" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A94" s="54"/>
-      <c r="B94" s="55"/>
-      <c r="C94" s="55"/>
-      <c r="D94" s="55"/>
-      <c r="E94" s="59"/>
-      <c r="F94" s="60"/>
+      <c r="A94" s="66"/>
+      <c r="B94" s="53"/>
+      <c r="C94" s="53"/>
+      <c r="D94" s="53"/>
+      <c r="E94" s="54"/>
+      <c r="F94" s="52"/>
       <c r="G94" s="12"/>
       <c r="H94" s="20"/>
       <c r="I94" s="7"/>
@@ -3443,22 +3412,22 @@
       <c r="L94" s="7"/>
     </row>
     <row r="95" spans="1:12" s="6" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A95" s="69" t="s">
+      <c r="A95" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="B95" s="66" t="s">
+      <c r="B95" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C95" s="72" t="s">
+      <c r="C95" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="D95" s="66" t="s">
+      <c r="D95" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="E95" s="67">
+      <c r="E95" s="62">
         <v>12</v>
       </c>
-      <c r="F95" s="68" t="s">
+      <c r="F95" s="63" t="s">
         <v>39</v>
       </c>
       <c r="G95" s="29"/>
@@ -3469,12 +3438,12 @@
       <c r="L95" s="7"/>
     </row>
     <row r="96" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A96" s="70"/>
-      <c r="B96" s="66"/>
-      <c r="C96" s="73"/>
-      <c r="D96" s="66"/>
-      <c r="E96" s="67"/>
-      <c r="F96" s="68"/>
+      <c r="A96" s="56"/>
+      <c r="B96" s="58"/>
+      <c r="C96" s="60"/>
+      <c r="D96" s="58"/>
+      <c r="E96" s="62"/>
+      <c r="F96" s="63"/>
       <c r="G96" s="28"/>
       <c r="H96" s="28"/>
       <c r="I96" s="7"/>
@@ -3483,12 +3452,12 @@
       <c r="L96" s="7"/>
     </row>
     <row r="97" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A97" s="70"/>
-      <c r="B97" s="66"/>
-      <c r="C97" s="73"/>
-      <c r="D97" s="66"/>
-      <c r="E97" s="67"/>
-      <c r="F97" s="68"/>
+      <c r="A97" s="56"/>
+      <c r="B97" s="58"/>
+      <c r="C97" s="60"/>
+      <c r="D97" s="58"/>
+      <c r="E97" s="62"/>
+      <c r="F97" s="63"/>
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
       <c r="I97" s="7"/>
@@ -3497,9 +3466,9 @@
       <c r="L97" s="7"/>
     </row>
     <row r="98" spans="1:12" s="6" customFormat="1" ht="38.25">
-      <c r="A98" s="70"/>
-      <c r="B98" s="66"/>
-      <c r="C98" s="74"/>
+      <c r="A98" s="56"/>
+      <c r="B98" s="58"/>
+      <c r="C98" s="61"/>
       <c r="D98" s="17" t="s">
         <v>38</v>
       </c>
@@ -3517,8 +3486,8 @@
       <c r="L98" s="7"/>
     </row>
     <row r="99" spans="1:12" s="6" customFormat="1" ht="51" customHeight="1">
-      <c r="A99" s="71"/>
-      <c r="B99" s="66"/>
+      <c r="A99" s="57"/>
+      <c r="B99" s="58"/>
       <c r="C99" s="26" t="s">
         <v>36</v>
       </c>
@@ -3563,7 +3532,7 @@
       <c r="L100" s="7"/>
     </row>
     <row r="101" spans="1:12" s="6" customFormat="1" ht="63.75">
-      <c r="A101" s="55" t="s">
+      <c r="A101" s="53" t="s">
         <v>29</v>
       </c>
       <c r="B101" s="17" t="s">
@@ -3589,11 +3558,11 @@
       <c r="L101" s="7"/>
     </row>
     <row r="102" spans="1:12" s="6" customFormat="1" ht="38.25">
-      <c r="A102" s="55"/>
-      <c r="B102" s="55" t="s">
+      <c r="A102" s="53"/>
+      <c r="B102" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C102" s="55" t="s">
+      <c r="C102" s="53" t="s">
         <v>24</v>
       </c>
       <c r="D102" s="17" t="s">
@@ -3613,16 +3582,16 @@
       <c r="L102" s="7"/>
     </row>
     <row r="103" spans="1:12" s="6" customFormat="1" ht="54" customHeight="1">
-      <c r="A103" s="55"/>
-      <c r="B103" s="55"/>
-      <c r="C103" s="55"/>
-      <c r="D103" s="55" t="s">
+      <c r="A103" s="53"/>
+      <c r="B103" s="53"/>
+      <c r="C103" s="53"/>
+      <c r="D103" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="E103" s="59">
+      <c r="E103" s="54">
         <v>10</v>
       </c>
-      <c r="F103" s="60" t="s">
+      <c r="F103" s="52" t="s">
         <v>20</v>
       </c>
       <c r="G103" s="14"/>
@@ -3633,12 +3602,12 @@
       <c r="L103" s="7"/>
     </row>
     <row r="104" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1">
-      <c r="A104" s="55"/>
-      <c r="B104" s="55"/>
-      <c r="C104" s="55"/>
-      <c r="D104" s="55"/>
-      <c r="E104" s="59"/>
-      <c r="F104" s="60"/>
+      <c r="A104" s="53"/>
+      <c r="B104" s="53"/>
+      <c r="C104" s="53"/>
+      <c r="D104" s="53"/>
+      <c r="E104" s="54"/>
+      <c r="F104" s="52"/>
       <c r="G104" s="13"/>
       <c r="H104" s="20"/>
       <c r="I104" s="7"/>
@@ -3647,20 +3616,20 @@
       <c r="L104" s="7"/>
     </row>
     <row r="105" spans="1:12" s="6" customFormat="1" ht="45.95" customHeight="1">
-      <c r="A105" s="55"/>
-      <c r="B105" s="55" t="s">
+      <c r="A105" s="53"/>
+      <c r="B105" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C105" s="55" t="s">
+      <c r="C105" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D105" s="55" t="s">
+      <c r="D105" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="E105" s="59">
+      <c r="E105" s="54">
         <v>10</v>
       </c>
-      <c r="F105" s="60" t="s">
+      <c r="F105" s="52" t="s">
         <v>16</v>
       </c>
       <c r="G105" s="14"/>
@@ -3671,12 +3640,12 @@
       <c r="L105" s="7"/>
     </row>
     <row r="106" spans="1:12" s="6" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A106" s="55"/>
-      <c r="B106" s="55"/>
-      <c r="C106" s="55"/>
-      <c r="D106" s="55"/>
-      <c r="E106" s="59"/>
-      <c r="F106" s="60"/>
+      <c r="A106" s="53"/>
+      <c r="B106" s="53"/>
+      <c r="C106" s="53"/>
+      <c r="D106" s="53"/>
+      <c r="E106" s="54"/>
+      <c r="F106" s="52"/>
       <c r="G106" s="13"/>
       <c r="H106" s="20"/>
       <c r="I106" s="7"/>
@@ -3685,16 +3654,16 @@
       <c r="L106" s="7"/>
     </row>
     <row r="107" spans="1:12" s="6" customFormat="1" ht="12.75">
-      <c r="A107" s="55"/>
-      <c r="B107" s="55"/>
-      <c r="C107" s="55"/>
-      <c r="D107" s="55" t="s">
+      <c r="A107" s="53"/>
+      <c r="B107" s="53"/>
+      <c r="C107" s="53"/>
+      <c r="D107" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E107" s="59">
+      <c r="E107" s="54">
         <v>6</v>
       </c>
-      <c r="F107" s="60" t="s">
+      <c r="F107" s="52" t="s">
         <v>14</v>
       </c>
       <c r="G107" s="14"/>
@@ -3705,12 +3674,12 @@
       <c r="L107" s="7"/>
     </row>
     <row r="108" spans="1:12" s="6" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A108" s="55"/>
-      <c r="B108" s="55"/>
-      <c r="C108" s="55"/>
-      <c r="D108" s="55"/>
-      <c r="E108" s="59"/>
-      <c r="F108" s="60"/>
+      <c r="A108" s="53"/>
+      <c r="B108" s="53"/>
+      <c r="C108" s="53"/>
+      <c r="D108" s="53"/>
+      <c r="E108" s="54"/>
+      <c r="F108" s="52"/>
       <c r="G108" s="21"/>
       <c r="H108" s="20"/>
       <c r="I108" s="7"/>
@@ -3719,10 +3688,10 @@
       <c r="L108" s="7"/>
     </row>
     <row r="109" spans="1:12" s="6" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A109" s="55" t="s">
+      <c r="A109" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B109" s="55" t="s">
+      <c r="B109" s="53" t="s">
         <v>12</v>
       </c>
       <c r="C109" s="19" t="s">
@@ -3745,8 +3714,8 @@
       <c r="L109" s="7"/>
     </row>
     <row r="110" spans="1:12" s="6" customFormat="1" ht="39" customHeight="1">
-      <c r="A110" s="55"/>
-      <c r="B110" s="55"/>
+      <c r="A110" s="53"/>
+      <c r="B110" s="53"/>
       <c r="C110" s="19" t="s">
         <v>8</v>
       </c>
@@ -3767,20 +3736,20 @@
       <c r="L110" s="7"/>
     </row>
     <row r="111" spans="1:12" s="6" customFormat="1" ht="12.75">
-      <c r="A111" s="55"/>
-      <c r="B111" s="55" t="s">
+      <c r="A111" s="53"/>
+      <c r="B111" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C111" s="55" t="s">
+      <c r="C111" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D111" s="55" t="s">
+      <c r="D111" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E111" s="59">
+      <c r="E111" s="54">
         <v>12</v>
       </c>
-      <c r="F111" s="60" t="s">
+      <c r="F111" s="52" t="s">
         <v>2</v>
       </c>
       <c r="G111" s="14"/>
@@ -3791,12 +3760,12 @@
       <c r="L111" s="7"/>
     </row>
     <row r="112" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A112" s="55"/>
-      <c r="B112" s="55"/>
-      <c r="C112" s="55"/>
-      <c r="D112" s="55"/>
-      <c r="E112" s="59"/>
-      <c r="F112" s="60"/>
+      <c r="A112" s="53"/>
+      <c r="B112" s="53"/>
+      <c r="C112" s="53"/>
+      <c r="D112" s="53"/>
+      <c r="E112" s="54"/>
+      <c r="F112" s="52"/>
       <c r="G112" s="13"/>
       <c r="H112" s="12"/>
       <c r="I112" s="7"/>
@@ -3805,12 +3774,12 @@
       <c r="L112" s="7"/>
     </row>
     <row r="113" spans="1:12" s="6" customFormat="1" ht="93.95" customHeight="1">
-      <c r="A113" s="55"/>
-      <c r="B113" s="55"/>
-      <c r="C113" s="55"/>
-      <c r="D113" s="55"/>
-      <c r="E113" s="59"/>
-      <c r="F113" s="60"/>
+      <c r="A113" s="53"/>
+      <c r="B113" s="53"/>
+      <c r="C113" s="53"/>
+      <c r="D113" s="53"/>
+      <c r="E113" s="54"/>
+      <c r="F113" s="52"/>
       <c r="G113" s="11"/>
       <c r="H113" s="10"/>
       <c r="I113" s="7"/>
@@ -3819,20 +3788,20 @@
       <c r="L113" s="7"/>
     </row>
     <row r="114" spans="1:12" s="6" customFormat="1" ht="33.6" customHeight="1">
-      <c r="A114" s="75" t="s">
+      <c r="A114" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B114" s="76"/>
-      <c r="C114" s="76"/>
-      <c r="D114" s="77"/>
+      <c r="B114" s="49"/>
+      <c r="C114" s="49"/>
+      <c r="D114" s="50"/>
       <c r="E114" s="9">
         <f>SUM(E6:E113)</f>
         <v>600</v>
       </c>
-      <c r="F114" s="75" t="s">
+      <c r="F114" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="G114" s="78"/>
+      <c r="G114" s="51"/>
       <c r="H114" s="8">
         <f>SUM(H6:H113)</f>
         <v>0</v>
@@ -3844,146 +3813,6 @@
     </row>
   </sheetData>
   <mergeCells count="164">
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="D111:D113"/>
-    <mergeCell ref="E111:E113"/>
-    <mergeCell ref="A101:A108"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F111:F113"/>
-    <mergeCell ref="A95:A99"/>
-    <mergeCell ref="B95:B99"/>
-    <mergeCell ref="C95:C98"/>
-    <mergeCell ref="D95:D97"/>
-    <mergeCell ref="E95:E97"/>
-    <mergeCell ref="F95:F97"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="B105:B108"/>
-    <mergeCell ref="C105:C108"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="A88:A94"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B90:B94"/>
-    <mergeCell ref="C90:C94"/>
-    <mergeCell ref="D90:D92"/>
-    <mergeCell ref="E90:E92"/>
-    <mergeCell ref="F90:F92"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A76:A87"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="D85:D87"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="B81:B87"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="C83:C87"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="F85:F87"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="C69:C72"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="F69:F71"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="B46:B50"/>
-    <mergeCell ref="C46:C50"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="A37:A45"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A25:A36"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="E2:G2"/>
@@ -4008,6 +3837,146 @@
     <mergeCell ref="E14:E16"/>
     <mergeCell ref="F14:F16"/>
     <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="A25:A36"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A37:A45"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="C46:C50"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="C69:C72"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="F69:F71"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="A76:A87"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="D85:D87"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="B81:B87"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="C83:C87"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="F85:F87"/>
+    <mergeCell ref="A88:A94"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="C90:C94"/>
+    <mergeCell ref="D90:D92"/>
+    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="F90:F92"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A95:A99"/>
+    <mergeCell ref="B95:B99"/>
+    <mergeCell ref="C95:C98"/>
+    <mergeCell ref="D95:D97"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="F95:F97"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="B105:B108"/>
+    <mergeCell ref="C105:C108"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="D111:D113"/>
+    <mergeCell ref="E111:E113"/>
+    <mergeCell ref="A101:A108"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F111:F113"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4079,7 +4048,7 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<nXeGKudETKPeaCNGFh5i2aVdoOsLYjULCdH7T707tDyRRmguot4fEcJ2iD6f9>aijtZbeaDr5ifuku6q8Dl4KnAmxHbEzlw2o+upnhWGM=</nXeGKudETKPeaCNGFh5i2aVdoOsLYjULCdH7T707tDyRRmguot4fEcJ2iD6f9>
+<nXeGKudETKPeaCNGFh5iy53cs4YTjZQd4Re9Stbph13fJwq3N1dxRUwfkxNCzGbktJIbKf2q8mQyY814Q>GoBUcRQBOiWNv9cnqy33XA==</nXeGKudETKPeaCNGFh5iy53cs4YTjZQd4Re9Stbph13fJwq3N1dxRUwfkxNCzGbktJIbKf2q8mQyY814Q>
 </file>
 
 <file path=customXml/item20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4107,7 +4076,7 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<nXeGKudETKPeaCNGFh5iy53cs4YTjZQd4Re9Stbph13fJwq3N1dxRUwfkxNCzGbktJIbKf2q8mQyY814Q>GoBUcRQBOiWNv9cnqy33XA==</nXeGKudETKPeaCNGFh5iy53cs4YTjZQd4Re9Stbph13fJwq3N1dxRUwfkxNCzGbktJIbKf2q8mQyY814Q>
+<nXeGKudETKPeaCNGFh5i2aVdoOsLYjULCdH7T707tDyRRmguot4fEcJ2iD6f9>aijtZbeaDr5ifuku6q8Dl4KnAmxHbEzlw2o+upnhWGM=</nXeGKudETKPeaCNGFh5i2aVdoOsLYjULCdH7T707tDyRRmguot4fEcJ2iD6f9>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4137,97 +4106,97 @@
 </file>
 
 <file path=customXml/itemProps10.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFC9BDDB-A4B7-4DC0-BB79-FE82D4420023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86A8CE16-6674-41FD-8FA9-F3F8778FB20B}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps11.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A50DF2F8-5506-4D9D-A897-44ED723810D3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37836C0C-9E53-4080-8E62-34CE29A517AA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps12.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90C6D42E-E57F-48A0-B791-5422EF3D3891}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17966923-FB40-476C-9B0D-D68478618874}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps13.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BABF7F4E-9150-4044-AB6E-10C9C2CA6D64}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CA63E6A-13D3-4383-ADF8-B9B8B3D074B4}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps14.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D550673-B1AB-4F3B-89EE-F82EB0CD7F69}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52730355-5D8B-4557-ABB3-28DD95A7B81E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps15.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53FA1799-D909-4649-90B0-964978E9574A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BFE515B-82D8-47F4-8D19-13D3BF525574}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps16.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E293D043-04B5-4912-A06A-1375C4856FCC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A11E6A90-512C-4420-8795-5B4C960396E9}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps17.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBF259A4-5DA0-4A8D-98D2-DA1E46F903E7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D766635C-C59E-4458-B39D-6E35F3C3E91F}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps18.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4106179A-C157-4204-AA6C-F110F3BC7F0E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B9AD3DC-689F-4449-80B1-D340EC436BFF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps19.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3FF33F2-57E6-4AA0-A478-7C4196810B5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D25D96CB-235D-4A80-BBF3-F57EF0A69FFA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01CF30C1-4959-4D3A-B180-0B8F5A0AA3A1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA82C119-EE81-4E19-BFC8-648830FF3AE0}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps20.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{987F5A9D-3A01-460A-B91C-2EF5BEE33AD1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F337C1ED-AC8E-40FA-8664-2ABEC6A29929}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps21.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C72305-3ED1-40CF-B71F-6D29A0A49030}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{915959B1-3672-4DE1-AB17-9262C7BC7AB2}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps22.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D6192DE-7256-4C50-9107-05E65636590C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C3F1A51-4879-4809-83B8-A963A73CA773}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps23.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD545BC1-062B-46DA-9F5D-576608FA0721}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D90C1FF-E14F-4F32-951C-E1B1D239A800}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps24.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{542A5FCA-E34E-4F17-9DE0-B80B6E9D2062}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F7608EB-88BF-4C89-ADC6-062A1B241A39}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -4239,37 +4208,37 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA82C119-EE81-4E19-BFC8-648830FF3AE0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01CF30C1-4959-4D3A-B180-0B8F5A0AA3A1}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA562653-4D03-43B0-8FA2-34E2D49D20AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFD2B113-2449-4F44-AAF8-024FC477C0EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3319E1F-02F1-41AB-84AF-D22C6AE34DA8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{416B13E6-D742-49FE-A576-828C201722B2}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps7.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63C4787C-1134-4346-B9F0-FDAEBA6024C3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABCFACBF-89BB-4737-BBFA-B2843C619A3A}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps8.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{966F5C58-4610-4F9F-952C-99146F43298B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6711E7EE-980C-4C3A-8D44-F7DDB99B58D6}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps9.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D0E641B-1634-4DD9-9AF5-830949744135}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31B601A4-74A3-47BE-90B9-0451B6062702}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/Safeway/wwwroot/exportTemplate/小微评审.xlsx
+++ b/Safeway/wwwroot/exportTemplate/小微评审.xlsx
@@ -12,23 +12,47 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="打印评分表" sheetId="2" r:id="rId1"/>
+    <sheet name="评分表" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="评分中间表" sheetId="3" r:id="rId3"/>
+    <sheet name="打印评分表" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">打印评分表!$A$1:$H$114</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">打印评分表!$1:$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">评分表!$I$1:$I$85</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">打印评分表!$A$1:$H$114</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">评分中间表!$A$1:$H$114</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">评分表!$A$1:$H$73</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">打印评分表!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">评分中间表!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">评分表!$1:$5</definedName>
+    <definedName name="t" localSheetId="0">#REF!</definedName>
+    <definedName name="t">#REF!</definedName>
+    <definedName name="上级" localSheetId="3">#REF!</definedName>
+    <definedName name="上级" localSheetId="2">#REF!</definedName>
     <definedName name="上级" localSheetId="0">#REF!</definedName>
     <definedName name="上级">#REF!</definedName>
+    <definedName name="姓名" localSheetId="3">#REF!</definedName>
+    <definedName name="姓名" localSheetId="2">#REF!</definedName>
     <definedName name="姓名" localSheetId="0">#REF!</definedName>
     <definedName name="姓名">#REF!</definedName>
+    <definedName name="年" localSheetId="3">#REF!</definedName>
+    <definedName name="年" localSheetId="2">#REF!</definedName>
     <definedName name="年" localSheetId="0">#REF!</definedName>
     <definedName name="年">#REF!</definedName>
+    <definedName name="成员" localSheetId="3">#REF!</definedName>
+    <definedName name="成员" localSheetId="2">#REF!</definedName>
     <definedName name="成员" localSheetId="0">#REF!</definedName>
     <definedName name="成员">#REF!</definedName>
+    <definedName name="日" localSheetId="3">#REF!</definedName>
+    <definedName name="日" localSheetId="2">#REF!</definedName>
     <definedName name="日" localSheetId="0">#REF!</definedName>
     <definedName name="日">#REF!</definedName>
+    <definedName name="月" localSheetId="3">#REF!</definedName>
+    <definedName name="月" localSheetId="2">#REF!</definedName>
     <definedName name="月" localSheetId="0">#REF!</definedName>
     <definedName name="月">#REF!</definedName>
+    <definedName name="评审单位" localSheetId="3">#REF!</definedName>
+    <definedName name="评审单位" localSheetId="2">#REF!</definedName>
     <definedName name="评审单位" localSheetId="0">#REF!</definedName>
     <definedName name="评审单位">#REF!</definedName>
   </definedNames>
@@ -42,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="312">
   <si>
     <t>得分总计:</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -892,6 +916,363 @@
   </si>
   <si>
     <t>未制定年度安全生产目标、计划相关材料的，不得分。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+一、基础管理（140分）
+</t>
+  </si>
+  <si>
+    <t>一、基础管理（140分）</t>
+  </si>
+  <si>
+    <t>重要危险岗位应制定现场处置方案，并在醒目位置张贴，从业人员应熟悉处置方法。</t>
+  </si>
+  <si>
+    <t>根据安全生产标准化的评定结果，对安全生产目标与指标、规章制度、操作规程等进行修改完善，制定完善安全生产标准化的工作计划和措施，实施计划、执行、检查、改进（PDCA）循环，不断提高安全绩效。</t>
+  </si>
+  <si>
+    <t>发生死亡事故后应立即进行自我评定。</t>
+  </si>
+  <si>
+    <t>每年至少一次对安全生产标准化实施情况进行评定，形成自评报告，并报送当地安监机构。</t>
+  </si>
+  <si>
+    <t>0F86FF0F-7D8E-4226-A21A-B322824C53D0</t>
+  </si>
+  <si>
+    <t>EB20B632-B048-47CE-9F0B-F4D93BC461E4</t>
+  </si>
+  <si>
+    <t>37BBEFB2-675E-4A61-8336-D93479D3BACF</t>
+  </si>
+  <si>
+    <t>2EA7ED9E-82F2-4E3A-9C1F-0AFA1EDCEF71</t>
+  </si>
+  <si>
+    <t>按规定配备专（兼）职安全管理人员和职业健康管理人员，主要负责人及安全管理人员应持证上岗。</t>
+  </si>
+  <si>
+    <t>45972926-5635-48D0-9138-E370D07848F1</t>
+  </si>
+  <si>
+    <t>7B25EB03-943A-417F-9B03-FC90C6720C5F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">保证安全生产费用投入，并建立安全生产费用使用台账。   </t>
+  </si>
+  <si>
+    <t>1D1BC717-FFC5-4A92-8BCB-1FC3C9495863</t>
+  </si>
+  <si>
+    <t>4DF8B901-E52A-4519-AC05-6B7915644F0F</t>
+  </si>
+  <si>
+    <t>收集适用的安全生产法律法规与其他要求，并将相关要求及时转化为本单位的规章制度，贯彻到各项工作中。</t>
+  </si>
+  <si>
+    <t>4F999F5C-760C-48DF-B0E1-746074B726CE</t>
+  </si>
+  <si>
+    <t>按照相关规定建立、健全安全生产规章制度并发布，至少包含下列内容：安全生产责任制、安全生产投入管理、安全教育培训管理、特种作业人员管理、设备设施安全管理、危险作业许可、特种作业人员管理、安全检查与隐患治理、危险物品管理、事故与应急、安全奖惩、职业健康管理、消防管理、劳动防护用品管理、建设项目 “三同时”管理等。</t>
+  </si>
+  <si>
+    <t>05C832B3-87C4-4D61-9933-258374F5AC2B</t>
+  </si>
+  <si>
+    <t>FE67829F-9DF6-49D0-92B7-01B9D424EAC2</t>
+  </si>
+  <si>
+    <t>向员工下发管理制度和岗位安全操作规程，对相关员工进行培训和考核并监督执行。</t>
+  </si>
+  <si>
+    <t>29CB317D-6C2C-4F76-93D4-4576AB366CA0</t>
+  </si>
+  <si>
+    <t>对各岗位人员进行安全、职业健康教育和生产技能培训和考核，考核不合格人员，不得上岗。</t>
+  </si>
+  <si>
+    <t>3398281F-5BB2-4EDF-9FE9-1D601A48C5EB</t>
+  </si>
+  <si>
+    <t>特种作业人员和特种设备作业人员必须持证上岗。</t>
+  </si>
+  <si>
+    <t>B097EEC7-2141-49F4-8ED6-5A90DEEF5F67</t>
+  </si>
+  <si>
+    <t>对新员工进行“三级”安全教育和职业健康教育；对转岗和重新上岗人员进行相应的教育培训。</t>
+  </si>
+  <si>
+    <t>258D39B8-9845-4F64-B995-252D31BB39C1</t>
+  </si>
+  <si>
+    <t>416233CB-3E07-44A7-BF22-94CFEBFE0244</t>
+  </si>
+  <si>
+    <t>相关方作业人员进入作业现场前，应由作业现场所在单位对其进行进入有针对性的现场前的安全教育培训。</t>
+  </si>
+  <si>
+    <t>7A9E5960-EF7E-4AE3-AB3E-F83ADE8CD6D1</t>
+  </si>
+  <si>
+    <t>对本单位的设备设施、作业活动和场所进行危险源辨识和评估分级，对确定危险源采取有效防范措施。</t>
+  </si>
+  <si>
+    <t>6F4F7660-60B8-400B-871C-06BB4C3E64B4</t>
+  </si>
+  <si>
+    <t>E91000FA-3443-4402-AF5B-E62C5B7DA8A0</t>
+  </si>
+  <si>
+    <t>5906896F-3A5E-445D-A99A-6343B53CDE1B</t>
+  </si>
+  <si>
+    <t>1ED63A79-85CD-4BCB-9773-56F9D30D39A2</t>
+  </si>
+  <si>
+    <t>制定生产安全事故应急预案，配备应急器材，按规定定期组织演练。</t>
+  </si>
+  <si>
+    <t>3C4C3A78-7AD4-4096-8109-0BCEB3912D8E</t>
+  </si>
+  <si>
+    <t>83EAAD69-817B-4770-8A8F-54BA8CEC0A77</t>
+  </si>
+  <si>
+    <t>E477DE25-A8F3-45A0-8492-78B58058C3D8</t>
+  </si>
+  <si>
+    <t>2431353D-BF02-414B-9C28-0D1AB7C6DC2D</t>
+  </si>
+  <si>
+    <t>0DA6DBDA-B0C4-4E76-92BD-894BCFE180E2</t>
+  </si>
+  <si>
+    <t>7C37AECD-F3D6-4545-8537-95E9D81176D3</t>
+  </si>
+  <si>
+    <t>生产企业车间、仓库与员工宿舍布局、耐火等级及防火分区应满足相关法律法规、标准规范要求。</t>
+  </si>
+  <si>
+    <t>0A8C9E4B-EEC1-4C99-8F9E-7B13DEEE78FE</t>
+  </si>
+  <si>
+    <t>工业气瓶应满足：储存仓库安全标志完善，气瓶存放位置、间距、标志及存放量符合要求，各种护具及消防器材齐全可靠；气瓶在检验期内使用，外观无缺陷及腐蚀，漆色及标志正确、明显，安全附件齐全、完好；气瓶使用时的防倾倒措施可靠，工作场所存放量符合规定，与明火的间距符合规定。</t>
+  </si>
+  <si>
+    <t>F80B705E-E56D-42AA-8607-1776F1AF5908</t>
+  </si>
+  <si>
+    <t>起重设备应满足：标明起重吨位，并设有限位器、缓冲器、防碰撞装置、超载限制器、连锁保护装置、轨道端部止档、定位装置、零位保护、安全钩、走台栏杆等安全设施。</t>
+  </si>
+  <si>
+    <t>6EAC448A-1546-4FFB-899A-C58496590EAD</t>
+  </si>
+  <si>
+    <t>厂内机动车辆应满足：在检验有效期内使用，动力系统运转平稳，无漏电、漏水、漏油；仪表、照明、信号灯、倒车报警等附属安全装置性能良好。</t>
+  </si>
+  <si>
+    <t>B2B5837F-993E-44EF-BAFA-C4C658AF92D7</t>
+  </si>
+  <si>
+    <t>电气室应有灭火装置和防止小动物进入的措施，电缆穿线孔等应用防火材料进行封堵，现场维护、检查记录齐全；现场清洁无杂物；常用电气工具和防护用品齐全、完好。</t>
+  </si>
+  <si>
+    <t>7F1B2FA4-5627-4F81-B988-51CAA5BE01B7</t>
+  </si>
+  <si>
+    <t>移动电气设备（如：电焊机、手持电动工具等）应满足：定期对绝缘电阻进行检测，绝缘电阻符合相关要求；电源线应采用三芯或四芯多股橡胶电缆，无接头，不得跨越通道，绝缘层无破损，一次线长度符合相关要求；PE线连接可靠，防护罩等完好，无松动；开关可靠、灵敏，与负载匹配。</t>
+  </si>
+  <si>
+    <t>24564386-AF0B-4B67-9BA4-19495C096504</t>
+  </si>
+  <si>
+    <t>低压电气线路（固定线路）应满足：定期进行电缆线路的预防性实验记录。线路的安全距离符合要求；线路的导电性能和机械强度符合要求；线路的保护装置齐全可靠；线路绝缘、屏护良好，无发热和渗漏油现象；电杆直立、拉线、横担瓷瓶及金属构架等符合安全要求；线路相序、相色正确、标志齐全、清晰；线路排列整齐、无影响线路安全的障碍物。</t>
+  </si>
+  <si>
+    <t>D74F767C-E7F8-4B21-A457-1CCF11703E02</t>
+  </si>
+  <si>
+    <t>危险化学品库应满足：库房耐火等级应不低于二级，门窗应向外开启；危险化学品应按其特性，分类、分区、分库、分架、分批次存放；存放处及使用场所应有《化学品安全技术说明书》（SDS）；应根据存放物品的特性采取相应等级的防爆电器；所使用的工具应满足防火防爆的要求；灭火器的配置应符合GB 50140的相关规定；消防通道应畅通，无占道堵塞现象；库房外应设有醒目的安全警示标志；并应设有储存物品的名称、特性、数量及灭火方法的标识牌；危险化学品的废弃物和包装容器应统一回收、统一处理。</t>
+  </si>
+  <si>
+    <t>8AFBC38E-B003-47E5-89FA-5ABA0533F18D</t>
+  </si>
+  <si>
+    <t>直梯、斜梯、防护栏杆和工作平台应符合《固定式钢梯及平台安全要求》（GB4053.1-3）的规定。</t>
+  </si>
+  <si>
+    <t>E4C14BF5-5CB2-4D53-8BAA-902B0C18687D</t>
+  </si>
+  <si>
+    <t>有毒、可燃气体报警设施、消防设施、防雷设施等强制检测设施，应定期检测合格。</t>
+  </si>
+  <si>
+    <t>55F39FB3-7AEA-4C06-8EEF-1AB433403385</t>
+  </si>
+  <si>
+    <t>不同介质的管线，应按照《工业管道的基本识别色、识别符号和安全标识》（GB7231）的规定注明介质名称和流向。</t>
+  </si>
+  <si>
+    <t>FCA6A299-A371-4F53-A13C-6D875633CA16</t>
+  </si>
+  <si>
+    <t>CF380D77-C67F-4D42-BD52-BABD41974696</t>
+  </si>
+  <si>
+    <t>7A94685E-F4CE-4D1E-9BA3-6E1FC71584DB</t>
+  </si>
+  <si>
+    <t>其他生产设备（含自有专用设备）及配备的安全设施，应符合有关法律法规、标准规范要求。</t>
+  </si>
+  <si>
+    <t>1E4CDA68-3FD9-4F20-972B-BA722E6BCDD4</t>
+  </si>
+  <si>
+    <t>特种设备应取得使用登记证，特种设备及其安全附件应经有资质的机构定期检测合格。</t>
+  </si>
+  <si>
+    <t>A9934307-14CF-4050-A656-9FD1CD5A04FF</t>
+  </si>
+  <si>
+    <t>2D438E01-ABAA-451C-9C85-338739D125CD</t>
+  </si>
+  <si>
+    <t>建立生产设备设施档案，建立维护、保养、运行台帐，台帐记录应及时、完整。</t>
+  </si>
+  <si>
+    <t>9EA1D19C-9BE5-471E-A884-E6439B804C9F</t>
+  </si>
+  <si>
+    <t>447D9284-1381-4016-9137-394943EFB4FA</t>
+  </si>
+  <si>
+    <t>照明和采光良好，道路、通道、出入口、地面等符合安全要求，沟﹑坑﹑池等设置符合规定的护栏或盖板。</t>
+  </si>
+  <si>
+    <t>D3A59CFE-21A1-4446-B1FA-5EBB77B4B69C</t>
+  </si>
+  <si>
+    <t>设备设施、物料摆放整齐、清洁，设备设施维护保养良好。</t>
+  </si>
+  <si>
+    <t>FBAC57EC-DD40-40CF-81E8-1B81E1077E26</t>
+  </si>
+  <si>
+    <t>设置符合要求的消防设备、设施、器材，定期检查、检验并有记录。</t>
+  </si>
+  <si>
+    <t>B8BB192A-9233-4630-8E7A-31465533F4EA</t>
+  </si>
+  <si>
+    <t>疏散通道、安全出口畅通，标志明显。</t>
+  </si>
+  <si>
+    <t>722F48CA-F318-4F1C-AB17-C6416BBE93CA</t>
+  </si>
+  <si>
+    <t>对涉及的动火作业、有限空间作业、临时用电作业、高处作业、吊装作业等危险性较高的作业履行审批手续，明确责任人，制定应急处置方案，落实现场安全防护措施。</t>
+  </si>
+  <si>
+    <t>1B7BB057-1ADF-4656-B804-A1E0923DB165</t>
+  </si>
+  <si>
+    <t>应当为从业人员配备与工作岗位相适应的符合国家标准或者行业标准的劳动防护用品，并监督、教育从业人员按照使用规则佩戴、使用。</t>
+  </si>
+  <si>
+    <t>D28672A4-B884-4FAA-A3F4-3EE21EF74BB5</t>
+  </si>
+  <si>
+    <t>B14D7615-8506-4B26-AB38-07EABE90B925</t>
+  </si>
+  <si>
+    <t>存在较大危险、有害因素的场所和设备设施，应按照《安全标志》（GB2894）和《安全色》（GB2893）等要求，在醒目位置设置警示标志和中文警示说明。</t>
+  </si>
+  <si>
+    <t>236E1A0C-A1B0-4F13-819C-E24C630FB02F</t>
+  </si>
+  <si>
+    <t>8ECA03DD-155F-43AE-A234-2A812EB2BA4F</t>
+  </si>
+  <si>
+    <t>E56B3D4E-B85B-490A-A279-07EC0BDC7F3A</t>
+  </si>
+  <si>
+    <t>在设备设施检维修、施工、吊装等作业现场，设置警戒区域和警示标志，在检维修现场设置围栏和警示标志。</t>
+  </si>
+  <si>
+    <t>98F763DA-6DC9-49DE-B8DD-C48D4FC878E8</t>
+  </si>
+  <si>
+    <t>企业应按规定组织事故隐患排查工作，对隐患进行分析评估，确定重大隐患和一般隐患，并登记建档。</t>
+  </si>
+  <si>
+    <t>83CAA392-5785-4196-8DE3-CB7DFB2F06F5</t>
+  </si>
+  <si>
+    <t>及时通过“隐患排查治理信息系统”进行申报。</t>
+  </si>
+  <si>
+    <t>12566B5E-883F-4527-858B-DAA5E2AD107F</t>
+  </si>
+  <si>
+    <t>0B4C6590-C558-4518-B452-EF55538A1D62</t>
+  </si>
+  <si>
+    <t>1DAEF46A-49DA-402E-9D5A-6F09CD170D54</t>
+  </si>
+  <si>
+    <t>工作场所存在职业病危害因素的，应按规定及时、如实向所在地安监部门申报职业病危害项目。</t>
+  </si>
+  <si>
+    <t>79B60377-9E6F-4C08-BFDF-61FF6CCFB8B8</t>
+  </si>
+  <si>
+    <t>A8F60040-6665-4F91-A603-430662F1063C</t>
+  </si>
+  <si>
+    <t>对从事接触职业病危害作业的劳动者，应按照规定组织上岗前、在岗期间、离岗时、应急的职业健康检查，并将检查结果书面如实告知劳动者。</t>
+  </si>
+  <si>
+    <t>9AD40465-9BF7-43D9-85AB-B9AA2EB89ACB</t>
+  </si>
+  <si>
+    <t>存在职业病危害因素的，应按规定委托具有相应资质的职业卫生技术服务机构，每年至少进行一次职业病危害因素检测。</t>
+  </si>
+  <si>
+    <t>5C1CFEAD-B1D2-43F0-B869-07DBDD54CC40</t>
+  </si>
+  <si>
+    <t>将检测结果在醒目位置进行公布并存入职业卫生档案。</t>
+  </si>
+  <si>
+    <t>F8B185A3-B388-4BDA-9380-4C1D87B441F9</t>
+  </si>
+  <si>
+    <t>19D9B9CB-BAF0-459A-B0A6-84D8CFDF3FD2</t>
+  </si>
+  <si>
+    <t>93CDE058-2B91-4A7F-8DDD-8C5716B7DF78</t>
+  </si>
+  <si>
+    <t>生产设备设施传动部位应按照如下情况，设置防护罩、盖或栏： 
+Ⅰ 以作业人员站立平面为基准，高度2m 以下的外露传动部位； 
+Ⅱ 旋转的键、销、楔等突出大于3mm的部位；
+Ⅲ 产生切屑、磨屑、冷却液等飞溅，可能触及人体或造成设备与环境污染的部位； 
+Ⅳ 产生射线或弧光的部位； 
+Ⅴ 伸入通道的超长工件； 
+Ⅵ 超长设备后端300mm以上的工件； 
+Ⅶ 容易伤人的设备往复运动部位； 
+Ⅷ 悬挂输送装置跨越通道的下部； 
+Ⅸ 高于地面0.7m的操作平台。</t>
+  </si>
+  <si>
+    <t>在全部停电或部分停电的电气设备上作业，应遵守下列规定：
+（1）拉闸断电，并采取开关箱上锁等措施；
+（2）验电、放电；
+（3）各相短路接地；
+（4）悬挂“禁止合闸，有人工作”的标示牌和装设遮拦。</t>
   </si>
 </sst>
 </file>
@@ -1119,7 +1500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1250,6 +1631,84 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1262,86 +1721,89 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1623,10 +2085,4412 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="71" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" style="4" customWidth="1"/>
+    <col min="3" max="4" width="24.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="38" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="60" customHeight="1">
+      <c r="A1" s="94" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="70"/>
+    </row>
+    <row r="2" spans="1:10" s="42" customFormat="1" ht="18.75">
+      <c r="A2" s="57" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="57"/>
+      <c r="C2" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="57"/>
+      <c r="E2" s="97" t="s">
+        <v>193</v>
+      </c>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="43"/>
+    </row>
+    <row r="3" spans="1:10" s="42" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A3" s="97" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="97" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="43"/>
+    </row>
+    <row r="4" spans="1:10" s="42" customFormat="1" ht="9.6" customHeight="1">
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="43"/>
+    </row>
+    <row r="5" spans="1:10" s="38" customFormat="1" ht="38.25">
+      <c r="A5" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="I5" s="39"/>
+    </row>
+    <row r="6" spans="1:10" s="6" customFormat="1" ht="64.5" customHeight="1">
+      <c r="A6" s="85" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="87" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="64">
+        <v>4</v>
+      </c>
+      <c r="F6" s="71" t="s">
+        <v>197</v>
+      </c>
+      <c r="G6" s="64"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="6" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A7" s="86"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" s="64">
+        <v>4</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="59"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="6" customFormat="1" ht="77.25" customHeight="1">
+      <c r="A8" s="86"/>
+      <c r="B8" s="78" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" s="64">
+        <v>6</v>
+      </c>
+      <c r="F8" s="71" t="s">
+        <v>173</v>
+      </c>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="6" customFormat="1" ht="66.75" customHeight="1">
+      <c r="A9" s="86"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="64" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="64">
+        <v>6</v>
+      </c>
+      <c r="F9" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="6" customFormat="1" ht="87.75" customHeight="1">
+      <c r="A10" s="86"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="62" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>169</v>
+      </c>
+      <c r="E10" s="64">
+        <v>12</v>
+      </c>
+      <c r="F10" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="6" customFormat="1" ht="65.25" customHeight="1">
+      <c r="A11" s="86"/>
+      <c r="B11" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" s="64">
+        <v>8</v>
+      </c>
+      <c r="F11" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="6" customFormat="1" ht="56.25" customHeight="1">
+      <c r="A12" s="86"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="64">
+        <v>4</v>
+      </c>
+      <c r="F12" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="6" customFormat="1" ht="74.25" customHeight="1">
+      <c r="A13" s="91"/>
+      <c r="B13" s="91" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" s="64">
+        <v>4</v>
+      </c>
+      <c r="F13" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="G13" s="64"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="6" customFormat="1" ht="229.5">
+      <c r="A14" s="93"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" s="64">
+        <v>12</v>
+      </c>
+      <c r="F14" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="6" customFormat="1" ht="54" customHeight="1">
+      <c r="A15" s="91"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="64">
+        <v>10</v>
+      </c>
+      <c r="F15" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="6" customFormat="1" ht="60" customHeight="1">
+      <c r="A16" s="92"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="64" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="64">
+        <v>6</v>
+      </c>
+      <c r="F16" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="6" customFormat="1" ht="59.25" customHeight="1">
+      <c r="A17" s="92"/>
+      <c r="B17" s="85" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="85" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="64">
+        <v>8</v>
+      </c>
+      <c r="F17" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="6" customFormat="1" ht="25.5">
+      <c r="A18" s="92"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="E18" s="64">
+        <v>6</v>
+      </c>
+      <c r="F18" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="G18" s="64"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="6" customFormat="1" ht="67.5" customHeight="1">
+      <c r="A19" s="92"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" s="64">
+        <v>10</v>
+      </c>
+      <c r="F19" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="6" customFormat="1" ht="74.25" customHeight="1">
+      <c r="A20" s="91"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="64">
+        <v>4</v>
+      </c>
+      <c r="F20" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="G20" s="64"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="6" customFormat="1" ht="107.25" customHeight="1">
+      <c r="A21" s="92"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" s="64">
+        <v>4</v>
+      </c>
+      <c r="F21" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="6" customFormat="1" ht="59.25" customHeight="1">
+      <c r="A22" s="92"/>
+      <c r="B22" s="78" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="64">
+        <v>6</v>
+      </c>
+      <c r="F22" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="64"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="6" customFormat="1" ht="51">
+      <c r="A23" s="92"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="64">
+        <v>6</v>
+      </c>
+      <c r="F23" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="G23" s="59"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="6" customFormat="1" ht="45" customHeight="1">
+      <c r="A24" s="92"/>
+      <c r="B24" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="64">
+        <v>4</v>
+      </c>
+      <c r="F24" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24" s="64"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="6" customFormat="1" ht="78.599999999999994" customHeight="1">
+      <c r="A25" s="93"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="64">
+        <v>4</v>
+      </c>
+      <c r="F25" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" s="60"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="6" customFormat="1" ht="81" customHeight="1">
+      <c r="A26" s="91"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="85" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" s="64">
+        <v>6</v>
+      </c>
+      <c r="F26" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="6" customFormat="1" ht="69.75" customHeight="1">
+      <c r="A27" s="92"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="64" t="s">
+        <v>200</v>
+      </c>
+      <c r="E27" s="64">
+        <v>6</v>
+      </c>
+      <c r="F27" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="6" customFormat="1" ht="51" customHeight="1">
+      <c r="A28" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="85" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" s="64">
+        <v>8</v>
+      </c>
+      <c r="F28" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="64"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="6" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A29" s="92"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="64">
+        <v>8</v>
+      </c>
+      <c r="F29" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" s="64"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="6" customFormat="1" ht="38.25">
+      <c r="A30" s="92"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="64">
+        <v>8</v>
+      </c>
+      <c r="F30" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="G30" s="64"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="6" customFormat="1" ht="76.5">
+      <c r="A31" s="93"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="64">
+        <v>8</v>
+      </c>
+      <c r="F31" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" s="64"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="6" customFormat="1" ht="63.75">
+      <c r="A32" s="91"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="60">
+        <v>10</v>
+      </c>
+      <c r="F32" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="60"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="6" customFormat="1" ht="156.94999999999999" customHeight="1">
+      <c r="A33" s="92"/>
+      <c r="B33" s="85" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" s="64">
+        <v>10</v>
+      </c>
+      <c r="F33" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" s="64"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="6" customFormat="1" ht="89.1" customHeight="1">
+      <c r="A34" s="92"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="64">
+        <v>8</v>
+      </c>
+      <c r="F34" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" s="64"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="6" customFormat="1" ht="74.45" customHeight="1">
+      <c r="A35" s="92"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="64">
+        <v>8</v>
+      </c>
+      <c r="F35" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" s="64"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="6" customFormat="1" ht="89.25">
+      <c r="A36" s="93"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="64">
+        <v>8</v>
+      </c>
+      <c r="F36" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="64"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="6" customFormat="1" ht="150.94999999999999" customHeight="1">
+      <c r="A37" s="35"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="64">
+        <v>8</v>
+      </c>
+      <c r="F37" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" s="64"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="6" customFormat="1" ht="174" customHeight="1">
+      <c r="A38" s="35"/>
+      <c r="B38" s="93"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="64">
+        <v>8</v>
+      </c>
+      <c r="F38" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" s="64"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="6" customFormat="1" ht="260.45" customHeight="1">
+      <c r="A39" s="91"/>
+      <c r="B39" s="91"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="64">
+        <v>12</v>
+      </c>
+      <c r="F39" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="G39" s="64"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="6" customFormat="1" ht="60.6" customHeight="1">
+      <c r="A40" s="93"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" s="60">
+        <v>8</v>
+      </c>
+      <c r="F40" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" s="60"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="6" customFormat="1" ht="59.1" customHeight="1">
+      <c r="A41" s="91"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="64">
+        <v>12</v>
+      </c>
+      <c r="F41" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="G41" s="64"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="6" customFormat="1" ht="66" customHeight="1">
+      <c r="A42" s="92"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" s="64">
+        <v>8</v>
+      </c>
+      <c r="F42" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="64"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="6" customFormat="1" ht="57.95" customHeight="1">
+      <c r="A43" s="92"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" s="64">
+        <v>10</v>
+      </c>
+      <c r="F43" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="64"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="J43" s="105" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="6" customFormat="1" ht="48" customHeight="1">
+      <c r="A44" s="92"/>
+      <c r="B44" s="92"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="64">
+        <v>10</v>
+      </c>
+      <c r="F44" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="G44" s="64"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="J44" s="105" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="6" customFormat="1" ht="59.1" customHeight="1">
+      <c r="A45" s="93"/>
+      <c r="B45" s="93"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" s="64">
+        <v>10</v>
+      </c>
+      <c r="F45" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="G45" s="64"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="6" customFormat="1" ht="99" customHeight="1">
+      <c r="A46" s="91"/>
+      <c r="B46" s="91"/>
+      <c r="C46" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" s="64">
+        <v>10</v>
+      </c>
+      <c r="F46" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="6" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A47" s="93"/>
+      <c r="B47" s="93"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" s="64">
+        <v>12</v>
+      </c>
+      <c r="F47" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G47" s="64"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="6" customFormat="1" ht="60" customHeight="1">
+      <c r="A48" s="91"/>
+      <c r="B48" s="91"/>
+      <c r="C48" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D48" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48" s="64">
+        <v>16</v>
+      </c>
+      <c r="F48" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="G48" s="58"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="6" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A49" s="92"/>
+      <c r="B49" s="92"/>
+      <c r="C49" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49" s="64">
+        <v>20</v>
+      </c>
+      <c r="F49" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="G49" s="58"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="6" customFormat="1" ht="59.45" customHeight="1">
+      <c r="A50" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" s="64">
+        <v>10</v>
+      </c>
+      <c r="F50" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="G50" s="64"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="6" customFormat="1" ht="45.95" customHeight="1">
+      <c r="A51" s="86"/>
+      <c r="B51" s="78"/>
+      <c r="C51" s="89"/>
+      <c r="D51" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="64">
+        <v>12</v>
+      </c>
+      <c r="F51" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="G51" s="58"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="6" customFormat="1" ht="70.5" customHeight="1">
+      <c r="A52" s="86"/>
+      <c r="B52" s="78"/>
+      <c r="C52" s="87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="E52" s="64">
+        <v>16</v>
+      </c>
+      <c r="F52" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="G52" s="58"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="6" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A53" s="86"/>
+      <c r="B53" s="78"/>
+      <c r="C53" s="90"/>
+      <c r="D53" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="E53" s="64">
+        <v>10</v>
+      </c>
+      <c r="F53" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="G53" s="64"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="6" customFormat="1" ht="104.25" customHeight="1">
+      <c r="A54" s="86"/>
+      <c r="B54" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="E54" s="64">
+        <v>20</v>
+      </c>
+      <c r="F54" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="G54" s="58"/>
+      <c r="H54" s="58"/>
+      <c r="I54" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="6" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A55" s="86"/>
+      <c r="B55" s="78"/>
+      <c r="C55" s="87" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55" s="64">
+        <v>12</v>
+      </c>
+      <c r="F55" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="G55" s="58"/>
+      <c r="H55" s="58"/>
+      <c r="I55" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="6" customFormat="1" ht="75.75" customHeight="1">
+      <c r="A56" s="86"/>
+      <c r="B56" s="78"/>
+      <c r="C56" s="88"/>
+      <c r="D56" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="E56" s="67">
+        <v>16</v>
+      </c>
+      <c r="F56" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="6" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A57" s="85"/>
+      <c r="B57" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57" s="64">
+        <v>12</v>
+      </c>
+      <c r="F57" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="G57" s="64"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="6" customFormat="1" ht="72" customHeight="1">
+      <c r="A58" s="86"/>
+      <c r="B58" s="78"/>
+      <c r="C58" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D58" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="E58" s="64">
+        <v>12</v>
+      </c>
+      <c r="F58" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="G58" s="58"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="6" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A59" s="86"/>
+      <c r="B59" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="E59" s="64">
+        <v>12</v>
+      </c>
+      <c r="F59" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="G59" s="58"/>
+      <c r="H59" s="58"/>
+      <c r="I59" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="6" customFormat="1" ht="60.75" customHeight="1">
+      <c r="A60" s="86"/>
+      <c r="B60" s="78"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="E60" s="64">
+        <v>8</v>
+      </c>
+      <c r="F60" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="G60" s="58"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="6" customFormat="1" ht="62.25" customHeight="1">
+      <c r="A61" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="E61" s="67">
+        <v>12</v>
+      </c>
+      <c r="F61" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="6" customFormat="1" ht="48" customHeight="1">
+      <c r="A62" s="80"/>
+      <c r="B62" s="82"/>
+      <c r="C62" s="84"/>
+      <c r="D62" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="E62" s="64">
+        <v>8</v>
+      </c>
+      <c r="F62" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="G62" s="64"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="6" customFormat="1" ht="51" customHeight="1">
+      <c r="A63" s="81"/>
+      <c r="B63" s="82"/>
+      <c r="C63" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="E63" s="67">
+        <v>8</v>
+      </c>
+      <c r="F63" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="G63" s="67"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="6" customFormat="1" ht="81.599999999999994" customHeight="1">
+      <c r="A64" s="22"/>
+      <c r="B64" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="E64" s="64">
+        <v>12</v>
+      </c>
+      <c r="F64" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="G64" s="19"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="6" customFormat="1" ht="63.75">
+      <c r="A65" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="E65" s="64">
+        <v>6</v>
+      </c>
+      <c r="F65" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="G65" s="64"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="6" customFormat="1" ht="38.25">
+      <c r="A66" s="78"/>
+      <c r="B66" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="64">
+        <v>8</v>
+      </c>
+      <c r="F66" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="G66" s="16"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="6" customFormat="1" ht="87.75" customHeight="1">
+      <c r="A67" s="78"/>
+      <c r="B67" s="78"/>
+      <c r="C67" s="78"/>
+      <c r="D67" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="64">
+        <v>10</v>
+      </c>
+      <c r="F67" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="G67" s="58"/>
+      <c r="H67" s="58"/>
+      <c r="I67" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="6" customFormat="1" ht="45.95" customHeight="1">
+      <c r="A68" s="78"/>
+      <c r="B68" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="19">
+        <v>10</v>
+      </c>
+      <c r="F68" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="G68" s="58"/>
+      <c r="H68" s="58"/>
+      <c r="I68" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="6" customFormat="1" ht="78" customHeight="1">
+      <c r="A69" s="78"/>
+      <c r="B69" s="78"/>
+      <c r="C69" s="78"/>
+      <c r="D69" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="64">
+        <v>6</v>
+      </c>
+      <c r="F69" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" s="64"/>
+      <c r="H69" s="58"/>
+      <c r="I69" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="6" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A70" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="61" t="s">
+        <v>203</v>
+      </c>
+      <c r="E70" s="64">
+        <v>4</v>
+      </c>
+      <c r="F70" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="60"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="6" customFormat="1" ht="39" customHeight="1">
+      <c r="A71" s="78"/>
+      <c r="B71" s="78"/>
+      <c r="C71" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="E71" s="64">
+        <v>4</v>
+      </c>
+      <c r="F71" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="G71" s="16"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="6" customFormat="1" ht="122.25" customHeight="1">
+      <c r="A72" s="78"/>
+      <c r="B72" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="E72" s="64">
+        <v>12</v>
+      </c>
+      <c r="F72" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="G72" s="64"/>
+      <c r="H72" s="64"/>
+      <c r="I72" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="6" customFormat="1" ht="33.6" customHeight="1">
+      <c r="A73" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="75"/>
+      <c r="C73" s="75"/>
+      <c r="D73" s="76"/>
+      <c r="E73" s="9">
+        <f>SUM(E6:E72)</f>
+        <v>600</v>
+      </c>
+      <c r="F73" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="G73" s="77"/>
+      <c r="H73" s="72">
+        <f>SUM(H6:H72)</f>
+        <v>0</v>
+      </c>
+      <c r="I73" s="7"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="I1:I85"/>
+  <mergeCells count="62">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"微软雅黑,常规"XX企业</oddHeader>
+    <oddFooter>&amp;C&amp;G  &amp;"微软雅黑,常规"苏州赛富维企业服务有限公司&amp;R&amp;P</oddFooter>
+  </headerFooter>
+  <rowBreaks count="12" manualBreakCount="12">
+    <brk id="12" max="7" man="1"/>
+    <brk id="14" max="7" man="1"/>
+    <brk id="19" max="7" man="1"/>
+    <brk id="25" max="7" man="1"/>
+    <brk id="31" max="7" man="1"/>
+    <brk id="38" max="7" man="1"/>
+    <brk id="40" max="7" man="1"/>
+    <brk id="45" max="7" man="1"/>
+    <brk id="49" max="7" man="1"/>
+    <brk id="56" max="7" man="1"/>
+    <brk id="63" max="7" man="1"/>
+    <brk id="69" max="7" man="1"/>
+  </rowBreaks>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="81.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="71" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A106" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="71" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="49.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14" style="5" customWidth="1"/>
+    <col min="6" max="6" width="47.5703125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="2" customWidth="1"/>
+    <col min="10" max="12" width="8.7109375" style="2"/>
+    <col min="13" max="16384" width="8.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="60" customHeight="1">
+      <c r="A1" s="94" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+    </row>
+    <row r="2" spans="1:12" s="42" customFormat="1" ht="18.75">
+      <c r="A2" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="56"/>
+      <c r="E2" s="97" t="s">
+        <v>193</v>
+      </c>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+    </row>
+    <row r="3" spans="1:12" s="42" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A3" s="97" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="97" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+    </row>
+    <row r="4" spans="1:12" s="42" customFormat="1" ht="9.6" customHeight="1">
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+    </row>
+    <row r="5" spans="1:12" s="38" customFormat="1" ht="38.25">
+      <c r="A5" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="I5" s="36"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+    </row>
+    <row r="6" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A6" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="98">
+        <v>4</v>
+      </c>
+      <c r="F6" s="68" t="s">
+        <v>197</v>
+      </c>
+      <c r="G6" s="52"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" s="6" customFormat="1" ht="27.95" customHeight="1">
+      <c r="A7" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" s="98"/>
+      <c r="F7" s="68" t="s">
+        <v>197</v>
+      </c>
+      <c r="G7" s="54"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="1:12" s="6" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A8" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="49">
+        <v>4</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="G8" s="53"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" s="6" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A9" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" s="78" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" s="98">
+        <v>6</v>
+      </c>
+      <c r="F9" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" s="6" customFormat="1" ht="51" customHeight="1">
+      <c r="A10" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" s="78"/>
+      <c r="C10" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" s="98"/>
+      <c r="F10" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" s="53"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A11" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" s="78"/>
+      <c r="C11" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" s="98">
+        <v>6</v>
+      </c>
+      <c r="F11" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
+      <c r="A12" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="78"/>
+      <c r="C12" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="98"/>
+      <c r="F12" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
+      <c r="A13" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" s="78"/>
+      <c r="C13" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" s="98"/>
+      <c r="F13" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" s="53"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A14" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" s="78"/>
+      <c r="C14" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="E14" s="98">
+        <v>12</v>
+      </c>
+      <c r="F14" s="68" t="s">
+        <v>168</v>
+      </c>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
+      <c r="A15" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" s="78"/>
+      <c r="C15" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="E15" s="98"/>
+      <c r="F15" s="68" t="s">
+        <v>168</v>
+      </c>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
+      <c r="A16" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" s="78"/>
+      <c r="C16" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="E16" s="98"/>
+      <c r="F16" s="68" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" s="53"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="1:12" s="6" customFormat="1" ht="24" customHeight="1">
+      <c r="A17" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B17" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E17" s="98">
+        <v>8</v>
+      </c>
+      <c r="F17" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="1:12" s="6" customFormat="1" ht="153">
+      <c r="A18" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B18" s="78"/>
+      <c r="C18" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" s="98"/>
+      <c r="F18" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" s="53"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
+      <c r="A19" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" s="78"/>
+      <c r="C19" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E19" s="98">
+        <v>4</v>
+      </c>
+      <c r="F19" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="1:12" s="6" customFormat="1" ht="153">
+      <c r="A20" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20" s="78"/>
+      <c r="C20" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" s="98"/>
+      <c r="F20" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="1:12" s="6" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A21" s="91"/>
+      <c r="B21" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E21" s="98">
+        <v>4</v>
+      </c>
+      <c r="F21" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
+      <c r="A22" s="92"/>
+      <c r="B22" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22" s="98"/>
+      <c r="F22" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+    </row>
+    <row r="23" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
+      <c r="A23" s="92"/>
+      <c r="B23" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E23" s="98"/>
+      <c r="F23" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+    </row>
+    <row r="24" spans="1:12" s="6" customFormat="1" ht="216.75">
+      <c r="A24" s="93"/>
+      <c r="B24" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" s="49">
+        <v>12</v>
+      </c>
+      <c r="F24" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="G24" s="21"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+    </row>
+    <row r="25" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A25" s="91" t="s">
+        <v>199</v>
+      </c>
+      <c r="B25" s="32"/>
+      <c r="C25" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="98">
+        <v>10</v>
+      </c>
+      <c r="F25" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+    </row>
+    <row r="26" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
+      <c r="A26" s="92"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="98"/>
+      <c r="F26" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="13"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+    </row>
+    <row r="27" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
+      <c r="A27" s="92"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" s="98"/>
+      <c r="F27" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="G27" s="13"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+    </row>
+    <row r="28" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
+      <c r="A28" s="92"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="E28" s="98"/>
+      <c r="F28" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A29" s="92"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29" s="98">
+        <v>6</v>
+      </c>
+      <c r="F29" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+    </row>
+    <row r="30" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
+      <c r="A30" s="92"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E30" s="98"/>
+      <c r="F30" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+    </row>
+    <row r="31" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
+      <c r="A31" s="92"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" s="98"/>
+      <c r="F31" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="G31" s="53"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+    </row>
+    <row r="32" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A32" s="92"/>
+      <c r="B32" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="85" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E32" s="98">
+        <v>8</v>
+      </c>
+      <c r="F32" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+    </row>
+    <row r="33" spans="1:12" s="6" customFormat="1" ht="25.5">
+      <c r="A33" s="92"/>
+      <c r="B33" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" s="86"/>
+      <c r="D33" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" s="98"/>
+      <c r="F33" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" spans="1:12" s="6" customFormat="1" ht="25.5">
+      <c r="A34" s="92"/>
+      <c r="B34" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="89"/>
+      <c r="D34" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" s="49">
+        <v>6</v>
+      </c>
+      <c r="F34" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="G34" s="53"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+    </row>
+    <row r="35" spans="1:12" s="6" customFormat="1" ht="67.5" customHeight="1">
+      <c r="A35" s="92"/>
+      <c r="B35" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="87" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35" s="98">
+        <v>10</v>
+      </c>
+      <c r="F35" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+    </row>
+    <row r="36" spans="1:12" s="6" customFormat="1" ht="25.5">
+      <c r="A36" s="93"/>
+      <c r="B36" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" s="90"/>
+      <c r="D36" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E36" s="98"/>
+      <c r="F36" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+    </row>
+    <row r="37" spans="1:12" s="6" customFormat="1" ht="62.1" customHeight="1">
+      <c r="A37" s="91" t="s">
+        <v>199</v>
+      </c>
+      <c r="B37" s="91"/>
+      <c r="C37" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E37" s="49">
+        <v>4</v>
+      </c>
+      <c r="F37" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="G37" s="53"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+    </row>
+    <row r="38" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A38" s="92"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" s="98">
+        <v>4</v>
+      </c>
+      <c r="F38" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+    </row>
+    <row r="39" spans="1:12" s="6" customFormat="1" ht="51">
+      <c r="A39" s="92"/>
+      <c r="B39" s="93"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" s="98"/>
+      <c r="F39" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="G39" s="53"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+    </row>
+    <row r="40" spans="1:12" s="6" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A40" s="92"/>
+      <c r="B40" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="85" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" s="98">
+        <v>6</v>
+      </c>
+      <c r="F40" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+    </row>
+    <row r="41" spans="1:12" s="6" customFormat="1" ht="55.5" customHeight="1">
+      <c r="A41" s="92"/>
+      <c r="B41" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="89"/>
+      <c r="D41" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="98"/>
+      <c r="F41" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+    </row>
+    <row r="42" spans="1:12" s="6" customFormat="1" ht="25.5">
+      <c r="A42" s="92"/>
+      <c r="B42" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" s="49">
+        <v>6</v>
+      </c>
+      <c r="F42" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="G42" s="53"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+    </row>
+    <row r="43" spans="1:12" s="6" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A43" s="92"/>
+      <c r="B43" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="85" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E43" s="98">
+        <v>4</v>
+      </c>
+      <c r="F43" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+    </row>
+    <row r="44" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
+      <c r="A44" s="92"/>
+      <c r="B44" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" s="89"/>
+      <c r="D44" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" s="98"/>
+      <c r="F44" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+    </row>
+    <row r="45" spans="1:12" s="6" customFormat="1" ht="78.599999999999994" customHeight="1">
+      <c r="A45" s="93"/>
+      <c r="B45" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="E45" s="49">
+        <v>4</v>
+      </c>
+      <c r="F45" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="G45" s="54"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+    </row>
+    <row r="46" spans="1:12" s="6" customFormat="1" ht="81" customHeight="1">
+      <c r="A46" s="91" t="s">
+        <v>199</v>
+      </c>
+      <c r="B46" s="91"/>
+      <c r="C46" s="85" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" s="98">
+        <v>6</v>
+      </c>
+      <c r="F46" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+    </row>
+    <row r="47" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
+      <c r="A47" s="92"/>
+      <c r="B47" s="92"/>
+      <c r="C47" s="86"/>
+      <c r="D47" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E47" s="98"/>
+      <c r="F47" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+    </row>
+    <row r="48" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
+      <c r="A48" s="92"/>
+      <c r="B48" s="92"/>
+      <c r="C48" s="86"/>
+      <c r="D48" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E48" s="98"/>
+      <c r="F48" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="G48" s="53"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+    </row>
+    <row r="49" spans="1:12" s="6" customFormat="1" ht="12.75">
+      <c r="A49" s="92"/>
+      <c r="B49" s="92"/>
+      <c r="C49" s="86"/>
+      <c r="D49" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="E49" s="98">
+        <v>6</v>
+      </c>
+      <c r="F49" s="99" t="s">
+        <v>114</v>
+      </c>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+    </row>
+    <row r="50" spans="1:12" s="6" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A50" s="93"/>
+      <c r="B50" s="93"/>
+      <c r="C50" s="89"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="98"/>
+      <c r="F50" s="99"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+    </row>
+    <row r="51" spans="1:12" s="6" customFormat="1" ht="51" customHeight="1">
+      <c r="A51" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="85" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" s="49">
+        <v>8</v>
+      </c>
+      <c r="F51" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G51" s="49"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+    </row>
+    <row r="52" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A52" s="92"/>
+      <c r="B52" s="86"/>
+      <c r="C52" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="E52" s="49">
+        <v>8</v>
+      </c>
+      <c r="F52" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="G52" s="49"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+    </row>
+    <row r="53" spans="1:12" s="6" customFormat="1" ht="25.5">
+      <c r="A53" s="92"/>
+      <c r="B53" s="86"/>
+      <c r="C53" s="86"/>
+      <c r="D53" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="E53" s="49">
+        <v>8</v>
+      </c>
+      <c r="F53" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="G53" s="49"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+    </row>
+    <row r="54" spans="1:12" s="6" customFormat="1" ht="38.25">
+      <c r="A54" s="93"/>
+      <c r="B54" s="89"/>
+      <c r="C54" s="89"/>
+      <c r="D54" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="E54" s="49">
+        <v>8</v>
+      </c>
+      <c r="F54" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="G54" s="49"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+    </row>
+    <row r="55" spans="1:12" s="6" customFormat="1" ht="38.25">
+      <c r="A55" s="91"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="E55" s="54">
+        <v>10</v>
+      </c>
+      <c r="F55" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="G55" s="54"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+    </row>
+    <row r="56" spans="1:12" s="6" customFormat="1" ht="156.94999999999999" customHeight="1">
+      <c r="A56" s="92"/>
+      <c r="B56" s="85" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E56" s="49">
+        <v>10</v>
+      </c>
+      <c r="F56" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="G56" s="49"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+    </row>
+    <row r="57" spans="1:12" s="6" customFormat="1" ht="89.1" customHeight="1">
+      <c r="A57" s="92"/>
+      <c r="B57" s="86"/>
+      <c r="C57" s="92"/>
+      <c r="D57" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="E57" s="49">
+        <v>8</v>
+      </c>
+      <c r="F57" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="G57" s="49"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+    </row>
+    <row r="58" spans="1:12" s="6" customFormat="1" ht="74.45" customHeight="1">
+      <c r="A58" s="92"/>
+      <c r="B58" s="86"/>
+      <c r="C58" s="92"/>
+      <c r="D58" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" s="49">
+        <v>8</v>
+      </c>
+      <c r="F58" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="G58" s="49"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+    </row>
+    <row r="59" spans="1:12" s="6" customFormat="1" ht="51">
+      <c r="A59" s="93"/>
+      <c r="B59" s="89"/>
+      <c r="C59" s="93"/>
+      <c r="D59" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="E59" s="49">
+        <v>8</v>
+      </c>
+      <c r="F59" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="G59" s="49"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+    </row>
+    <row r="60" spans="1:12" s="6" customFormat="1" ht="150.94999999999999" customHeight="1">
+      <c r="A60" s="35"/>
+      <c r="B60" s="91"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="E60" s="49">
+        <v>8</v>
+      </c>
+      <c r="F60" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="G60" s="49"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+    </row>
+    <row r="61" spans="1:12" s="6" customFormat="1" ht="174" customHeight="1">
+      <c r="A61" s="35"/>
+      <c r="B61" s="93"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="E61" s="49">
+        <v>8</v>
+      </c>
+      <c r="F61" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="G61" s="49"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+    </row>
+    <row r="62" spans="1:12" s="6" customFormat="1" ht="260.45" customHeight="1">
+      <c r="A62" s="91"/>
+      <c r="B62" s="91"/>
+      <c r="C62" s="91"/>
+      <c r="D62" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="E62" s="49">
+        <v>12</v>
+      </c>
+      <c r="F62" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="G62" s="49"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+    </row>
+    <row r="63" spans="1:12" s="6" customFormat="1" ht="60.6" customHeight="1">
+      <c r="A63" s="93"/>
+      <c r="B63" s="93"/>
+      <c r="C63" s="93"/>
+      <c r="D63" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="E63" s="54">
+        <v>8</v>
+      </c>
+      <c r="F63" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="G63" s="54"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+    </row>
+    <row r="64" spans="1:12" s="6" customFormat="1" ht="59.1" customHeight="1">
+      <c r="A64" s="91"/>
+      <c r="B64" s="91"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="E64" s="49">
+        <v>12</v>
+      </c>
+      <c r="F64" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="G64" s="49"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+    </row>
+    <row r="65" spans="1:12" s="6" customFormat="1" ht="66" customHeight="1">
+      <c r="A65" s="92"/>
+      <c r="B65" s="92"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="E65" s="49">
+        <v>8</v>
+      </c>
+      <c r="F65" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="G65" s="49"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+    </row>
+    <row r="66" spans="1:12" s="6" customFormat="1" ht="57.95" customHeight="1">
+      <c r="A66" s="92"/>
+      <c r="B66" s="92"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="E66" s="49">
+        <v>10</v>
+      </c>
+      <c r="F66" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="G66" s="49"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+    </row>
+    <row r="67" spans="1:12" s="6" customFormat="1" ht="48" customHeight="1">
+      <c r="A67" s="92"/>
+      <c r="B67" s="92"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="E67" s="49">
+        <v>10</v>
+      </c>
+      <c r="F67" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="G67" s="49"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+    </row>
+    <row r="68" spans="1:12" s="6" customFormat="1" ht="59.1" customHeight="1">
+      <c r="A68" s="93"/>
+      <c r="B68" s="93"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="E68" s="49">
+        <v>10</v>
+      </c>
+      <c r="F68" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="G68" s="49"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+    </row>
+    <row r="69" spans="1:12" s="6" customFormat="1" ht="54" customHeight="1">
+      <c r="A69" s="91"/>
+      <c r="B69" s="91"/>
+      <c r="C69" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E69" s="98">
+        <v>10</v>
+      </c>
+      <c r="F69" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="G69" s="52"/>
+      <c r="H69" s="52"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+    </row>
+    <row r="70" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
+      <c r="A70" s="92"/>
+      <c r="B70" s="92"/>
+      <c r="C70" s="86"/>
+      <c r="D70" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E70" s="98"/>
+      <c r="F70" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="G70" s="53"/>
+      <c r="H70" s="53"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+    </row>
+    <row r="71" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
+      <c r="A71" s="92"/>
+      <c r="B71" s="92"/>
+      <c r="C71" s="86"/>
+      <c r="D71" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E71" s="98"/>
+      <c r="F71" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="G71" s="54"/>
+      <c r="H71" s="54"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+    </row>
+    <row r="72" spans="1:12" s="6" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A72" s="93"/>
+      <c r="B72" s="93"/>
+      <c r="C72" s="89"/>
+      <c r="D72" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="E72" s="49">
+        <v>12</v>
+      </c>
+      <c r="F72" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="G72" s="54"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+    </row>
+    <row r="73" spans="1:12" s="6" customFormat="1" ht="60" customHeight="1">
+      <c r="A73" s="91"/>
+      <c r="B73" s="91"/>
+      <c r="C73" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D73" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="E73" s="49">
+        <v>16</v>
+      </c>
+      <c r="F73" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="G73" s="52"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+    </row>
+    <row r="74" spans="1:12" s="6" customFormat="1" ht="54" customHeight="1">
+      <c r="A74" s="92"/>
+      <c r="B74" s="92"/>
+      <c r="C74" s="100" t="s">
+        <v>76</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E74" s="98">
+        <v>20</v>
+      </c>
+      <c r="F74" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="G74" s="52"/>
+      <c r="H74" s="52"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+    </row>
+    <row r="75" spans="1:12" s="6" customFormat="1" ht="51" customHeight="1">
+      <c r="A75" s="93"/>
+      <c r="B75" s="93"/>
+      <c r="C75" s="101"/>
+      <c r="D75" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E75" s="98"/>
+      <c r="F75" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="G75" s="54"/>
+      <c r="H75" s="54"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+    </row>
+    <row r="76" spans="1:12" s="6" customFormat="1" ht="59.45" customHeight="1">
+      <c r="A76" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="B76" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="C76" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="D76" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="E76" s="49">
+        <v>10</v>
+      </c>
+      <c r="F76" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="G76" s="54"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+    </row>
+    <row r="77" spans="1:12" s="6" customFormat="1" ht="45.95" customHeight="1">
+      <c r="A77" s="86"/>
+      <c r="B77" s="78"/>
+      <c r="C77" s="89"/>
+      <c r="D77" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="49">
+        <v>12</v>
+      </c>
+      <c r="F77" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="G77" s="52"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+    </row>
+    <row r="78" spans="1:12" s="6" customFormat="1" ht="54" customHeight="1">
+      <c r="A78" s="86"/>
+      <c r="B78" s="78"/>
+      <c r="C78" s="87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E78" s="98">
+        <v>16</v>
+      </c>
+      <c r="F78" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="G78" s="52"/>
+      <c r="H78" s="52"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+    </row>
+    <row r="79" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
+      <c r="A79" s="86"/>
+      <c r="B79" s="78"/>
+      <c r="C79" s="88"/>
+      <c r="D79" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E79" s="98"/>
+      <c r="F79" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="G79" s="54"/>
+      <c r="H79" s="54"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+    </row>
+    <row r="80" spans="1:12" s="6" customFormat="1" ht="12.75">
+      <c r="A80" s="86"/>
+      <c r="B80" s="78"/>
+      <c r="C80" s="90"/>
+      <c r="D80" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="E80" s="49">
+        <v>10</v>
+      </c>
+      <c r="F80" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="G80" s="53"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+    </row>
+    <row r="81" spans="1:12" s="6" customFormat="1" ht="54" customHeight="1">
+      <c r="A81" s="86"/>
+      <c r="B81" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="C81" s="87" t="s">
+        <v>62</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E81" s="98">
+        <v>20</v>
+      </c>
+      <c r="F81" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="G81" s="52"/>
+      <c r="H81" s="52"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+    </row>
+    <row r="82" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A82" s="86"/>
+      <c r="B82" s="78"/>
+      <c r="C82" s="90"/>
+      <c r="D82" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E82" s="98"/>
+      <c r="F82" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="G82" s="53"/>
+      <c r="H82" s="54"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+    </row>
+    <row r="83" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A83" s="86"/>
+      <c r="B83" s="78"/>
+      <c r="C83" s="87" t="s">
+        <v>59</v>
+      </c>
+      <c r="D83" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E83" s="98">
+        <v>12</v>
+      </c>
+      <c r="F83" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="G83" s="52"/>
+      <c r="H83" s="52"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+    </row>
+    <row r="84" spans="1:12" s="6" customFormat="1" ht="38.25">
+      <c r="A84" s="86"/>
+      <c r="B84" s="78"/>
+      <c r="C84" s="88"/>
+      <c r="D84" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E84" s="98"/>
+      <c r="F84" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="G84" s="53"/>
+      <c r="H84" s="54"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
+    </row>
+    <row r="85" spans="1:12" s="6" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A85" s="86"/>
+      <c r="B85" s="78"/>
+      <c r="C85" s="88"/>
+      <c r="D85" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E85" s="102">
+        <v>16</v>
+      </c>
+      <c r="F85" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+    </row>
+    <row r="86" spans="1:12" s="6" customFormat="1" ht="38.25">
+      <c r="A86" s="86"/>
+      <c r="B86" s="78"/>
+      <c r="C86" s="88"/>
+      <c r="D86" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E86" s="102"/>
+      <c r="F86" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+    </row>
+    <row r="87" spans="1:12" s="6" customFormat="1" ht="38.25">
+      <c r="A87" s="89"/>
+      <c r="B87" s="78"/>
+      <c r="C87" s="90"/>
+      <c r="D87" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E87" s="102"/>
+      <c r="F87" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="G87" s="27"/>
+      <c r="H87" s="27"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
+    </row>
+    <row r="88" spans="1:12" s="6" customFormat="1" ht="96.6" customHeight="1">
+      <c r="A88" s="85"/>
+      <c r="B88" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D88" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="E88" s="49">
+        <v>12</v>
+      </c>
+      <c r="F88" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="G88" s="54"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+    </row>
+    <row r="89" spans="1:12" s="6" customFormat="1" ht="72" customHeight="1">
+      <c r="A89" s="86"/>
+      <c r="B89" s="78"/>
+      <c r="C89" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D89" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E89" s="49">
+        <v>12</v>
+      </c>
+      <c r="F89" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="G89" s="52"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
+    </row>
+    <row r="90" spans="1:12" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A90" s="86"/>
+      <c r="B90" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="C90" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="D90" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E90" s="98">
+        <v>12</v>
+      </c>
+      <c r="F90" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="G90" s="52"/>
+      <c r="H90" s="52"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
+    </row>
+    <row r="91" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
+      <c r="A91" s="86"/>
+      <c r="B91" s="78"/>
+      <c r="C91" s="78"/>
+      <c r="D91" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E91" s="98"/>
+      <c r="F91" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="G91" s="53"/>
+      <c r="H91" s="53"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="7"/>
+    </row>
+    <row r="92" spans="1:12" s="6" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A92" s="86"/>
+      <c r="B92" s="78"/>
+      <c r="C92" s="78"/>
+      <c r="D92" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E92" s="98"/>
+      <c r="F92" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="G92" s="53"/>
+      <c r="H92" s="54"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="7"/>
+    </row>
+    <row r="93" spans="1:12" s="6" customFormat="1" ht="12.75">
+      <c r="A93" s="86"/>
+      <c r="B93" s="78"/>
+      <c r="C93" s="78"/>
+      <c r="D93" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="E93" s="98">
+        <v>8</v>
+      </c>
+      <c r="F93" s="99" t="s">
+        <v>44</v>
+      </c>
+      <c r="G93" s="52"/>
+      <c r="H93" s="52"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
+    </row>
+    <row r="94" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
+      <c r="A94" s="89"/>
+      <c r="B94" s="78"/>
+      <c r="C94" s="78"/>
+      <c r="D94" s="78"/>
+      <c r="E94" s="98"/>
+      <c r="F94" s="99"/>
+      <c r="G94" s="53"/>
+      <c r="H94" s="54"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
+    </row>
+    <row r="95" spans="1:12" s="6" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A95" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="B95" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="C95" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="D95" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E95" s="102">
+        <v>12</v>
+      </c>
+      <c r="F95" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="G95" s="29"/>
+      <c r="H95" s="29"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="7"/>
+    </row>
+    <row r="96" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
+      <c r="A96" s="80"/>
+      <c r="B96" s="82"/>
+      <c r="C96" s="103"/>
+      <c r="D96" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E96" s="102"/>
+      <c r="F96" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="G96" s="28"/>
+      <c r="H96" s="28"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
+    </row>
+    <row r="97" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
+      <c r="A97" s="80"/>
+      <c r="B97" s="82"/>
+      <c r="C97" s="103"/>
+      <c r="D97" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E97" s="102"/>
+      <c r="F97" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="G97" s="27"/>
+      <c r="H97" s="27"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="7"/>
+    </row>
+    <row r="98" spans="1:12" s="6" customFormat="1" ht="25.5">
+      <c r="A98" s="80"/>
+      <c r="B98" s="82"/>
+      <c r="C98" s="84"/>
+      <c r="D98" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E98" s="49">
+        <v>8</v>
+      </c>
+      <c r="F98" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="G98" s="54"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="7"/>
+    </row>
+    <row r="99" spans="1:12" s="6" customFormat="1" ht="51" customHeight="1">
+      <c r="A99" s="81"/>
+      <c r="B99" s="82"/>
+      <c r="C99" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D99" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="E99" s="51">
+        <v>8</v>
+      </c>
+      <c r="F99" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G99" s="51"/>
+      <c r="H99" s="23"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="7"/>
+    </row>
+    <row r="100" spans="1:12" s="6" customFormat="1" ht="81.599999999999994" customHeight="1">
+      <c r="A100" s="22"/>
+      <c r="B100" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C100" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D100" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E100" s="49">
+        <v>12</v>
+      </c>
+      <c r="F100" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="G100" s="19"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="7"/>
+    </row>
+    <row r="101" spans="1:12" s="6" customFormat="1" ht="38.25">
+      <c r="A101" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="B101" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C101" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D101" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="E101" s="49">
+        <v>6</v>
+      </c>
+      <c r="F101" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="G101" s="49"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="7"/>
+      <c r="L101" s="7"/>
+    </row>
+    <row r="102" spans="1:12" s="6" customFormat="1" ht="25.5">
+      <c r="A102" s="78"/>
+      <c r="B102" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="D102" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="E102" s="49">
+        <v>8</v>
+      </c>
+      <c r="F102" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G102" s="16"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="7"/>
+      <c r="K102" s="7"/>
+      <c r="L102" s="7"/>
+    </row>
+    <row r="103" spans="1:12" s="6" customFormat="1" ht="54" customHeight="1">
+      <c r="A103" s="78"/>
+      <c r="B103" s="78"/>
+      <c r="C103" s="78"/>
+      <c r="D103" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E103" s="98">
+        <v>10</v>
+      </c>
+      <c r="F103" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="G103" s="52"/>
+      <c r="H103" s="52"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="7"/>
+    </row>
+    <row r="104" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="A104" s="78"/>
+      <c r="B104" s="78"/>
+      <c r="C104" s="78"/>
+      <c r="D104" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E104" s="98"/>
+      <c r="F104" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="G104" s="13"/>
+      <c r="H104" s="54"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="7"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="7"/>
+    </row>
+    <row r="105" spans="1:12" s="6" customFormat="1" ht="45.95" customHeight="1">
+      <c r="A105" s="78"/>
+      <c r="B105" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105" s="98">
+        <v>10</v>
+      </c>
+      <c r="F105" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="G105" s="52"/>
+      <c r="H105" s="52"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="7"/>
+      <c r="K105" s="7"/>
+      <c r="L105" s="7"/>
+    </row>
+    <row r="106" spans="1:12" s="6" customFormat="1" ht="27.95" customHeight="1">
+      <c r="A106" s="78"/>
+      <c r="B106" s="78"/>
+      <c r="C106" s="78"/>
+      <c r="D106" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E106" s="98"/>
+      <c r="F106" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="G106" s="13"/>
+      <c r="H106" s="54"/>
+      <c r="I106" s="7"/>
+      <c r="J106" s="7"/>
+      <c r="K106" s="7"/>
+      <c r="L106" s="7"/>
+    </row>
+    <row r="107" spans="1:12" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A107" s="78"/>
+      <c r="B107" s="78"/>
+      <c r="C107" s="78"/>
+      <c r="D107" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" s="98">
+        <v>6</v>
+      </c>
+      <c r="F107" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="G107" s="52"/>
+      <c r="H107" s="52"/>
+      <c r="I107" s="7"/>
+      <c r="J107" s="7"/>
+      <c r="K107" s="7"/>
+      <c r="L107" s="7"/>
+    </row>
+    <row r="108" spans="1:12" s="6" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A108" s="78"/>
+      <c r="B108" s="78"/>
+      <c r="C108" s="78"/>
+      <c r="D108" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" s="98"/>
+      <c r="F108" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="G108" s="21"/>
+      <c r="H108" s="54"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="7"/>
+      <c r="K108" s="7"/>
+      <c r="L108" s="7"/>
+    </row>
+    <row r="109" spans="1:12" s="6" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A109" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" s="49">
+        <v>4</v>
+      </c>
+      <c r="F109" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G109" s="54"/>
+      <c r="H109" s="15"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="7"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="7"/>
+    </row>
+    <row r="110" spans="1:12" s="6" customFormat="1" ht="39" customHeight="1">
+      <c r="A110" s="78"/>
+      <c r="B110" s="78"/>
+      <c r="C110" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" s="49">
+        <v>4</v>
+      </c>
+      <c r="F110" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="G110" s="16"/>
+      <c r="H110" s="15"/>
+      <c r="I110" s="7"/>
+      <c r="J110" s="7"/>
+      <c r="K110" s="7"/>
+      <c r="L110" s="7"/>
+    </row>
+    <row r="111" spans="1:12" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A111" s="78"/>
+      <c r="B111" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="D111" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E111" s="98">
+        <v>12</v>
+      </c>
+      <c r="F111" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="G111" s="52"/>
+      <c r="H111" s="52"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="7"/>
+      <c r="K111" s="7"/>
+      <c r="L111" s="7"/>
+    </row>
+    <row r="112" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
+      <c r="A112" s="78"/>
+      <c r="B112" s="78"/>
+      <c r="C112" s="78"/>
+      <c r="D112" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E112" s="98"/>
+      <c r="F112" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="G112" s="13"/>
+      <c r="H112" s="53"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="7"/>
+      <c r="K112" s="7"/>
+      <c r="L112" s="7"/>
+    </row>
+    <row r="113" spans="1:12" s="6" customFormat="1" ht="93.95" customHeight="1">
+      <c r="A113" s="78"/>
+      <c r="B113" s="78"/>
+      <c r="C113" s="78"/>
+      <c r="D113" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E113" s="98"/>
+      <c r="F113" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="G113" s="11"/>
+      <c r="H113" s="10"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="7"/>
+      <c r="K113" s="7"/>
+      <c r="L113" s="7"/>
+    </row>
+    <row r="114" spans="1:12" s="6" customFormat="1" ht="33.6" customHeight="1">
+      <c r="A114" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="B114" s="75"/>
+      <c r="C114" s="75"/>
+      <c r="D114" s="76"/>
+      <c r="E114" s="9">
+        <f>SUM(E6:E113)</f>
+        <v>600</v>
+      </c>
+      <c r="F114" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="G114" s="77"/>
+      <c r="H114" s="8">
+        <f>SUM(H6:H113)</f>
+        <v>0</v>
+      </c>
+      <c r="I114" s="7"/>
+      <c r="J114" s="7"/>
+      <c r="K114" s="7"/>
+      <c r="L114" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="96">
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="E111:E113"/>
+    <mergeCell ref="A101:A108"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="B105:B108"/>
+    <mergeCell ref="C105:C108"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A95:A99"/>
+    <mergeCell ref="B95:B99"/>
+    <mergeCell ref="C95:C98"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="A88:A94"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="C90:C94"/>
+    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="A76:A87"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="B81:B87"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="C83:C87"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="C69:C72"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A37:A45"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="C46:C50"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A25:A36"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="E3:G3"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"微软雅黑,常规"XX企业</oddHeader>
+    <oddFooter>&amp;C&amp;G  &amp;"微软雅黑,常规"苏州赛富维企业服务有限公司&amp;R&amp;P</oddFooter>
+  </headerFooter>
+  <rowBreaks count="12" manualBreakCount="12">
+    <brk id="20" max="7" man="1"/>
+    <brk id="24" max="7" man="1"/>
+    <brk id="36" max="7" man="1"/>
+    <brk id="45" max="7" man="1"/>
+    <brk id="54" max="7" man="1"/>
+    <brk id="61" max="7" man="1"/>
+    <brk id="63" max="7" man="1"/>
+    <brk id="68" max="7" man="1"/>
+    <brk id="75" max="7" man="1"/>
+    <brk id="87" max="7" man="1"/>
+    <brk id="99" max="7" man="1"/>
+    <brk id="108" max="7" man="1"/>
+  </rowBreaks>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L114"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="71" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1644,20 +6508,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="60" customHeight="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="94" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
     </row>
     <row r="2" spans="1:12" s="42" customFormat="1" ht="18.75">
       <c r="A2" s="45" t="s">
@@ -1668,11 +6532,11 @@
         <v>194</v>
       </c>
       <c r="D2" s="45"/>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="97" t="s">
         <v>193</v>
       </c>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
       <c r="H2" s="44"/>
       <c r="I2" s="43"/>
       <c r="J2" s="43"/>
@@ -1680,17 +6544,17 @@
       <c r="L2" s="43"/>
     </row>
     <row r="3" spans="1:12" s="42" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="97" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
       <c r="D3" s="45"/>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="97" t="s">
         <v>191</v>
       </c>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
       <c r="H3" s="44"/>
       <c r="I3" s="43"/>
       <c r="J3" s="43"/>
@@ -1742,22 +6606,22 @@
       <c r="L5" s="39"/>
     </row>
     <row r="6" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="85" t="s">
         <v>182</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="78" t="s">
         <v>181</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="87" t="s">
         <v>180</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="E6" s="54">
+      <c r="E6" s="98">
         <v>4</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="99" t="s">
         <v>197</v>
       </c>
       <c r="G6" s="14"/>
@@ -1768,12 +6632,12 @@
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" s="6" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A7" s="65"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="52"/>
+      <c r="A7" s="86"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="99"/>
       <c r="G7" s="20"/>
       <c r="H7" s="33"/>
       <c r="I7" s="7"/>
@@ -1782,9 +6646,9 @@
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12" s="6" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A8" s="65"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="69"/>
+      <c r="A8" s="86"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="90"/>
       <c r="D8" s="17" t="s">
         <v>178</v>
       </c>
@@ -1802,20 +6666,20 @@
       <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12" s="6" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A9" s="65"/>
-      <c r="B9" s="53" t="s">
+      <c r="A9" s="86"/>
+      <c r="B9" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="85" t="s">
         <v>175</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9" s="98">
         <v>6</v>
       </c>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="99" t="s">
         <v>173</v>
       </c>
       <c r="G9" s="14"/>
@@ -1826,12 +6690,12 @@
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12" s="6" customFormat="1" ht="51" customHeight="1">
-      <c r="A10" s="65"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="52"/>
+      <c r="A10" s="86"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="99"/>
       <c r="G10" s="12"/>
       <c r="H10" s="20"/>
       <c r="I10" s="7"/>
@@ -1840,16 +6704,16 @@
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A11" s="65"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="53" t="s">
+      <c r="A11" s="86"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="78" t="s">
         <v>172</v>
       </c>
-      <c r="E11" s="54">
+      <c r="E11" s="98">
         <v>6</v>
       </c>
-      <c r="F11" s="52" t="s">
+      <c r="F11" s="99" t="s">
         <v>171</v>
       </c>
       <c r="G11" s="14"/>
@@ -1860,12 +6724,12 @@
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A12" s="65"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="52"/>
+      <c r="A12" s="86"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="99"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="7"/>
@@ -1874,12 +6738,12 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A13" s="65"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="52"/>
+      <c r="A13" s="86"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="99"/>
       <c r="G13" s="12"/>
       <c r="H13" s="20"/>
       <c r="I13" s="7"/>
@@ -1888,18 +6752,18 @@
       <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A14" s="65"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="67" t="s">
+      <c r="A14" s="86"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="87" t="s">
         <v>170</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="78" t="s">
         <v>169</v>
       </c>
-      <c r="E14" s="54">
+      <c r="E14" s="98">
         <v>12</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="F14" s="99" t="s">
         <v>168</v>
       </c>
       <c r="G14" s="14"/>
@@ -1910,12 +6774,12 @@
       <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A15" s="65"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="52"/>
+      <c r="A15" s="86"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="7"/>
@@ -1924,12 +6788,12 @@
       <c r="L15" s="7"/>
     </row>
     <row r="16" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A16" s="65"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="52"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="99"/>
       <c r="G16" s="12"/>
       <c r="H16" s="20"/>
       <c r="I16" s="7"/>
@@ -1938,20 +6802,20 @@
       <c r="L16" s="7"/>
     </row>
     <row r="17" spans="1:12" s="6" customFormat="1" ht="24" customHeight="1">
-      <c r="A17" s="65"/>
-      <c r="B17" s="53" t="s">
+      <c r="A17" s="86"/>
+      <c r="B17" s="78" t="s">
         <v>167</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="87" t="s">
         <v>166</v>
       </c>
-      <c r="D17" s="53" t="s">
+      <c r="D17" s="78" t="s">
         <v>165</v>
       </c>
-      <c r="E17" s="54">
+      <c r="E17" s="98">
         <v>8</v>
       </c>
-      <c r="F17" s="52" t="s">
+      <c r="F17" s="99" t="s">
         <v>164</v>
       </c>
       <c r="G17" s="14"/>
@@ -1962,12 +6826,12 @@
       <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12" s="6" customFormat="1" ht="12.75">
-      <c r="A18" s="65"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="52"/>
+      <c r="A18" s="86"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="99"/>
       <c r="G18" s="12"/>
       <c r="H18" s="20"/>
       <c r="I18" s="7"/>
@@ -1976,18 +6840,18 @@
       <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A19" s="65"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="67" t="s">
+      <c r="A19" s="86"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="87" t="s">
         <v>163</v>
       </c>
-      <c r="D19" s="53" t="s">
+      <c r="D19" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="E19" s="54">
+      <c r="E19" s="98">
         <v>4</v>
       </c>
-      <c r="F19" s="52" t="s">
+      <c r="F19" s="99" t="s">
         <v>161</v>
       </c>
       <c r="G19" s="14"/>
@@ -1998,12 +6862,12 @@
       <c r="L19" s="7"/>
     </row>
     <row r="20" spans="1:12" s="6" customFormat="1" ht="12.75">
-      <c r="A20" s="66"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="52"/>
+      <c r="A20" s="89"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="99"/>
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
       <c r="I20" s="7"/>
@@ -2012,20 +6876,20 @@
       <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12" s="6" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A21" s="70"/>
-      <c r="B21" s="70" t="s">
+      <c r="A21" s="91"/>
+      <c r="B21" s="91" t="s">
         <v>160</v>
       </c>
-      <c r="C21" s="67" t="s">
+      <c r="C21" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="D21" s="53" t="s">
+      <c r="D21" s="78" t="s">
         <v>158</v>
       </c>
-      <c r="E21" s="54">
+      <c r="E21" s="98">
         <v>4</v>
       </c>
-      <c r="F21" s="52" t="s">
+      <c r="F21" s="99" t="s">
         <v>157</v>
       </c>
       <c r="G21" s="14"/>
@@ -2036,12 +6900,12 @@
       <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A22" s="71"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="52"/>
+      <c r="A22" s="92"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="99"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="7"/>
@@ -2050,12 +6914,12 @@
       <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A23" s="71"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="52"/>
+      <c r="A23" s="92"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="99"/>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
       <c r="I23" s="7"/>
@@ -2064,8 +6928,8 @@
       <c r="L23" s="7"/>
     </row>
     <row r="24" spans="1:12" s="6" customFormat="1" ht="229.5">
-      <c r="A24" s="72"/>
-      <c r="B24" s="72"/>
+      <c r="A24" s="93"/>
+      <c r="B24" s="93"/>
       <c r="C24" s="19" t="s">
         <v>156</v>
       </c>
@@ -2086,18 +6950,18 @@
       <c r="L24" s="7"/>
     </row>
     <row r="25" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A25" s="70"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="67" t="s">
+      <c r="A25" s="91"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="87" t="s">
         <v>153</v>
       </c>
-      <c r="D25" s="53" t="s">
+      <c r="D25" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="E25" s="54">
+      <c r="E25" s="98">
         <v>10</v>
       </c>
-      <c r="F25" s="52" t="s">
+      <c r="F25" s="99" t="s">
         <v>151</v>
       </c>
       <c r="G25" s="16"/>
@@ -2108,12 +6972,12 @@
       <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A26" s="71"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="52"/>
+      <c r="A26" s="92"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="99"/>
       <c r="G26" s="13"/>
       <c r="H26" s="12"/>
       <c r="I26" s="7"/>
@@ -2122,12 +6986,12 @@
       <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A27" s="71"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="52"/>
+      <c r="A27" s="92"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="99"/>
       <c r="G27" s="13"/>
       <c r="H27" s="12"/>
       <c r="I27" s="7"/>
@@ -2136,12 +7000,12 @@
       <c r="L27" s="7"/>
     </row>
     <row r="28" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A28" s="71"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="52"/>
+      <c r="A28" s="92"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="99"/>
       <c r="G28" s="13"/>
       <c r="H28" s="20"/>
       <c r="I28" s="7"/>
@@ -2150,18 +7014,18 @@
       <c r="L28" s="7"/>
     </row>
     <row r="29" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A29" s="71"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="67" t="s">
+      <c r="A29" s="92"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="87" t="s">
         <v>150</v>
       </c>
-      <c r="D29" s="53" t="s">
+      <c r="D29" s="78" t="s">
         <v>149</v>
       </c>
-      <c r="E29" s="54">
+      <c r="E29" s="98">
         <v>6</v>
       </c>
-      <c r="F29" s="52" t="s">
+      <c r="F29" s="99" t="s">
         <v>148</v>
       </c>
       <c r="G29" s="14"/>
@@ -2172,12 +7036,12 @@
       <c r="L29" s="7"/>
     </row>
     <row r="30" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A30" s="71"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="52"/>
+      <c r="A30" s="92"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="99"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="7"/>
@@ -2186,12 +7050,12 @@
       <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A31" s="71"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="52"/>
+      <c r="A31" s="92"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="99"/>
       <c r="G31" s="12"/>
       <c r="H31" s="20"/>
       <c r="I31" s="7"/>
@@ -2200,20 +7064,20 @@
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A32" s="71"/>
-      <c r="B32" s="64" t="s">
+      <c r="A32" s="92"/>
+      <c r="B32" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="64" t="s">
+      <c r="C32" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="D32" s="53" t="s">
+      <c r="D32" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="E32" s="54">
+      <c r="E32" s="98">
         <v>8</v>
       </c>
-      <c r="F32" s="52" t="s">
+      <c r="F32" s="99" t="s">
         <v>144</v>
       </c>
       <c r="G32" s="14"/>
@@ -2224,12 +7088,12 @@
       <c r="L32" s="7"/>
     </row>
     <row r="33" spans="1:12" s="6" customFormat="1" ht="12.75">
-      <c r="A33" s="71"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="52"/>
+      <c r="A33" s="92"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="99"/>
       <c r="G33" s="20"/>
       <c r="H33" s="20"/>
       <c r="I33" s="7"/>
@@ -2238,9 +7102,9 @@
       <c r="L33" s="7"/>
     </row>
     <row r="34" spans="1:12" s="6" customFormat="1" ht="25.5">
-      <c r="A34" s="71"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="66"/>
+      <c r="A34" s="92"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="89"/>
       <c r="D34" s="17" t="s">
         <v>143</v>
       </c>
@@ -2258,18 +7122,18 @@
       <c r="L34" s="7"/>
     </row>
     <row r="35" spans="1:12" s="6" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A35" s="71"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="67" t="s">
+      <c r="A35" s="92"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="87" t="s">
         <v>141</v>
       </c>
-      <c r="D35" s="53" t="s">
+      <c r="D35" s="78" t="s">
         <v>140</v>
       </c>
-      <c r="E35" s="54">
+      <c r="E35" s="98">
         <v>10</v>
       </c>
-      <c r="F35" s="52" t="s">
+      <c r="F35" s="99" t="s">
         <v>139</v>
       </c>
       <c r="G35" s="14"/>
@@ -2280,12 +7144,12 @@
       <c r="L35" s="7"/>
     </row>
     <row r="36" spans="1:12" s="6" customFormat="1" ht="12.75">
-      <c r="A36" s="72"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="52"/>
+      <c r="A36" s="93"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="99"/>
       <c r="G36" s="20"/>
       <c r="H36" s="20"/>
       <c r="I36" s="7"/>
@@ -2294,8 +7158,8 @@
       <c r="L36" s="7"/>
     </row>
     <row r="37" spans="1:12" s="6" customFormat="1" ht="62.1" customHeight="1">
-      <c r="A37" s="70"/>
-      <c r="B37" s="70"/>
+      <c r="A37" s="91"/>
+      <c r="B37" s="91"/>
       <c r="C37" s="19" t="s">
         <v>138</v>
       </c>
@@ -2316,18 +7180,18 @@
       <c r="L37" s="7"/>
     </row>
     <row r="38" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A38" s="71"/>
-      <c r="B38" s="71"/>
-      <c r="C38" s="67" t="s">
+      <c r="A38" s="92"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="87" t="s">
         <v>135</v>
       </c>
-      <c r="D38" s="53" t="s">
+      <c r="D38" s="78" t="s">
         <v>134</v>
       </c>
-      <c r="E38" s="54">
+      <c r="E38" s="98">
         <v>4</v>
       </c>
-      <c r="F38" s="52" t="s">
+      <c r="F38" s="99" t="s">
         <v>133</v>
       </c>
       <c r="G38" s="14"/>
@@ -2338,12 +7202,12 @@
       <c r="L38" s="7"/>
     </row>
     <row r="39" spans="1:12" s="6" customFormat="1" ht="12.75">
-      <c r="A39" s="71"/>
-      <c r="B39" s="72"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="52"/>
+      <c r="A39" s="92"/>
+      <c r="B39" s="93"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="98"/>
+      <c r="F39" s="99"/>
       <c r="G39" s="12"/>
       <c r="H39" s="20"/>
       <c r="I39" s="7"/>
@@ -2352,20 +7216,20 @@
       <c r="L39" s="7"/>
     </row>
     <row r="40" spans="1:12" s="6" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A40" s="71"/>
-      <c r="B40" s="53" t="s">
+      <c r="A40" s="92"/>
+      <c r="B40" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="C40" s="64" t="s">
+      <c r="C40" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="D40" s="53" t="s">
+      <c r="D40" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="E40" s="54">
+      <c r="E40" s="98">
         <v>6</v>
       </c>
-      <c r="F40" s="52" t="s">
+      <c r="F40" s="99" t="s">
         <v>129</v>
       </c>
       <c r="G40" s="14"/>
@@ -2376,12 +7240,12 @@
       <c r="L40" s="7"/>
     </row>
     <row r="41" spans="1:12" s="6" customFormat="1" ht="55.5" customHeight="1">
-      <c r="A41" s="71"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="52"/>
+      <c r="A41" s="92"/>
+      <c r="B41" s="78"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="98"/>
+      <c r="F41" s="99"/>
       <c r="G41" s="20"/>
       <c r="H41" s="20"/>
       <c r="I41" s="7"/>
@@ -2390,8 +7254,8 @@
       <c r="L41" s="7"/>
     </row>
     <row r="42" spans="1:12" s="6" customFormat="1" ht="51">
-      <c r="A42" s="71"/>
-      <c r="B42" s="53"/>
+      <c r="A42" s="92"/>
+      <c r="B42" s="78"/>
       <c r="C42" s="19" t="s">
         <v>128</v>
       </c>
@@ -2412,20 +7276,20 @@
       <c r="L42" s="7"/>
     </row>
     <row r="43" spans="1:12" s="6" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A43" s="71"/>
-      <c r="B43" s="64" t="s">
+      <c r="A43" s="92"/>
+      <c r="B43" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="C43" s="64" t="s">
+      <c r="C43" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="D43" s="53" t="s">
+      <c r="D43" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="E43" s="54">
+      <c r="E43" s="98">
         <v>4</v>
       </c>
-      <c r="F43" s="52" t="s">
+      <c r="F43" s="99" t="s">
         <v>122</v>
       </c>
       <c r="G43" s="14"/>
@@ -2436,12 +7300,12 @@
       <c r="L43" s="7"/>
     </row>
     <row r="44" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A44" s="71"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="52"/>
+      <c r="A44" s="92"/>
+      <c r="B44" s="86"/>
+      <c r="C44" s="89"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="98"/>
+      <c r="F44" s="99"/>
       <c r="G44" s="20"/>
       <c r="H44" s="20"/>
       <c r="I44" s="7"/>
@@ -2450,8 +7314,8 @@
       <c r="L44" s="7"/>
     </row>
     <row r="45" spans="1:12" s="6" customFormat="1" ht="78.599999999999994" customHeight="1">
-      <c r="A45" s="72"/>
-      <c r="B45" s="66"/>
+      <c r="A45" s="93"/>
+      <c r="B45" s="89"/>
       <c r="C45" s="19" t="s">
         <v>121</v>
       </c>
@@ -2472,18 +7336,18 @@
       <c r="L45" s="7"/>
     </row>
     <row r="46" spans="1:12" s="6" customFormat="1" ht="81" customHeight="1">
-      <c r="A46" s="70"/>
-      <c r="B46" s="70"/>
-      <c r="C46" s="64" t="s">
+      <c r="A46" s="91"/>
+      <c r="B46" s="91"/>
+      <c r="C46" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="D46" s="53" t="s">
+      <c r="D46" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="E46" s="54">
+      <c r="E46" s="98">
         <v>6</v>
       </c>
-      <c r="F46" s="52" t="s">
+      <c r="F46" s="99" t="s">
         <v>116</v>
       </c>
       <c r="G46" s="14"/>
@@ -2494,12 +7358,12 @@
       <c r="L46" s="7"/>
     </row>
     <row r="47" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A47" s="71"/>
-      <c r="B47" s="71"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="52"/>
+      <c r="A47" s="92"/>
+      <c r="B47" s="92"/>
+      <c r="C47" s="86"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="98"/>
+      <c r="F47" s="99"/>
       <c r="G47" s="20"/>
       <c r="H47" s="20"/>
       <c r="I47" s="7"/>
@@ -2508,12 +7372,12 @@
       <c r="L47" s="7"/>
     </row>
     <row r="48" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A48" s="71"/>
-      <c r="B48" s="71"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="53"/>
+      <c r="A48" s="92"/>
+      <c r="B48" s="92"/>
+      <c r="C48" s="86"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="98"/>
+      <c r="F48" s="78"/>
       <c r="G48" s="12"/>
       <c r="H48" s="15"/>
       <c r="I48" s="7"/>
@@ -2522,16 +7386,16 @@
       <c r="L48" s="7"/>
     </row>
     <row r="49" spans="1:12" s="6" customFormat="1" ht="12.75">
-      <c r="A49" s="71"/>
-      <c r="B49" s="71"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="53" t="s">
+      <c r="A49" s="92"/>
+      <c r="B49" s="92"/>
+      <c r="C49" s="86"/>
+      <c r="D49" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="E49" s="54">
+      <c r="E49" s="98">
         <v>6</v>
       </c>
-      <c r="F49" s="52" t="s">
+      <c r="F49" s="99" t="s">
         <v>114</v>
       </c>
       <c r="G49" s="14"/>
@@ -2542,12 +7406,12 @@
       <c r="L49" s="7"/>
     </row>
     <row r="50" spans="1:12" s="6" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A50" s="72"/>
-      <c r="B50" s="72"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="52"/>
+      <c r="A50" s="93"/>
+      <c r="B50" s="93"/>
+      <c r="C50" s="89"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="98"/>
+      <c r="F50" s="99"/>
       <c r="G50" s="20"/>
       <c r="H50" s="20"/>
       <c r="I50" s="7"/>
@@ -2556,10 +7420,10 @@
       <c r="L50" s="7"/>
     </row>
     <row r="51" spans="1:12" s="6" customFormat="1" ht="51" customHeight="1">
-      <c r="A51" s="70" t="s">
+      <c r="A51" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="B51" s="64" t="s">
+      <c r="B51" s="85" t="s">
         <v>112</v>
       </c>
       <c r="C51" s="19" t="s">
@@ -2582,9 +7446,9 @@
       <c r="L51" s="7"/>
     </row>
     <row r="52" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A52" s="71"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="64" t="s">
+      <c r="A52" s="92"/>
+      <c r="B52" s="86"/>
+      <c r="C52" s="85" t="s">
         <v>108</v>
       </c>
       <c r="D52" s="17" t="s">
@@ -2604,9 +7468,9 @@
       <c r="L52" s="7"/>
     </row>
     <row r="53" spans="1:12" s="6" customFormat="1" ht="38.25">
-      <c r="A53" s="71"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="65"/>
+      <c r="A53" s="92"/>
+      <c r="B53" s="86"/>
+      <c r="C53" s="86"/>
       <c r="D53" s="17" t="s">
         <v>105</v>
       </c>
@@ -2624,9 +7488,9 @@
       <c r="L53" s="7"/>
     </row>
     <row r="54" spans="1:12" s="6" customFormat="1" ht="76.5">
-      <c r="A54" s="72"/>
-      <c r="B54" s="66"/>
-      <c r="C54" s="66"/>
+      <c r="A54" s="93"/>
+      <c r="B54" s="89"/>
+      <c r="C54" s="89"/>
       <c r="D54" s="17" t="s">
         <v>103</v>
       </c>
@@ -2644,7 +7508,7 @@
       <c r="L54" s="7"/>
     </row>
     <row r="55" spans="1:12" s="6" customFormat="1" ht="63.75">
-      <c r="A55" s="70"/>
+      <c r="A55" s="91"/>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
       <c r="D55" s="34" t="s">
@@ -2664,11 +7528,11 @@
       <c r="L55" s="7"/>
     </row>
     <row r="56" spans="1:12" s="6" customFormat="1" ht="156.94999999999999" customHeight="1">
-      <c r="A56" s="71"/>
-      <c r="B56" s="64" t="s">
+      <c r="A56" s="92"/>
+      <c r="B56" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="C56" s="70" t="s">
+      <c r="C56" s="91" t="s">
         <v>98</v>
       </c>
       <c r="D56" s="17" t="s">
@@ -2688,9 +7552,9 @@
       <c r="L56" s="7"/>
     </row>
     <row r="57" spans="1:12" s="6" customFormat="1" ht="89.1" customHeight="1">
-      <c r="A57" s="71"/>
-      <c r="B57" s="65"/>
-      <c r="C57" s="71"/>
+      <c r="A57" s="92"/>
+      <c r="B57" s="86"/>
+      <c r="C57" s="92"/>
       <c r="D57" s="17" t="s">
         <v>96</v>
       </c>
@@ -2708,9 +7572,9 @@
       <c r="L57" s="7"/>
     </row>
     <row r="58" spans="1:12" s="6" customFormat="1" ht="74.45" customHeight="1">
-      <c r="A58" s="71"/>
-      <c r="B58" s="65"/>
-      <c r="C58" s="71"/>
+      <c r="A58" s="92"/>
+      <c r="B58" s="86"/>
+      <c r="C58" s="92"/>
       <c r="D58" s="17" t="s">
         <v>95</v>
       </c>
@@ -2728,9 +7592,9 @@
       <c r="L58" s="7"/>
     </row>
     <row r="59" spans="1:12" s="6" customFormat="1" ht="89.25">
-      <c r="A59" s="72"/>
-      <c r="B59" s="66"/>
-      <c r="C59" s="72"/>
+      <c r="A59" s="93"/>
+      <c r="B59" s="89"/>
+      <c r="C59" s="93"/>
       <c r="D59" s="17" t="s">
         <v>94</v>
       </c>
@@ -2749,7 +7613,7 @@
     </row>
     <row r="60" spans="1:12" s="6" customFormat="1" ht="150.94999999999999" customHeight="1">
       <c r="A60" s="35"/>
-      <c r="B60" s="70"/>
+      <c r="B60" s="91"/>
       <c r="C60" s="32"/>
       <c r="D60" s="17" t="s">
         <v>93</v>
@@ -2769,7 +7633,7 @@
     </row>
     <row r="61" spans="1:12" s="6" customFormat="1" ht="174" customHeight="1">
       <c r="A61" s="35"/>
-      <c r="B61" s="72"/>
+      <c r="B61" s="93"/>
       <c r="C61" s="30"/>
       <c r="D61" s="17" t="s">
         <v>92</v>
@@ -2788,9 +7652,9 @@
       <c r="L61" s="7"/>
     </row>
     <row r="62" spans="1:12" s="6" customFormat="1" ht="260.45" customHeight="1">
-      <c r="A62" s="70"/>
-      <c r="B62" s="70"/>
-      <c r="C62" s="70"/>
+      <c r="A62" s="91"/>
+      <c r="B62" s="91"/>
+      <c r="C62" s="91"/>
       <c r="D62" s="17" t="s">
         <v>91</v>
       </c>
@@ -2808,9 +7672,9 @@
       <c r="L62" s="7"/>
     </row>
     <row r="63" spans="1:12" s="6" customFormat="1" ht="60.6" customHeight="1">
-      <c r="A63" s="72"/>
-      <c r="B63" s="72"/>
-      <c r="C63" s="72"/>
+      <c r="A63" s="93"/>
+      <c r="B63" s="93"/>
+      <c r="C63" s="93"/>
       <c r="D63" s="34" t="s">
         <v>90</v>
       </c>
@@ -2828,8 +7692,8 @@
       <c r="L63" s="7"/>
     </row>
     <row r="64" spans="1:12" s="6" customFormat="1" ht="59.1" customHeight="1">
-      <c r="A64" s="70"/>
-      <c r="B64" s="70"/>
+      <c r="A64" s="91"/>
+      <c r="B64" s="91"/>
       <c r="C64" s="32"/>
       <c r="D64" s="17" t="s">
         <v>89</v>
@@ -2848,8 +7712,8 @@
       <c r="L64" s="7"/>
     </row>
     <row r="65" spans="1:12" s="6" customFormat="1" ht="66" customHeight="1">
-      <c r="A65" s="71"/>
-      <c r="B65" s="71"/>
+      <c r="A65" s="92"/>
+      <c r="B65" s="92"/>
       <c r="C65" s="31"/>
       <c r="D65" s="17" t="s">
         <v>87</v>
@@ -2868,8 +7732,8 @@
       <c r="L65" s="7"/>
     </row>
     <row r="66" spans="1:12" s="6" customFormat="1" ht="57.95" customHeight="1">
-      <c r="A66" s="71"/>
-      <c r="B66" s="71"/>
+      <c r="A66" s="92"/>
+      <c r="B66" s="92"/>
       <c r="C66" s="31"/>
       <c r="D66" s="17" t="s">
         <v>86</v>
@@ -2888,8 +7752,8 @@
       <c r="L66" s="7"/>
     </row>
     <row r="67" spans="1:12" s="6" customFormat="1" ht="48" customHeight="1">
-      <c r="A67" s="71"/>
-      <c r="B67" s="71"/>
+      <c r="A67" s="92"/>
+      <c r="B67" s="92"/>
       <c r="C67" s="31"/>
       <c r="D67" s="17" t="s">
         <v>85</v>
@@ -2908,8 +7772,8 @@
       <c r="L67" s="7"/>
     </row>
     <row r="68" spans="1:12" s="6" customFormat="1" ht="59.1" customHeight="1">
-      <c r="A68" s="72"/>
-      <c r="B68" s="72"/>
+      <c r="A68" s="93"/>
+      <c r="B68" s="93"/>
       <c r="C68" s="30"/>
       <c r="D68" s="17" t="s">
         <v>84</v>
@@ -2928,18 +7792,18 @@
       <c r="L68" s="7"/>
     </row>
     <row r="69" spans="1:12" s="6" customFormat="1" ht="54" customHeight="1">
-      <c r="A69" s="70"/>
-      <c r="B69" s="70"/>
-      <c r="C69" s="64" t="s">
+      <c r="A69" s="91"/>
+      <c r="B69" s="91"/>
+      <c r="C69" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="D69" s="53" t="s">
+      <c r="D69" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="E69" s="54">
+      <c r="E69" s="98">
         <v>10</v>
       </c>
-      <c r="F69" s="52" t="s">
+      <c r="F69" s="99" t="s">
         <v>81</v>
       </c>
       <c r="G69" s="14"/>
@@ -2950,12 +7814,12 @@
       <c r="L69" s="7"/>
     </row>
     <row r="70" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A70" s="71"/>
-      <c r="B70" s="71"/>
-      <c r="C70" s="65"/>
-      <c r="D70" s="53"/>
-      <c r="E70" s="54"/>
-      <c r="F70" s="52"/>
+      <c r="A70" s="92"/>
+      <c r="B70" s="92"/>
+      <c r="C70" s="86"/>
+      <c r="D70" s="78"/>
+      <c r="E70" s="98"/>
+      <c r="F70" s="99"/>
       <c r="G70" s="12"/>
       <c r="H70" s="12"/>
       <c r="I70" s="7"/>
@@ -2964,12 +7828,12 @@
       <c r="L70" s="7"/>
     </row>
     <row r="71" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A71" s="71"/>
-      <c r="B71" s="71"/>
-      <c r="C71" s="65"/>
-      <c r="D71" s="53"/>
-      <c r="E71" s="54"/>
-      <c r="F71" s="52"/>
+      <c r="A71" s="92"/>
+      <c r="B71" s="92"/>
+      <c r="C71" s="86"/>
+      <c r="D71" s="78"/>
+      <c r="E71" s="98"/>
+      <c r="F71" s="99"/>
       <c r="G71" s="20"/>
       <c r="H71" s="20"/>
       <c r="I71" s="7"/>
@@ -2978,9 +7842,9 @@
       <c r="L71" s="7"/>
     </row>
     <row r="72" spans="1:12" s="6" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A72" s="72"/>
-      <c r="B72" s="72"/>
-      <c r="C72" s="66"/>
+      <c r="A72" s="93"/>
+      <c r="B72" s="93"/>
+      <c r="C72" s="89"/>
       <c r="D72" s="17" t="s">
         <v>80</v>
       </c>
@@ -2998,8 +7862,8 @@
       <c r="L72" s="7"/>
     </row>
     <row r="73" spans="1:12" s="6" customFormat="1" ht="60" customHeight="1">
-      <c r="A73" s="70"/>
-      <c r="B73" s="70"/>
+      <c r="A73" s="91"/>
+      <c r="B73" s="91"/>
       <c r="C73" s="19" t="s">
         <v>78</v>
       </c>
@@ -3020,18 +7884,18 @@
       <c r="L73" s="7"/>
     </row>
     <row r="74" spans="1:12" s="6" customFormat="1" ht="54" customHeight="1">
-      <c r="A74" s="71"/>
-      <c r="B74" s="71"/>
-      <c r="C74" s="73" t="s">
+      <c r="A74" s="92"/>
+      <c r="B74" s="92"/>
+      <c r="C74" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="D74" s="53" t="s">
+      <c r="D74" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="E74" s="54">
+      <c r="E74" s="98">
         <v>20</v>
       </c>
-      <c r="F74" s="52" t="s">
+      <c r="F74" s="99" t="s">
         <v>74</v>
       </c>
       <c r="G74" s="14"/>
@@ -3042,12 +7906,12 @@
       <c r="L74" s="7"/>
     </row>
     <row r="75" spans="1:12" s="6" customFormat="1" ht="51" customHeight="1">
-      <c r="A75" s="72"/>
-      <c r="B75" s="72"/>
-      <c r="C75" s="74"/>
-      <c r="D75" s="53"/>
-      <c r="E75" s="54"/>
-      <c r="F75" s="52"/>
+      <c r="A75" s="93"/>
+      <c r="B75" s="93"/>
+      <c r="C75" s="101"/>
+      <c r="D75" s="78"/>
+      <c r="E75" s="98"/>
+      <c r="F75" s="99"/>
       <c r="G75" s="20"/>
       <c r="H75" s="20"/>
       <c r="I75" s="7"/>
@@ -3056,13 +7920,13 @@
       <c r="L75" s="7"/>
     </row>
     <row r="76" spans="1:12" s="6" customFormat="1" ht="59.45" customHeight="1">
-      <c r="A76" s="64" t="s">
+      <c r="A76" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="B76" s="53" t="s">
+      <c r="B76" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="C76" s="64" t="s">
+      <c r="C76" s="85" t="s">
         <v>71</v>
       </c>
       <c r="D76" s="17" t="s">
@@ -3082,9 +7946,9 @@
       <c r="L76" s="7"/>
     </row>
     <row r="77" spans="1:12" s="6" customFormat="1" ht="45.95" customHeight="1">
-      <c r="A77" s="65"/>
-      <c r="B77" s="53"/>
-      <c r="C77" s="66"/>
+      <c r="A77" s="86"/>
+      <c r="B77" s="78"/>
+      <c r="C77" s="89"/>
       <c r="D77" s="17" t="s">
         <v>69</v>
       </c>
@@ -3102,18 +7966,18 @@
       <c r="L77" s="7"/>
     </row>
     <row r="78" spans="1:12" s="6" customFormat="1" ht="54" customHeight="1">
-      <c r="A78" s="65"/>
-      <c r="B78" s="53"/>
-      <c r="C78" s="67" t="s">
+      <c r="A78" s="86"/>
+      <c r="B78" s="78"/>
+      <c r="C78" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="D78" s="53" t="s">
+      <c r="D78" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="E78" s="54">
+      <c r="E78" s="98">
         <v>16</v>
       </c>
-      <c r="F78" s="52" t="s">
+      <c r="F78" s="99" t="s">
         <v>66</v>
       </c>
       <c r="G78" s="14"/>
@@ -3124,12 +7988,12 @@
       <c r="L78" s="7"/>
     </row>
     <row r="79" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A79" s="65"/>
-      <c r="B79" s="53"/>
-      <c r="C79" s="68"/>
-      <c r="D79" s="53"/>
-      <c r="E79" s="54"/>
-      <c r="F79" s="52"/>
+      <c r="A79" s="86"/>
+      <c r="B79" s="78"/>
+      <c r="C79" s="88"/>
+      <c r="D79" s="78"/>
+      <c r="E79" s="98"/>
+      <c r="F79" s="99"/>
       <c r="G79" s="20"/>
       <c r="H79" s="20"/>
       <c r="I79" s="7"/>
@@ -3138,9 +8002,9 @@
       <c r="L79" s="7"/>
     </row>
     <row r="80" spans="1:12" s="6" customFormat="1" ht="25.5">
-      <c r="A80" s="65"/>
-      <c r="B80" s="53"/>
-      <c r="C80" s="69"/>
+      <c r="A80" s="86"/>
+      <c r="B80" s="78"/>
+      <c r="C80" s="90"/>
       <c r="D80" s="17" t="s">
         <v>65</v>
       </c>
@@ -3158,20 +8022,20 @@
       <c r="L80" s="7"/>
     </row>
     <row r="81" spans="1:12" s="6" customFormat="1" ht="54" customHeight="1">
-      <c r="A81" s="65"/>
-      <c r="B81" s="53" t="s">
+      <c r="A81" s="86"/>
+      <c r="B81" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="67" t="s">
+      <c r="C81" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="D81" s="53" t="s">
+      <c r="D81" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="E81" s="54">
+      <c r="E81" s="98">
         <v>20</v>
       </c>
-      <c r="F81" s="52" t="s">
+      <c r="F81" s="99" t="s">
         <v>60</v>
       </c>
       <c r="G81" s="14"/>
@@ -3182,12 +8046,12 @@
       <c r="L81" s="7"/>
     </row>
     <row r="82" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A82" s="65"/>
-      <c r="B82" s="53"/>
-      <c r="C82" s="69"/>
-      <c r="D82" s="53"/>
-      <c r="E82" s="54"/>
-      <c r="F82" s="52"/>
+      <c r="A82" s="86"/>
+      <c r="B82" s="78"/>
+      <c r="C82" s="90"/>
+      <c r="D82" s="78"/>
+      <c r="E82" s="98"/>
+      <c r="F82" s="99"/>
       <c r="G82" s="12"/>
       <c r="H82" s="20"/>
       <c r="I82" s="7"/>
@@ -3196,18 +8060,18 @@
       <c r="L82" s="7"/>
     </row>
     <row r="83" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A83" s="65"/>
-      <c r="B83" s="53"/>
-      <c r="C83" s="67" t="s">
+      <c r="A83" s="86"/>
+      <c r="B83" s="78"/>
+      <c r="C83" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="D83" s="53" t="s">
+      <c r="D83" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="E83" s="54">
+      <c r="E83" s="98">
         <v>12</v>
       </c>
-      <c r="F83" s="52" t="s">
+      <c r="F83" s="99" t="s">
         <v>57</v>
       </c>
       <c r="G83" s="14"/>
@@ -3218,12 +8082,12 @@
       <c r="L83" s="7"/>
     </row>
     <row r="84" spans="1:12" s="6" customFormat="1" ht="12.75">
-      <c r="A84" s="65"/>
-      <c r="B84" s="53"/>
-      <c r="C84" s="68"/>
-      <c r="D84" s="53"/>
-      <c r="E84" s="54"/>
-      <c r="F84" s="52"/>
+      <c r="A84" s="86"/>
+      <c r="B84" s="78"/>
+      <c r="C84" s="88"/>
+      <c r="D84" s="78"/>
+      <c r="E84" s="98"/>
+      <c r="F84" s="99"/>
       <c r="G84" s="12"/>
       <c r="H84" s="20"/>
       <c r="I84" s="7"/>
@@ -3232,16 +8096,16 @@
       <c r="L84" s="7"/>
     </row>
     <row r="85" spans="1:12" s="6" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A85" s="65"/>
-      <c r="B85" s="53"/>
-      <c r="C85" s="68"/>
-      <c r="D85" s="58" t="s">
+      <c r="A85" s="86"/>
+      <c r="B85" s="78"/>
+      <c r="C85" s="88"/>
+      <c r="D85" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="E85" s="62">
+      <c r="E85" s="102">
         <v>16</v>
       </c>
-      <c r="F85" s="63" t="s">
+      <c r="F85" s="104" t="s">
         <v>55</v>
       </c>
       <c r="G85" s="29"/>
@@ -3252,12 +8116,12 @@
       <c r="L85" s="7"/>
     </row>
     <row r="86" spans="1:12" s="6" customFormat="1" ht="12.75">
-      <c r="A86" s="65"/>
-      <c r="B86" s="53"/>
-      <c r="C86" s="68"/>
-      <c r="D86" s="58"/>
-      <c r="E86" s="62"/>
-      <c r="F86" s="63"/>
+      <c r="A86" s="86"/>
+      <c r="B86" s="78"/>
+      <c r="C86" s="88"/>
+      <c r="D86" s="82"/>
+      <c r="E86" s="102"/>
+      <c r="F86" s="104"/>
       <c r="G86" s="28"/>
       <c r="H86" s="28"/>
       <c r="I86" s="7"/>
@@ -3266,12 +8130,12 @@
       <c r="L86" s="7"/>
     </row>
     <row r="87" spans="1:12" s="6" customFormat="1" ht="12.75">
-      <c r="A87" s="66"/>
-      <c r="B87" s="53"/>
-      <c r="C87" s="69"/>
-      <c r="D87" s="58"/>
-      <c r="E87" s="62"/>
-      <c r="F87" s="63"/>
+      <c r="A87" s="89"/>
+      <c r="B87" s="78"/>
+      <c r="C87" s="90"/>
+      <c r="D87" s="82"/>
+      <c r="E87" s="102"/>
+      <c r="F87" s="104"/>
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="7"/>
@@ -3280,8 +8144,8 @@
       <c r="L87" s="7"/>
     </row>
     <row r="88" spans="1:12" s="6" customFormat="1" ht="96.6" customHeight="1">
-      <c r="A88" s="64"/>
-      <c r="B88" s="53" t="s">
+      <c r="A88" s="85"/>
+      <c r="B88" s="78" t="s">
         <v>54</v>
       </c>
       <c r="C88" s="19" t="s">
@@ -3304,8 +8168,8 @@
       <c r="L88" s="7"/>
     </row>
     <row r="89" spans="1:12" s="6" customFormat="1" ht="72" customHeight="1">
-      <c r="A89" s="65"/>
-      <c r="B89" s="53"/>
+      <c r="A89" s="86"/>
+      <c r="B89" s="78"/>
       <c r="C89" s="19" t="s">
         <v>51</v>
       </c>
@@ -3326,20 +8190,20 @@
       <c r="L89" s="7"/>
     </row>
     <row r="90" spans="1:12" s="6" customFormat="1" ht="12.75">
-      <c r="A90" s="65"/>
-      <c r="B90" s="53" t="s">
+      <c r="A90" s="86"/>
+      <c r="B90" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="C90" s="53" t="s">
+      <c r="C90" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="D90" s="53" t="s">
+      <c r="D90" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="E90" s="54">
+      <c r="E90" s="98">
         <v>12</v>
       </c>
-      <c r="F90" s="52" t="s">
+      <c r="F90" s="99" t="s">
         <v>46</v>
       </c>
       <c r="G90" s="14"/>
@@ -3350,12 +8214,12 @@
       <c r="L90" s="7"/>
     </row>
     <row r="91" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A91" s="65"/>
-      <c r="B91" s="53"/>
-      <c r="C91" s="53"/>
-      <c r="D91" s="53"/>
-      <c r="E91" s="54"/>
-      <c r="F91" s="52"/>
+      <c r="A91" s="86"/>
+      <c r="B91" s="78"/>
+      <c r="C91" s="78"/>
+      <c r="D91" s="78"/>
+      <c r="E91" s="98"/>
+      <c r="F91" s="99"/>
       <c r="G91" s="12"/>
       <c r="H91" s="12"/>
       <c r="I91" s="7"/>
@@ -3364,12 +8228,12 @@
       <c r="L91" s="7"/>
     </row>
     <row r="92" spans="1:12" s="6" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A92" s="65"/>
-      <c r="B92" s="53"/>
-      <c r="C92" s="53"/>
-      <c r="D92" s="53"/>
-      <c r="E92" s="54"/>
-      <c r="F92" s="52"/>
+      <c r="A92" s="86"/>
+      <c r="B92" s="78"/>
+      <c r="C92" s="78"/>
+      <c r="D92" s="78"/>
+      <c r="E92" s="98"/>
+      <c r="F92" s="99"/>
       <c r="G92" s="12"/>
       <c r="H92" s="20"/>
       <c r="I92" s="7"/>
@@ -3378,16 +8242,16 @@
       <c r="L92" s="7"/>
     </row>
     <row r="93" spans="1:12" s="6" customFormat="1" ht="12.75">
-      <c r="A93" s="65"/>
-      <c r="B93" s="53"/>
-      <c r="C93" s="53"/>
-      <c r="D93" s="53" t="s">
+      <c r="A93" s="86"/>
+      <c r="B93" s="78"/>
+      <c r="C93" s="78"/>
+      <c r="D93" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="E93" s="54">
+      <c r="E93" s="98">
         <v>8</v>
       </c>
-      <c r="F93" s="52" t="s">
+      <c r="F93" s="99" t="s">
         <v>44</v>
       </c>
       <c r="G93" s="14"/>
@@ -3398,12 +8262,12 @@
       <c r="L93" s="7"/>
     </row>
     <row r="94" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A94" s="66"/>
-      <c r="B94" s="53"/>
-      <c r="C94" s="53"/>
-      <c r="D94" s="53"/>
-      <c r="E94" s="54"/>
-      <c r="F94" s="52"/>
+      <c r="A94" s="89"/>
+      <c r="B94" s="78"/>
+      <c r="C94" s="78"/>
+      <c r="D94" s="78"/>
+      <c r="E94" s="98"/>
+      <c r="F94" s="99"/>
       <c r="G94" s="12"/>
       <c r="H94" s="20"/>
       <c r="I94" s="7"/>
@@ -3412,22 +8276,22 @@
       <c r="L94" s="7"/>
     </row>
     <row r="95" spans="1:12" s="6" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A95" s="55" t="s">
+      <c r="A95" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="B95" s="58" t="s">
+      <c r="B95" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="C95" s="59" t="s">
+      <c r="C95" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="D95" s="58" t="s">
+      <c r="D95" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="E95" s="62">
+      <c r="E95" s="102">
         <v>12</v>
       </c>
-      <c r="F95" s="63" t="s">
+      <c r="F95" s="104" t="s">
         <v>39</v>
       </c>
       <c r="G95" s="29"/>
@@ -3438,12 +8302,12 @@
       <c r="L95" s="7"/>
     </row>
     <row r="96" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A96" s="56"/>
-      <c r="B96" s="58"/>
-      <c r="C96" s="60"/>
-      <c r="D96" s="58"/>
-      <c r="E96" s="62"/>
-      <c r="F96" s="63"/>
+      <c r="A96" s="80"/>
+      <c r="B96" s="82"/>
+      <c r="C96" s="103"/>
+      <c r="D96" s="82"/>
+      <c r="E96" s="102"/>
+      <c r="F96" s="104"/>
       <c r="G96" s="28"/>
       <c r="H96" s="28"/>
       <c r="I96" s="7"/>
@@ -3452,12 +8316,12 @@
       <c r="L96" s="7"/>
     </row>
     <row r="97" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A97" s="56"/>
-      <c r="B97" s="58"/>
-      <c r="C97" s="60"/>
-      <c r="D97" s="58"/>
-      <c r="E97" s="62"/>
-      <c r="F97" s="63"/>
+      <c r="A97" s="80"/>
+      <c r="B97" s="82"/>
+      <c r="C97" s="103"/>
+      <c r="D97" s="82"/>
+      <c r="E97" s="102"/>
+      <c r="F97" s="104"/>
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
       <c r="I97" s="7"/>
@@ -3466,9 +8330,9 @@
       <c r="L97" s="7"/>
     </row>
     <row r="98" spans="1:12" s="6" customFormat="1" ht="38.25">
-      <c r="A98" s="56"/>
-      <c r="B98" s="58"/>
-      <c r="C98" s="61"/>
+      <c r="A98" s="80"/>
+      <c r="B98" s="82"/>
+      <c r="C98" s="84"/>
       <c r="D98" s="17" t="s">
         <v>38</v>
       </c>
@@ -3486,8 +8350,8 @@
       <c r="L98" s="7"/>
     </row>
     <row r="99" spans="1:12" s="6" customFormat="1" ht="51" customHeight="1">
-      <c r="A99" s="57"/>
-      <c r="B99" s="58"/>
+      <c r="A99" s="81"/>
+      <c r="B99" s="82"/>
       <c r="C99" s="26" t="s">
         <v>36</v>
       </c>
@@ -3532,7 +8396,7 @@
       <c r="L100" s="7"/>
     </row>
     <row r="101" spans="1:12" s="6" customFormat="1" ht="63.75">
-      <c r="A101" s="53" t="s">
+      <c r="A101" s="78" t="s">
         <v>29</v>
       </c>
       <c r="B101" s="17" t="s">
@@ -3558,11 +8422,11 @@
       <c r="L101" s="7"/>
     </row>
     <row r="102" spans="1:12" s="6" customFormat="1" ht="38.25">
-      <c r="A102" s="53"/>
-      <c r="B102" s="53" t="s">
+      <c r="A102" s="78"/>
+      <c r="B102" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="C102" s="53" t="s">
+      <c r="C102" s="78" t="s">
         <v>24</v>
       </c>
       <c r="D102" s="17" t="s">
@@ -3582,16 +8446,16 @@
       <c r="L102" s="7"/>
     </row>
     <row r="103" spans="1:12" s="6" customFormat="1" ht="54" customHeight="1">
-      <c r="A103" s="53"/>
-      <c r="B103" s="53"/>
-      <c r="C103" s="53"/>
-      <c r="D103" s="53" t="s">
+      <c r="A103" s="78"/>
+      <c r="B103" s="78"/>
+      <c r="C103" s="78"/>
+      <c r="D103" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="E103" s="54">
+      <c r="E103" s="98">
         <v>10</v>
       </c>
-      <c r="F103" s="52" t="s">
+      <c r="F103" s="99" t="s">
         <v>20</v>
       </c>
       <c r="G103" s="14"/>
@@ -3602,12 +8466,12 @@
       <c r="L103" s="7"/>
     </row>
     <row r="104" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1">
-      <c r="A104" s="53"/>
-      <c r="B104" s="53"/>
-      <c r="C104" s="53"/>
-      <c r="D104" s="53"/>
-      <c r="E104" s="54"/>
-      <c r="F104" s="52"/>
+      <c r="A104" s="78"/>
+      <c r="B104" s="78"/>
+      <c r="C104" s="78"/>
+      <c r="D104" s="78"/>
+      <c r="E104" s="98"/>
+      <c r="F104" s="99"/>
       <c r="G104" s="13"/>
       <c r="H104" s="20"/>
       <c r="I104" s="7"/>
@@ -3616,20 +8480,20 @@
       <c r="L104" s="7"/>
     </row>
     <row r="105" spans="1:12" s="6" customFormat="1" ht="45.95" customHeight="1">
-      <c r="A105" s="53"/>
-      <c r="B105" s="53" t="s">
+      <c r="A105" s="78"/>
+      <c r="B105" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C105" s="53" t="s">
+      <c r="C105" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="D105" s="53" t="s">
+      <c r="D105" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="E105" s="54">
+      <c r="E105" s="98">
         <v>10</v>
       </c>
-      <c r="F105" s="52" t="s">
+      <c r="F105" s="99" t="s">
         <v>16</v>
       </c>
       <c r="G105" s="14"/>
@@ -3640,12 +8504,12 @@
       <c r="L105" s="7"/>
     </row>
     <row r="106" spans="1:12" s="6" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A106" s="53"/>
-      <c r="B106" s="53"/>
-      <c r="C106" s="53"/>
-      <c r="D106" s="53"/>
-      <c r="E106" s="54"/>
-      <c r="F106" s="52"/>
+      <c r="A106" s="78"/>
+      <c r="B106" s="78"/>
+      <c r="C106" s="78"/>
+      <c r="D106" s="78"/>
+      <c r="E106" s="98"/>
+      <c r="F106" s="99"/>
       <c r="G106" s="13"/>
       <c r="H106" s="20"/>
       <c r="I106" s="7"/>
@@ -3654,16 +8518,16 @@
       <c r="L106" s="7"/>
     </row>
     <row r="107" spans="1:12" s="6" customFormat="1" ht="12.75">
-      <c r="A107" s="53"/>
-      <c r="B107" s="53"/>
-      <c r="C107" s="53"/>
-      <c r="D107" s="53" t="s">
+      <c r="A107" s="78"/>
+      <c r="B107" s="78"/>
+      <c r="C107" s="78"/>
+      <c r="D107" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="E107" s="54">
+      <c r="E107" s="98">
         <v>6</v>
       </c>
-      <c r="F107" s="52" t="s">
+      <c r="F107" s="99" t="s">
         <v>14</v>
       </c>
       <c r="G107" s="14"/>
@@ -3674,12 +8538,12 @@
       <c r="L107" s="7"/>
     </row>
     <row r="108" spans="1:12" s="6" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A108" s="53"/>
-      <c r="B108" s="53"/>
-      <c r="C108" s="53"/>
-      <c r="D108" s="53"/>
-      <c r="E108" s="54"/>
-      <c r="F108" s="52"/>
+      <c r="A108" s="78"/>
+      <c r="B108" s="78"/>
+      <c r="C108" s="78"/>
+      <c r="D108" s="78"/>
+      <c r="E108" s="98"/>
+      <c r="F108" s="99"/>
       <c r="G108" s="21"/>
       <c r="H108" s="20"/>
       <c r="I108" s="7"/>
@@ -3688,10 +8552,10 @@
       <c r="L108" s="7"/>
     </row>
     <row r="109" spans="1:12" s="6" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A109" s="53" t="s">
+      <c r="A109" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="B109" s="53" t="s">
+      <c r="B109" s="78" t="s">
         <v>12</v>
       </c>
       <c r="C109" s="19" t="s">
@@ -3714,8 +8578,8 @@
       <c r="L109" s="7"/>
     </row>
     <row r="110" spans="1:12" s="6" customFormat="1" ht="39" customHeight="1">
-      <c r="A110" s="53"/>
-      <c r="B110" s="53"/>
+      <c r="A110" s="78"/>
+      <c r="B110" s="78"/>
       <c r="C110" s="19" t="s">
         <v>8</v>
       </c>
@@ -3736,20 +8600,20 @@
       <c r="L110" s="7"/>
     </row>
     <row r="111" spans="1:12" s="6" customFormat="1" ht="12.75">
-      <c r="A111" s="53"/>
-      <c r="B111" s="53" t="s">
+      <c r="A111" s="78"/>
+      <c r="B111" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="C111" s="53" t="s">
+      <c r="C111" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="D111" s="53" t="s">
+      <c r="D111" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="E111" s="54">
+      <c r="E111" s="98">
         <v>12</v>
       </c>
-      <c r="F111" s="52" t="s">
+      <c r="F111" s="99" t="s">
         <v>2</v>
       </c>
       <c r="G111" s="14"/>
@@ -3760,12 +8624,12 @@
       <c r="L111" s="7"/>
     </row>
     <row r="112" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A112" s="53"/>
-      <c r="B112" s="53"/>
-      <c r="C112" s="53"/>
-      <c r="D112" s="53"/>
-      <c r="E112" s="54"/>
-      <c r="F112" s="52"/>
+      <c r="A112" s="78"/>
+      <c r="B112" s="78"/>
+      <c r="C112" s="78"/>
+      <c r="D112" s="78"/>
+      <c r="E112" s="98"/>
+      <c r="F112" s="99"/>
       <c r="G112" s="13"/>
       <c r="H112" s="12"/>
       <c r="I112" s="7"/>
@@ -3774,12 +8638,12 @@
       <c r="L112" s="7"/>
     </row>
     <row r="113" spans="1:12" s="6" customFormat="1" ht="93.95" customHeight="1">
-      <c r="A113" s="53"/>
-      <c r="B113" s="53"/>
-      <c r="C113" s="53"/>
-      <c r="D113" s="53"/>
-      <c r="E113" s="54"/>
-      <c r="F113" s="52"/>
+      <c r="A113" s="78"/>
+      <c r="B113" s="78"/>
+      <c r="C113" s="78"/>
+      <c r="D113" s="78"/>
+      <c r="E113" s="98"/>
+      <c r="F113" s="99"/>
       <c r="G113" s="11"/>
       <c r="H113" s="10"/>
       <c r="I113" s="7"/>
@@ -3788,20 +8652,20 @@
       <c r="L113" s="7"/>
     </row>
     <row r="114" spans="1:12" s="6" customFormat="1" ht="33.6" customHeight="1">
-      <c r="A114" s="48" t="s">
+      <c r="A114" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B114" s="49"/>
-      <c r="C114" s="49"/>
-      <c r="D114" s="50"/>
+      <c r="B114" s="75"/>
+      <c r="C114" s="75"/>
+      <c r="D114" s="76"/>
       <c r="E114" s="9">
         <f>SUM(E6:E113)</f>
         <v>600</v>
       </c>
-      <c r="F114" s="48" t="s">
+      <c r="F114" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="G114" s="51"/>
+      <c r="G114" s="77"/>
       <c r="H114" s="8">
         <f>SUM(H6:H113)</f>
         <v>0</v>
@@ -3813,6 +8677,146 @@
     </row>
   </sheetData>
   <mergeCells count="164">
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="D111:D113"/>
+    <mergeCell ref="E111:E113"/>
+    <mergeCell ref="A101:A108"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F111:F113"/>
+    <mergeCell ref="A95:A99"/>
+    <mergeCell ref="B95:B99"/>
+    <mergeCell ref="C95:C98"/>
+    <mergeCell ref="D95:D97"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="F95:F97"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="B105:B108"/>
+    <mergeCell ref="C105:C108"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="A88:A94"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="C90:C94"/>
+    <mergeCell ref="D90:D92"/>
+    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="F90:F92"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A76:A87"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="D85:D87"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="B81:B87"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="C83:C87"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="F85:F87"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="C69:C72"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="F69:F71"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="C46:C50"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="A37:A45"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A25:A36"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="E2:G2"/>
@@ -3837,146 +8841,6 @@
     <mergeCell ref="E14:E16"/>
     <mergeCell ref="F14:F16"/>
     <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="A25:A36"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A37:A45"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="B46:B50"/>
-    <mergeCell ref="C46:C50"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="C69:C72"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="F69:F71"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="A76:A87"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="D85:D87"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="B81:B87"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="C83:C87"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="F85:F87"/>
-    <mergeCell ref="A88:A94"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B90:B94"/>
-    <mergeCell ref="C90:C94"/>
-    <mergeCell ref="D90:D92"/>
-    <mergeCell ref="E90:E92"/>
-    <mergeCell ref="F90:F92"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A95:A99"/>
-    <mergeCell ref="B95:B99"/>
-    <mergeCell ref="C95:C98"/>
-    <mergeCell ref="D95:D97"/>
-    <mergeCell ref="E95:E97"/>
-    <mergeCell ref="F95:F97"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="B105:B108"/>
-    <mergeCell ref="C105:C108"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="D111:D113"/>
-    <mergeCell ref="E111:E113"/>
-    <mergeCell ref="A101:A108"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F111:F113"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4004,7 +8868,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<NovaPath_docOwner>BettyZhao</NovaPath_docOwner>
+<nXeGKudETKPeaCNGFh5i2aVdoOsLYjULCdH7T707tDyRRmguot4fEcJ2iD6f9>aijtZbeaDr5ifuku6q8Dl4KnAmxHbEzlw2o+upnhWGM=</nXeGKudETKPeaCNGFh5i2aVdoOsLYjULCdH7T707tDyRRmguot4fEcJ2iD6f9>
 </file>
 
 <file path=customXml/item10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4048,7 +8912,7 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<nXeGKudETKPeaCNGFh5iy53cs4YTjZQd4Re9Stbph13fJwq3N1dxRUwfkxNCzGbktJIbKf2q8mQyY814Q>GoBUcRQBOiWNv9cnqy33XA==</nXeGKudETKPeaCNGFh5iy53cs4YTjZQd4Re9Stbph13fJwq3N1dxRUwfkxNCzGbktJIbKf2q8mQyY814Q>
+<NovaPath_DocInfoFromAfterSave>False</NovaPath_DocInfoFromAfterSave>
 </file>
 
 <file path=customXml/item20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4072,11 +8936,11 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<NovaPath_DocInfoFromAfterSave>False</NovaPath_DocInfoFromAfterSave>
+<nXeGKudETKPeaCNGFh5iy53cs4YTjZQd4Re9Stbph13fJwq3N1dxRUwfkxNCzGbktJIbKf2q8mQyY814Q>GoBUcRQBOiWNv9cnqy33XA==</nXeGKudETKPeaCNGFh5iy53cs4YTjZQd4Re9Stbph13fJwq3N1dxRUwfkxNCzGbktJIbKf2q8mQyY814Q>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<nXeGKudETKPeaCNGFh5i2aVdoOsLYjULCdH7T707tDyRRmguot4fEcJ2iD6f9>aijtZbeaDr5ifuku6q8Dl4KnAmxHbEzlw2o+upnhWGM=</nXeGKudETKPeaCNGFh5i2aVdoOsLYjULCdH7T707tDyRRmguot4fEcJ2iD6f9>
+<NovaPath_docOwner>BettyZhao</NovaPath_docOwner>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4100,145 +8964,145 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01CF30C1-4959-4D3A-B180-0B8F5A0AA3A1}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps10.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA0E88C0-F1EA-449C-B995-15E17DBC8D39}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps11.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEDB4CCD-1D90-41CE-B174-B023431F5227}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps12.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A13956-F6F4-4ED3-B1BA-629CE64E97A0}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps13.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DAE2B47-CE57-49B9-ADFA-650237BD9EFA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps14.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBBC12C5-1C3D-47D1-A130-32DE699F3694}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps15.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A3602A2-EFFA-4B10-8DE6-0773E6334720}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps16.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D6603FE-A214-4988-BC8C-4EF5F0172D37}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps17.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E37B743-E031-4B12-8256-EE82887F871F}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps18.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B356C656-394D-4C41-B436-5A3BE095FA50}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps19.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5FE3B68-24C4-4464-BF86-A5FF5E137536}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB6F44DC-75F7-4D07-8DCE-3B3959060FA5}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps20.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF6EDC4A-07BB-4112-9383-2417321674FB}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps21.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D0E01D9-A2EF-4A9A-A30A-ECF39A4D690B}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps22.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0E0B70B-2960-4891-ABCA-B7677312889A}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps23.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36A505D7-C6D4-488C-AD2D-D87F56E6001F}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps24.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3823C6A-2266-4E88-8A37-46F4516097C4}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA82C119-EE81-4E19-BFC8-648830FF3AE0}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DF244A0-4C99-4955-AA14-54C302512B59}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps10.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86A8CE16-6674-41FD-8FA9-F3F8778FB20B}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps11.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37836C0C-9E53-4080-8E62-34CE29A517AA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps12.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17966923-FB40-476C-9B0D-D68478618874}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps13.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CA63E6A-13D3-4383-ADF8-B9B8B3D074B4}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps14.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52730355-5D8B-4557-ABB3-28DD95A7B81E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps15.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BFE515B-82D8-47F4-8D19-13D3BF525574}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps16.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A11E6A90-512C-4420-8795-5B4C960396E9}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps17.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D766635C-C59E-4458-B39D-6E35F3C3E91F}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps18.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B9AD3DC-689F-4449-80B1-D340EC436BFF}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps19.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D25D96CB-235D-4A80-BBF3-F57EF0A69FFA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA82C119-EE81-4E19-BFC8-648830FF3AE0}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps20.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F337C1ED-AC8E-40FA-8664-2ABEC6A29929}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps21.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{915959B1-3672-4DE1-AB17-9262C7BC7AB2}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps22.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C3F1A51-4879-4809-83B8-A963A73CA773}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps23.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D90C1FF-E14F-4F32-951C-E1B1D239A800}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps24.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F7608EB-88BF-4C89-ADC6-062A1B241A39}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB6F44DC-75F7-4D07-8DCE-3B3959060FA5}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01CF30C1-4959-4D3A-B180-0B8F5A0AA3A1}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFD2B113-2449-4F44-AAF8-024FC477C0EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08D29157-932B-4652-9A0A-354AA771EA73}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{416B13E6-D742-49FE-A576-828C201722B2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2B1C476-DAE5-4FB2-B67F-ED4E1FC97BD0}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps7.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABCFACBF-89BB-4737-BBFA-B2843C619A3A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96A1CE02-25AA-4820-B0DC-61E47B023F72}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps8.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6711E7EE-980C-4C3A-8D44-F7DDB99B58D6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1173FC0F-5613-44EE-B8ED-01FC8A8CB405}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps9.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31B601A4-74A3-47BE-90B9-0451B6062702}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95D5B16F-80C5-494C-8991-B801C70AD825}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/Safeway/wwwroot/exportTemplate/小微评审.xlsx
+++ b/Safeway/wwwroot/exportTemplate/小微评审.xlsx
@@ -13,46 +13,45 @@
   </bookViews>
   <sheets>
     <sheet name="评分表" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
-    <sheet name="评分中间表" sheetId="3" r:id="rId3"/>
-    <sheet name="打印评分表" sheetId="2" r:id="rId4"/>
+    <sheet name="评分中间表" sheetId="3" r:id="rId2"/>
+    <sheet name="打印评分表" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">评分表!$I$1:$I$85</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">打印评分表!$A$1:$H$114</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">评分中间表!$A$1:$H$114</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">打印评分表!$A$1:$H$114</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">评分中间表!$A$1:$H$114</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">评分表!$A$1:$H$73</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">打印评分表!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">评分中间表!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">打印评分表!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">评分中间表!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">评分表!$1:$5</definedName>
     <definedName name="t" localSheetId="0">#REF!</definedName>
     <definedName name="t">#REF!</definedName>
-    <definedName name="上级" localSheetId="3">#REF!</definedName>
     <definedName name="上级" localSheetId="2">#REF!</definedName>
+    <definedName name="上级" localSheetId="1">#REF!</definedName>
     <definedName name="上级" localSheetId="0">#REF!</definedName>
     <definedName name="上级">#REF!</definedName>
-    <definedName name="姓名" localSheetId="3">#REF!</definedName>
     <definedName name="姓名" localSheetId="2">#REF!</definedName>
+    <definedName name="姓名" localSheetId="1">#REF!</definedName>
     <definedName name="姓名" localSheetId="0">#REF!</definedName>
     <definedName name="姓名">#REF!</definedName>
-    <definedName name="年" localSheetId="3">#REF!</definedName>
     <definedName name="年" localSheetId="2">#REF!</definedName>
+    <definedName name="年" localSheetId="1">#REF!</definedName>
     <definedName name="年" localSheetId="0">#REF!</definedName>
     <definedName name="年">#REF!</definedName>
-    <definedName name="成员" localSheetId="3">#REF!</definedName>
     <definedName name="成员" localSheetId="2">#REF!</definedName>
+    <definedName name="成员" localSheetId="1">#REF!</definedName>
     <definedName name="成员" localSheetId="0">#REF!</definedName>
     <definedName name="成员">#REF!</definedName>
-    <definedName name="日" localSheetId="3">#REF!</definedName>
     <definedName name="日" localSheetId="2">#REF!</definedName>
+    <definedName name="日" localSheetId="1">#REF!</definedName>
     <definedName name="日" localSheetId="0">#REF!</definedName>
     <definedName name="日">#REF!</definedName>
-    <definedName name="月" localSheetId="3">#REF!</definedName>
     <definedName name="月" localSheetId="2">#REF!</definedName>
+    <definedName name="月" localSheetId="1">#REF!</definedName>
     <definedName name="月" localSheetId="0">#REF!</definedName>
     <definedName name="月">#REF!</definedName>
-    <definedName name="评审单位" localSheetId="3">#REF!</definedName>
     <definedName name="评审单位" localSheetId="2">#REF!</definedName>
+    <definedName name="评审单位" localSheetId="1">#REF!</definedName>
     <definedName name="评审单位" localSheetId="0">#REF!</definedName>
     <definedName name="评审单位">#REF!</definedName>
   </definedNames>
@@ -1256,23 +1255,10 @@
     <t>93CDE058-2B91-4A7F-8DDD-8C5716B7DF78</t>
   </si>
   <si>
-    <t>生产设备设施传动部位应按照如下情况，设置防护罩、盖或栏： 
-Ⅰ 以作业人员站立平面为基准，高度2m 以下的外露传动部位； 
-Ⅱ 旋转的键、销、楔等突出大于3mm的部位；
-Ⅲ 产生切屑、磨屑、冷却液等飞溅，可能触及人体或造成设备与环境污染的部位； 
-Ⅳ 产生射线或弧光的部位； 
-Ⅴ 伸入通道的超长工件； 
-Ⅵ 超长设备后端300mm以上的工件； 
-Ⅶ 容易伤人的设备往复运动部位； 
-Ⅷ 悬挂输送装置跨越通道的下部； 
-Ⅸ 高于地面0.7m的操作平台。</t>
-  </si>
-  <si>
-    <t>在全部停电或部分停电的电气设备上作业，应遵守下列规定：
-（1）拉闸断电，并采取开关箱上锁等措施；
-（2）验电、放电；
-（3）各相短路接地；
-（4）悬挂“禁止合闸，有人工作”的标示牌和装设遮拦。</t>
+    <t>生产设备设施传动部位应按照如下情况</t>
+  </si>
+  <si>
+    <t>在全部停电或部分停电的电气设备上作业，</t>
   </si>
 </sst>
 </file>
@@ -1500,7 +1486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1709,6 +1695,18 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1772,18 +1770,18 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1803,7 +1801,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2085,10 +2083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="71" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" topLeftCell="K4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="71" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -2100,25 +2098,25 @@
     <col min="6" max="6" width="24.42578125" style="4" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
     <col min="8" max="8" width="5.5703125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="38" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.42578125" style="77" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="255.7109375" style="109" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="60" customHeight="1">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:12" ht="60" customHeight="1">
+      <c r="A1" s="98" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
       <c r="I1" s="70"/>
     </row>
-    <row r="2" spans="1:10" s="42" customFormat="1" ht="18.75">
+    <row r="2" spans="1:12" s="42" customFormat="1" ht="18.75">
       <c r="A2" s="57" t="s">
         <v>195</v>
       </c>
@@ -2127,30 +2125,32 @@
         <v>194</v>
       </c>
       <c r="D2" s="57"/>
-      <c r="E2" s="97" t="s">
+      <c r="E2" s="99" t="s">
         <v>193</v>
       </c>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
       <c r="H2" s="44"/>
-      <c r="I2" s="43"/>
-    </row>
-    <row r="3" spans="1:10" s="42" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A3" s="97" t="s">
+      <c r="I2" s="74"/>
+      <c r="J2" s="109"/>
+    </row>
+    <row r="3" spans="1:12" s="42" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A3" s="99" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
       <c r="D3" s="57"/>
-      <c r="E3" s="97" t="s">
+      <c r="E3" s="99" t="s">
         <v>191</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
       <c r="H3" s="44"/>
-      <c r="I3" s="43"/>
-    </row>
-    <row r="4" spans="1:10" s="42" customFormat="1" ht="9.6" customHeight="1">
+      <c r="I3" s="74"/>
+      <c r="J3" s="109"/>
+    </row>
+    <row r="4" spans="1:12" s="42" customFormat="1" ht="9.6" customHeight="1">
       <c r="A4" s="46"/>
       <c r="B4" s="46"/>
       <c r="C4" s="46"/>
@@ -2159,9 +2159,10 @@
       <c r="F4" s="46"/>
       <c r="G4" s="57"/>
       <c r="H4" s="44"/>
-      <c r="I4" s="43"/>
-    </row>
-    <row r="5" spans="1:10" s="38" customFormat="1" ht="38.25">
+      <c r="I4" s="74"/>
+      <c r="J4" s="109"/>
+    </row>
+    <row r="5" spans="1:12" s="38" customFormat="1" ht="38.25">
       <c r="A5" s="40" t="s">
         <v>190</v>
       </c>
@@ -2186,16 +2187,17 @@
       <c r="H5" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="I5" s="39"/>
-    </row>
-    <row r="6" spans="1:10" s="6" customFormat="1" ht="64.5" customHeight="1">
-      <c r="A6" s="85" t="s">
+      <c r="I5" s="75"/>
+      <c r="J5" s="109"/>
+    </row>
+    <row r="6" spans="1:12" s="6" customFormat="1" ht="64.5" customHeight="1">
+      <c r="A6" s="89" t="s">
         <v>182</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="82" t="s">
         <v>181</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="91" t="s">
         <v>180</v>
       </c>
       <c r="D6" s="58" t="s">
@@ -2209,17 +2211,18 @@
       </c>
       <c r="G6" s="64"/>
       <c r="H6" s="37"/>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="109" t="s">
         <v>204</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="109" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" s="6" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A7" s="86"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="90"/>
+      <c r="L6" s="109"/>
+    </row>
+    <row r="7" spans="1:12" s="6" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A7" s="90"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="94"/>
       <c r="D7" s="61" t="s">
         <v>178</v>
       </c>
@@ -2231,19 +2234,19 @@
       </c>
       <c r="G7" s="59"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="109" t="s">
         <v>205</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="109" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="6" customFormat="1" ht="77.25" customHeight="1">
-      <c r="A8" s="86"/>
-      <c r="B8" s="78" t="s">
+    <row r="8" spans="1:12" s="6" customFormat="1" ht="77.25" customHeight="1">
+      <c r="A8" s="90"/>
+      <c r="B8" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="89" t="s">
         <v>175</v>
       </c>
       <c r="D8" s="64" t="s">
@@ -2257,17 +2260,17 @@
       </c>
       <c r="G8" s="58"/>
       <c r="H8" s="58"/>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="109" t="s">
         <v>206</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="109" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="6" customFormat="1" ht="66.75" customHeight="1">
-      <c r="A9" s="86"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="86"/>
+    <row r="9" spans="1:12" s="6" customFormat="1" ht="66.75" customHeight="1">
+      <c r="A9" s="90"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="90"/>
       <c r="D9" s="64" t="s">
         <v>172</v>
       </c>
@@ -2279,16 +2282,16 @@
       </c>
       <c r="G9" s="58"/>
       <c r="H9" s="58"/>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="109" t="s">
         <v>207</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="109" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="6" customFormat="1" ht="87.75" customHeight="1">
-      <c r="A10" s="86"/>
-      <c r="B10" s="78"/>
+    <row r="10" spans="1:12" s="6" customFormat="1" ht="87.75" customHeight="1">
+      <c r="A10" s="90"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="62" t="s">
         <v>170</v>
       </c>
@@ -2303,16 +2306,16 @@
       </c>
       <c r="G10" s="58"/>
       <c r="H10" s="58"/>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="109" t="s">
         <v>209</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="109" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="6" customFormat="1" ht="65.25" customHeight="1">
-      <c r="A11" s="86"/>
-      <c r="B11" s="78" t="s">
+    <row r="11" spans="1:12" s="6" customFormat="1" ht="65.25" customHeight="1">
+      <c r="A11" s="90"/>
+      <c r="B11" s="82" t="s">
         <v>167</v>
       </c>
       <c r="C11" s="62" t="s">
@@ -2329,16 +2332,16 @@
       </c>
       <c r="G11" s="58"/>
       <c r="H11" s="58"/>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="109" t="s">
         <v>210</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="109" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="6" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A12" s="86"/>
-      <c r="B12" s="78"/>
+    <row r="12" spans="1:12" s="6" customFormat="1" ht="56.25" customHeight="1">
+      <c r="A12" s="90"/>
+      <c r="B12" s="82"/>
       <c r="C12" s="62" t="s">
         <v>163</v>
       </c>
@@ -2353,16 +2356,16 @@
       </c>
       <c r="G12" s="58"/>
       <c r="H12" s="58"/>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="109" t="s">
         <v>212</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="109" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="6" customFormat="1" ht="74.25" customHeight="1">
-      <c r="A13" s="91"/>
-      <c r="B13" s="91" t="s">
+    <row r="13" spans="1:12" s="6" customFormat="1" ht="74.25" customHeight="1">
+      <c r="A13" s="95"/>
+      <c r="B13" s="95" t="s">
         <v>160</v>
       </c>
       <c r="C13" s="62" t="s">
@@ -2379,16 +2382,16 @@
       </c>
       <c r="G13" s="64"/>
       <c r="H13" s="58"/>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="109" t="s">
         <v>213</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="109" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="6" customFormat="1" ht="229.5">
-      <c r="A14" s="93"/>
-      <c r="B14" s="93"/>
+    <row r="14" spans="1:12" s="6" customFormat="1" ht="229.5">
+      <c r="A14" s="97"/>
+      <c r="B14" s="97"/>
       <c r="C14" s="19" t="s">
         <v>156</v>
       </c>
@@ -2403,16 +2406,16 @@
       </c>
       <c r="G14" s="21"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="109" t="s">
         <v>215</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="109" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="6" customFormat="1" ht="54" customHeight="1">
-      <c r="A15" s="91"/>
-      <c r="B15" s="91"/>
+    <row r="15" spans="1:12" s="6" customFormat="1" ht="54" customHeight="1">
+      <c r="A15" s="95"/>
+      <c r="B15" s="95"/>
       <c r="C15" s="19" t="s">
         <v>153</v>
       </c>
@@ -2427,16 +2430,16 @@
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="58"/>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="109" t="s">
         <v>217</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="109" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="6" customFormat="1" ht="60" customHeight="1">
-      <c r="A16" s="92"/>
-      <c r="B16" s="92"/>
+    <row r="16" spans="1:12" s="6" customFormat="1" ht="60" customHeight="1">
+      <c r="A16" s="96"/>
+      <c r="B16" s="96"/>
       <c r="C16" s="62" t="s">
         <v>150</v>
       </c>
@@ -2451,19 +2454,19 @@
       </c>
       <c r="G16" s="58"/>
       <c r="H16" s="58"/>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="109" t="s">
         <v>218</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="109" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="6" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A17" s="92"/>
-      <c r="B17" s="85" t="s">
+      <c r="A17" s="96"/>
+      <c r="B17" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="85" t="s">
+      <c r="C17" s="89" t="s">
         <v>146</v>
       </c>
       <c r="D17" s="64" t="s">
@@ -2477,17 +2480,17 @@
       </c>
       <c r="G17" s="58"/>
       <c r="H17" s="58"/>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="109" t="s">
         <v>220</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="109" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="6" customFormat="1" ht="25.5">
-      <c r="A18" s="92"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="89"/>
+      <c r="A18" s="96"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="93"/>
       <c r="D18" s="61" t="s">
         <v>143</v>
       </c>
@@ -2499,16 +2502,16 @@
       </c>
       <c r="G18" s="64"/>
       <c r="H18" s="15"/>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="109" t="s">
         <v>222</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="109" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="6" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A19" s="92"/>
-      <c r="B19" s="86"/>
+      <c r="A19" s="96"/>
+      <c r="B19" s="90"/>
       <c r="C19" s="62" t="s">
         <v>141</v>
       </c>
@@ -2523,16 +2526,16 @@
       </c>
       <c r="G19" s="58"/>
       <c r="H19" s="58"/>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="109" t="s">
         <v>224</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="109" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="6" customFormat="1" ht="74.25" customHeight="1">
-      <c r="A20" s="91"/>
-      <c r="B20" s="91"/>
+      <c r="A20" s="95"/>
+      <c r="B20" s="95"/>
       <c r="C20" s="19" t="s">
         <v>138</v>
       </c>
@@ -2547,16 +2550,16 @@
       </c>
       <c r="G20" s="64"/>
       <c r="H20" s="15"/>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="109" t="s">
         <v>226</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="109" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="6" customFormat="1" ht="107.25" customHeight="1">
-      <c r="A21" s="92"/>
-      <c r="B21" s="92"/>
+      <c r="A21" s="96"/>
+      <c r="B21" s="96"/>
       <c r="C21" s="62" t="s">
         <v>135</v>
       </c>
@@ -2571,16 +2574,16 @@
       </c>
       <c r="G21" s="58"/>
       <c r="H21" s="58"/>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="109" t="s">
         <v>227</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J21" s="109" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="6" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A22" s="92"/>
-      <c r="B22" s="78" t="s">
+      <c r="A22" s="96"/>
+      <c r="B22" s="82" t="s">
         <v>132</v>
       </c>
       <c r="C22" s="58" t="s">
@@ -2597,16 +2600,16 @@
       </c>
       <c r="G22" s="64"/>
       <c r="H22" s="58"/>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="109" t="s">
         <v>229</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="109" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="6" customFormat="1" ht="51">
-      <c r="A23" s="92"/>
-      <c r="B23" s="78"/>
+      <c r="A23" s="96"/>
+      <c r="B23" s="82"/>
       <c r="C23" s="19" t="s">
         <v>128</v>
       </c>
@@ -2621,16 +2624,16 @@
       </c>
       <c r="G23" s="59"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="109" t="s">
         <v>231</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" s="109" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="6" customFormat="1" ht="45" customHeight="1">
-      <c r="A24" s="92"/>
-      <c r="B24" s="85" t="s">
+      <c r="A24" s="96"/>
+      <c r="B24" s="89" t="s">
         <v>125</v>
       </c>
       <c r="C24" s="58" t="s">
@@ -2647,16 +2650,16 @@
       </c>
       <c r="G24" s="64"/>
       <c r="H24" s="58"/>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="109" t="s">
         <v>232</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="J24" s="109" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="6" customFormat="1" ht="78.599999999999994" customHeight="1">
-      <c r="A25" s="93"/>
-      <c r="B25" s="89"/>
+      <c r="A25" s="97"/>
+      <c r="B25" s="93"/>
       <c r="C25" s="19" t="s">
         <v>121</v>
       </c>
@@ -2671,17 +2674,17 @@
       </c>
       <c r="G25" s="60"/>
       <c r="H25" s="15"/>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="109" t="s">
         <v>233</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="J25" s="109" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="6" customFormat="1" ht="81" customHeight="1">
-      <c r="A26" s="91"/>
-      <c r="B26" s="91"/>
-      <c r="C26" s="85" t="s">
+      <c r="A26" s="95"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="89" t="s">
         <v>118</v>
       </c>
       <c r="D26" s="64" t="s">
@@ -2695,17 +2698,17 @@
       </c>
       <c r="G26" s="58"/>
       <c r="H26" s="58"/>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="109" t="s">
         <v>234</v>
       </c>
-      <c r="J26" s="6" t="s">
+      <c r="J26" s="109" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="6" customFormat="1" ht="69.75" customHeight="1">
-      <c r="A27" s="92"/>
-      <c r="B27" s="92"/>
-      <c r="C27" s="86"/>
+      <c r="A27" s="96"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="90"/>
       <c r="D27" s="64" t="s">
         <v>200</v>
       </c>
@@ -2717,18 +2720,18 @@
       </c>
       <c r="G27" s="58"/>
       <c r="H27" s="58"/>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="109" t="s">
         <v>236</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J27" s="109" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="6" customFormat="1" ht="51" customHeight="1">
-      <c r="A28" s="91" t="s">
+      <c r="A28" s="95" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="85" t="s">
+      <c r="B28" s="89" t="s">
         <v>112</v>
       </c>
       <c r="C28" s="19" t="s">
@@ -2745,17 +2748,17 @@
       </c>
       <c r="G28" s="64"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="109" t="s">
         <v>237</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="J28" s="109" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="6" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A29" s="92"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="85" t="s">
+      <c r="A29" s="96"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="89" t="s">
         <v>108</v>
       </c>
       <c r="D29" s="61" t="s">
@@ -2769,17 +2772,17 @@
       </c>
       <c r="G29" s="64"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="7" t="s">
+      <c r="I29" s="109" t="s">
         <v>238</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="109" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="6" customFormat="1" ht="38.25">
-      <c r="A30" s="92"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="86"/>
+      <c r="A30" s="96"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
       <c r="D30" s="61" t="s">
         <v>105</v>
       </c>
@@ -2791,17 +2794,17 @@
       </c>
       <c r="G30" s="64"/>
       <c r="H30" s="15"/>
-      <c r="I30" s="7" t="s">
+      <c r="I30" s="109" t="s">
         <v>239</v>
       </c>
-      <c r="J30" s="6" t="s">
+      <c r="J30" s="109" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="6" customFormat="1" ht="76.5">
-      <c r="A31" s="93"/>
-      <c r="B31" s="89"/>
-      <c r="C31" s="89"/>
+      <c r="A31" s="97"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="93"/>
       <c r="D31" s="61" t="s">
         <v>103</v>
       </c>
@@ -2813,15 +2816,15 @@
       </c>
       <c r="G31" s="64"/>
       <c r="H31" s="15"/>
-      <c r="I31" s="7" t="s">
+      <c r="I31" s="109" t="s">
         <v>240</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="J31" s="109" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="6" customFormat="1" ht="63.75">
-      <c r="A32" s="91"/>
+      <c r="A32" s="95"/>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
       <c r="D32" s="63" t="s">
@@ -2835,19 +2838,19 @@
       </c>
       <c r="G32" s="60"/>
       <c r="H32" s="33"/>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="109" t="s">
         <v>241</v>
       </c>
-      <c r="J32" s="6" t="s">
+      <c r="J32" s="109" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="6" customFormat="1" ht="156.94999999999999" customHeight="1">
-      <c r="A33" s="92"/>
-      <c r="B33" s="85" t="s">
+      <c r="A33" s="96"/>
+      <c r="B33" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="91" t="s">
+      <c r="C33" s="95" t="s">
         <v>98</v>
       </c>
       <c r="D33" s="61" t="s">
@@ -2861,17 +2864,17 @@
       </c>
       <c r="G33" s="64"/>
       <c r="H33" s="15"/>
-      <c r="I33" s="7" t="s">
+      <c r="I33" s="109" t="s">
         <v>243</v>
       </c>
-      <c r="J33" s="6" t="s">
+      <c r="J33" s="109" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="6" customFormat="1" ht="89.1" customHeight="1">
-      <c r="A34" s="92"/>
-      <c r="B34" s="86"/>
-      <c r="C34" s="92"/>
+      <c r="A34" s="96"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="96"/>
       <c r="D34" s="61" t="s">
         <v>96</v>
       </c>
@@ -2883,17 +2886,17 @@
       </c>
       <c r="G34" s="64"/>
       <c r="H34" s="15"/>
-      <c r="I34" s="7" t="s">
+      <c r="I34" s="109" t="s">
         <v>245</v>
       </c>
-      <c r="J34" s="6" t="s">
+      <c r="J34" s="109" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="6" customFormat="1" ht="74.45" customHeight="1">
-      <c r="A35" s="92"/>
-      <c r="B35" s="86"/>
-      <c r="C35" s="92"/>
+      <c r="A35" s="96"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="96"/>
       <c r="D35" s="61" t="s">
         <v>95</v>
       </c>
@@ -2905,17 +2908,17 @@
       </c>
       <c r="G35" s="64"/>
       <c r="H35" s="15"/>
-      <c r="I35" s="7" t="s">
+      <c r="I35" s="109" t="s">
         <v>247</v>
       </c>
-      <c r="J35" s="6" t="s">
+      <c r="J35" s="109" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="6" customFormat="1" ht="89.25">
-      <c r="A36" s="93"/>
-      <c r="B36" s="89"/>
-      <c r="C36" s="93"/>
+      <c r="A36" s="97"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="97"/>
       <c r="D36" s="61" t="s">
         <v>94</v>
       </c>
@@ -2927,16 +2930,16 @@
       </c>
       <c r="G36" s="64"/>
       <c r="H36" s="15"/>
-      <c r="I36" s="7" t="s">
+      <c r="I36" s="109" t="s">
         <v>249</v>
       </c>
-      <c r="J36" s="6" t="s">
+      <c r="J36" s="109" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="6" customFormat="1" ht="150.94999999999999" customHeight="1">
       <c r="A37" s="35"/>
-      <c r="B37" s="91"/>
+      <c r="B37" s="95"/>
       <c r="C37" s="32"/>
       <c r="D37" s="61" t="s">
         <v>93</v>
@@ -2949,16 +2952,16 @@
       </c>
       <c r="G37" s="64"/>
       <c r="H37" s="15"/>
-      <c r="I37" s="7" t="s">
+      <c r="I37" s="109" t="s">
         <v>251</v>
       </c>
-      <c r="J37" s="6" t="s">
+      <c r="J37" s="109" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="6" customFormat="1" ht="174" customHeight="1">
       <c r="A38" s="35"/>
-      <c r="B38" s="93"/>
+      <c r="B38" s="97"/>
       <c r="C38" s="30"/>
       <c r="D38" s="61" t="s">
         <v>92</v>
@@ -2971,17 +2974,17 @@
       </c>
       <c r="G38" s="64"/>
       <c r="H38" s="15"/>
-      <c r="I38" s="7" t="s">
+      <c r="I38" s="109" t="s">
         <v>253</v>
       </c>
-      <c r="J38" s="6" t="s">
+      <c r="J38" s="109" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="6" customFormat="1" ht="260.45" customHeight="1">
-      <c r="A39" s="91"/>
-      <c r="B39" s="91"/>
-      <c r="C39" s="91"/>
+      <c r="A39" s="95"/>
+      <c r="B39" s="95"/>
+      <c r="C39" s="95"/>
       <c r="D39" s="61" t="s">
         <v>91</v>
       </c>
@@ -2993,17 +2996,17 @@
       </c>
       <c r="G39" s="64"/>
       <c r="H39" s="15"/>
-      <c r="I39" s="7" t="s">
+      <c r="I39" s="109" t="s">
         <v>255</v>
       </c>
-      <c r="J39" s="6" t="s">
+      <c r="J39" s="109" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="6" customFormat="1" ht="60.6" customHeight="1">
-      <c r="A40" s="93"/>
-      <c r="B40" s="93"/>
-      <c r="C40" s="93"/>
+      <c r="A40" s="97"/>
+      <c r="B40" s="97"/>
+      <c r="C40" s="97"/>
       <c r="D40" s="63" t="s">
         <v>90</v>
       </c>
@@ -3015,16 +3018,16 @@
       </c>
       <c r="G40" s="60"/>
       <c r="H40" s="33"/>
-      <c r="I40" s="7" t="s">
+      <c r="I40" s="109" t="s">
         <v>257</v>
       </c>
-      <c r="J40" s="6" t="s">
+      <c r="J40" s="109" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="6" customFormat="1" ht="59.1" customHeight="1">
-      <c r="A41" s="91"/>
-      <c r="B41" s="91"/>
+      <c r="A41" s="95"/>
+      <c r="B41" s="95"/>
       <c r="C41" s="32"/>
       <c r="D41" s="61" t="s">
         <v>89</v>
@@ -3037,16 +3040,16 @@
       </c>
       <c r="G41" s="64"/>
       <c r="H41" s="15"/>
-      <c r="I41" s="7" t="s">
+      <c r="I41" s="109" t="s">
         <v>259</v>
       </c>
-      <c r="J41" s="6" t="s">
+      <c r="J41" s="109" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="66" customHeight="1">
-      <c r="A42" s="92"/>
-      <c r="B42" s="92"/>
+      <c r="A42" s="96"/>
+      <c r="B42" s="96"/>
       <c r="C42" s="31"/>
       <c r="D42" s="61" t="s">
         <v>87</v>
@@ -3059,16 +3062,16 @@
       </c>
       <c r="G42" s="64"/>
       <c r="H42" s="15"/>
-      <c r="I42" s="7" t="s">
+      <c r="I42" s="109" t="s">
         <v>261</v>
       </c>
-      <c r="J42" s="6" t="s">
+      <c r="J42" s="109" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="6" customFormat="1" ht="57.95" customHeight="1">
-      <c r="A43" s="92"/>
-      <c r="B43" s="92"/>
+      <c r="A43" s="96"/>
+      <c r="B43" s="96"/>
       <c r="C43" s="31"/>
       <c r="D43" s="61" t="s">
         <v>86</v>
@@ -3081,16 +3084,16 @@
       </c>
       <c r="G43" s="64"/>
       <c r="H43" s="15"/>
-      <c r="I43" s="7" t="s">
+      <c r="I43" s="109" t="s">
         <v>263</v>
       </c>
-      <c r="J43" s="105" t="s">
+      <c r="J43" s="109" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="6" customFormat="1" ht="48" customHeight="1">
-      <c r="A44" s="92"/>
-      <c r="B44" s="92"/>
+      <c r="A44" s="96"/>
+      <c r="B44" s="96"/>
       <c r="C44" s="31"/>
       <c r="D44" s="61" t="s">
         <v>85</v>
@@ -3103,16 +3106,16 @@
       </c>
       <c r="G44" s="64"/>
       <c r="H44" s="15"/>
-      <c r="I44" s="7" t="s">
+      <c r="I44" s="109" t="s">
         <v>264</v>
       </c>
-      <c r="J44" s="105" t="s">
+      <c r="J44" s="109" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="6" customFormat="1" ht="59.1" customHeight="1">
-      <c r="A45" s="93"/>
-      <c r="B45" s="93"/>
+      <c r="A45" s="97"/>
+      <c r="B45" s="97"/>
       <c r="C45" s="30"/>
       <c r="D45" s="61" t="s">
         <v>84</v>
@@ -3125,17 +3128,17 @@
       </c>
       <c r="G45" s="64"/>
       <c r="H45" s="15"/>
-      <c r="I45" s="7" t="s">
+      <c r="I45" s="109" t="s">
         <v>265</v>
       </c>
-      <c r="J45" s="6" t="s">
+      <c r="J45" s="109" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="46" spans="1:10" s="6" customFormat="1" ht="99" customHeight="1">
-      <c r="A46" s="91"/>
-      <c r="B46" s="91"/>
-      <c r="C46" s="85" t="s">
+      <c r="A46" s="95"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="89" t="s">
         <v>83</v>
       </c>
       <c r="D46" s="64" t="s">
@@ -3149,17 +3152,17 @@
       </c>
       <c r="G46" s="58"/>
       <c r="H46" s="58"/>
-      <c r="I46" s="7" t="s">
+      <c r="I46" s="109" t="s">
         <v>267</v>
       </c>
-      <c r="J46" s="6" t="s">
+      <c r="J46" s="109" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="6" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A47" s="93"/>
-      <c r="B47" s="93"/>
-      <c r="C47" s="89"/>
+      <c r="A47" s="97"/>
+      <c r="B47" s="97"/>
+      <c r="C47" s="93"/>
       <c r="D47" s="61" t="s">
         <v>80</v>
       </c>
@@ -3171,16 +3174,16 @@
       </c>
       <c r="G47" s="64"/>
       <c r="H47" s="15"/>
-      <c r="I47" s="7" t="s">
+      <c r="I47" s="109" t="s">
         <v>269</v>
       </c>
-      <c r="J47" s="6" t="s">
+      <c r="J47" s="109" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:10" s="6" customFormat="1" ht="60" customHeight="1">
-      <c r="A48" s="91"/>
-      <c r="B48" s="91"/>
+      <c r="A48" s="95"/>
+      <c r="B48" s="95"/>
       <c r="C48" s="19" t="s">
         <v>78</v>
       </c>
@@ -3195,16 +3198,16 @@
       </c>
       <c r="G48" s="58"/>
       <c r="H48" s="15"/>
-      <c r="I48" s="7" t="s">
+      <c r="I48" s="109" t="s">
         <v>270</v>
       </c>
-      <c r="J48" s="6" t="s">
+      <c r="J48" s="109" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="49" spans="1:10" s="6" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A49" s="92"/>
-      <c r="B49" s="92"/>
+      <c r="A49" s="96"/>
+      <c r="B49" s="96"/>
       <c r="C49" s="65" t="s">
         <v>76</v>
       </c>
@@ -3219,21 +3222,21 @@
       </c>
       <c r="G49" s="58"/>
       <c r="H49" s="58"/>
-      <c r="I49" s="7" t="s">
+      <c r="I49" s="109" t="s">
         <v>272</v>
       </c>
-      <c r="J49" s="6" t="s">
+      <c r="J49" s="109" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="6" customFormat="1" ht="59.45" customHeight="1">
-      <c r="A50" s="85" t="s">
+      <c r="A50" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="B50" s="78" t="s">
+      <c r="B50" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="C50" s="85" t="s">
+      <c r="C50" s="89" t="s">
         <v>71</v>
       </c>
       <c r="D50" s="61" t="s">
@@ -3247,17 +3250,17 @@
       </c>
       <c r="G50" s="64"/>
       <c r="H50" s="15"/>
-      <c r="I50" s="7" t="s">
+      <c r="I50" s="109" t="s">
         <v>273</v>
       </c>
-      <c r="J50" s="6" t="s">
+      <c r="J50" s="109" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="6" customFormat="1" ht="45.95" customHeight="1">
-      <c r="A51" s="86"/>
-      <c r="B51" s="78"/>
-      <c r="C51" s="89"/>
+      <c r="A51" s="90"/>
+      <c r="B51" s="82"/>
+      <c r="C51" s="93"/>
       <c r="D51" s="61" t="s">
         <v>69</v>
       </c>
@@ -3269,17 +3272,17 @@
       </c>
       <c r="G51" s="58"/>
       <c r="H51" s="15"/>
-      <c r="I51" s="7" t="s">
+      <c r="I51" s="109" t="s">
         <v>275</v>
       </c>
-      <c r="J51" s="6" t="s">
+      <c r="J51" s="109" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="52" spans="1:10" s="6" customFormat="1" ht="70.5" customHeight="1">
-      <c r="A52" s="86"/>
-      <c r="B52" s="78"/>
-      <c r="C52" s="87" t="s">
+      <c r="A52" s="90"/>
+      <c r="B52" s="82"/>
+      <c r="C52" s="91" t="s">
         <v>68</v>
       </c>
       <c r="D52" s="64" t="s">
@@ -3293,17 +3296,17 @@
       </c>
       <c r="G52" s="58"/>
       <c r="H52" s="58"/>
-      <c r="I52" s="7" t="s">
+      <c r="I52" s="109" t="s">
         <v>277</v>
       </c>
-      <c r="J52" s="6" t="s">
+      <c r="J52" s="109" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="6" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A53" s="86"/>
-      <c r="B53" s="78"/>
-      <c r="C53" s="90"/>
+      <c r="A53" s="90"/>
+      <c r="B53" s="82"/>
+      <c r="C53" s="94"/>
       <c r="D53" s="61" t="s">
         <v>65</v>
       </c>
@@ -3315,16 +3318,16 @@
       </c>
       <c r="G53" s="64"/>
       <c r="H53" s="15"/>
-      <c r="I53" s="7" t="s">
+      <c r="I53" s="109" t="s">
         <v>279</v>
       </c>
-      <c r="J53" s="6" t="s">
+      <c r="J53" s="109" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="6" customFormat="1" ht="104.25" customHeight="1">
-      <c r="A54" s="86"/>
-      <c r="B54" s="78" t="s">
+      <c r="A54" s="90"/>
+      <c r="B54" s="82" t="s">
         <v>63</v>
       </c>
       <c r="C54" s="62" t="s">
@@ -3341,17 +3344,17 @@
       </c>
       <c r="G54" s="58"/>
       <c r="H54" s="58"/>
-      <c r="I54" s="7" t="s">
+      <c r="I54" s="109" t="s">
         <v>281</v>
       </c>
-      <c r="J54" s="6" t="s">
+      <c r="J54" s="109" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="6" customFormat="1" ht="82.5" customHeight="1">
-      <c r="A55" s="86"/>
-      <c r="B55" s="78"/>
-      <c r="C55" s="87" t="s">
+      <c r="A55" s="90"/>
+      <c r="B55" s="82"/>
+      <c r="C55" s="91" t="s">
         <v>59</v>
       </c>
       <c r="D55" s="64" t="s">
@@ -3365,17 +3368,17 @@
       </c>
       <c r="G55" s="58"/>
       <c r="H55" s="58"/>
-      <c r="I55" s="7" t="s">
+      <c r="I55" s="109" t="s">
         <v>283</v>
       </c>
-      <c r="J55" s="6" t="s">
+      <c r="J55" s="109" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="6" customFormat="1" ht="75.75" customHeight="1">
-      <c r="A56" s="86"/>
-      <c r="B56" s="78"/>
-      <c r="C56" s="88"/>
+      <c r="A56" s="90"/>
+      <c r="B56" s="82"/>
+      <c r="C56" s="92"/>
       <c r="D56" s="67" t="s">
         <v>56</v>
       </c>
@@ -3387,16 +3390,16 @@
       </c>
       <c r="G56" s="29"/>
       <c r="H56" s="29"/>
-      <c r="I56" s="7" t="s">
+      <c r="I56" s="109" t="s">
         <v>285</v>
       </c>
-      <c r="J56" s="6" t="s">
+      <c r="J56" s="109" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:10" s="6" customFormat="1" ht="96.6" customHeight="1">
-      <c r="A57" s="85"/>
-      <c r="B57" s="78" t="s">
+      <c r="A57" s="89"/>
+      <c r="B57" s="82" t="s">
         <v>54</v>
       </c>
       <c r="C57" s="19" t="s">
@@ -3413,16 +3416,16 @@
       </c>
       <c r="G57" s="64"/>
       <c r="H57" s="15"/>
-      <c r="I57" s="7" t="s">
+      <c r="I57" s="109" t="s">
         <v>286</v>
       </c>
-      <c r="J57" s="6" t="s">
+      <c r="J57" s="109" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="6" customFormat="1" ht="72" customHeight="1">
-      <c r="A58" s="86"/>
-      <c r="B58" s="78"/>
+      <c r="A58" s="90"/>
+      <c r="B58" s="82"/>
       <c r="C58" s="19" t="s">
         <v>51</v>
       </c>
@@ -3437,19 +3440,19 @@
       </c>
       <c r="G58" s="58"/>
       <c r="H58" s="15"/>
-      <c r="I58" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="J58" s="6" t="s">
-        <v>47</v>
+      <c r="I58" s="109" t="s">
+        <v>290</v>
+      </c>
+      <c r="J58" s="109" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="59" spans="1:10" s="6" customFormat="1" ht="82.5" customHeight="1">
-      <c r="A59" s="86"/>
-      <c r="B59" s="78" t="s">
+      <c r="A59" s="90"/>
+      <c r="B59" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="C59" s="78" t="s">
+      <c r="C59" s="82" t="s">
         <v>48</v>
       </c>
       <c r="D59" s="64" t="s">
@@ -3463,17 +3466,17 @@
       </c>
       <c r="G59" s="58"/>
       <c r="H59" s="58"/>
-      <c r="I59" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="J59" s="6" t="s">
-        <v>45</v>
+      <c r="I59" s="109" t="s">
+        <v>288</v>
+      </c>
+      <c r="J59" s="109" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:10" s="6" customFormat="1" ht="60.75" customHeight="1">
-      <c r="A60" s="86"/>
-      <c r="B60" s="78"/>
-      <c r="C60" s="78"/>
+      <c r="A60" s="90"/>
+      <c r="B60" s="82"/>
+      <c r="C60" s="82"/>
       <c r="D60" s="64" t="s">
         <v>45</v>
       </c>
@@ -3485,21 +3488,21 @@
       </c>
       <c r="G60" s="58"/>
       <c r="H60" s="58"/>
-      <c r="I60" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="J60" s="6" t="s">
-        <v>291</v>
+      <c r="I60" s="109" t="s">
+        <v>289</v>
+      </c>
+      <c r="J60" s="109" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:10" s="6" customFormat="1" ht="62.25" customHeight="1">
-      <c r="A61" s="79" t="s">
+      <c r="A61" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="B61" s="82" t="s">
+      <c r="B61" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="C61" s="83" t="s">
+      <c r="C61" s="87" t="s">
         <v>41</v>
       </c>
       <c r="D61" s="67" t="s">
@@ -3513,17 +3516,17 @@
       </c>
       <c r="G61" s="29"/>
       <c r="H61" s="29"/>
-      <c r="I61" s="7" t="s">
+      <c r="I61" s="109" t="s">
         <v>292</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="J61" s="109" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="62" spans="1:10" s="6" customFormat="1" ht="48" customHeight="1">
-      <c r="A62" s="80"/>
-      <c r="B62" s="82"/>
-      <c r="C62" s="84"/>
+      <c r="A62" s="84"/>
+      <c r="B62" s="86"/>
+      <c r="C62" s="88"/>
       <c r="D62" s="61" t="s">
         <v>38</v>
       </c>
@@ -3535,16 +3538,16 @@
       </c>
       <c r="G62" s="64"/>
       <c r="H62" s="15"/>
-      <c r="I62" s="7" t="s">
+      <c r="I62" s="109" t="s">
         <v>294</v>
       </c>
-      <c r="J62" s="1" t="s">
+      <c r="J62" s="109" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="63" spans="1:10" s="6" customFormat="1" ht="51" customHeight="1">
-      <c r="A63" s="81"/>
-      <c r="B63" s="82"/>
+      <c r="A63" s="85"/>
+      <c r="B63" s="86"/>
       <c r="C63" s="26" t="s">
         <v>36</v>
       </c>
@@ -3559,10 +3562,10 @@
       </c>
       <c r="G63" s="67"/>
       <c r="H63" s="23"/>
-      <c r="I63" s="7" t="s">
+      <c r="I63" s="109" t="s">
         <v>296</v>
       </c>
-      <c r="J63" s="1" t="s">
+      <c r="J63" s="109" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3585,15 +3588,15 @@
       </c>
       <c r="G64" s="19"/>
       <c r="H64" s="15"/>
-      <c r="I64" s="7" t="s">
+      <c r="I64" s="109" t="s">
         <v>297</v>
       </c>
-      <c r="J64" s="1" t="s">
+      <c r="J64" s="109" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:10" s="6" customFormat="1" ht="63.75">
-      <c r="A65" s="78" t="s">
+      <c r="A65" s="82" t="s">
         <v>29</v>
       </c>
       <c r="B65" s="61" t="s">
@@ -3613,19 +3616,19 @@
       </c>
       <c r="G65" s="64"/>
       <c r="H65" s="15"/>
-      <c r="I65" s="7" t="s">
+      <c r="I65" s="109" t="s">
         <v>298</v>
       </c>
-      <c r="J65" s="1" t="s">
+      <c r="J65" s="109" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="66" spans="1:10" s="6" customFormat="1" ht="38.25">
-      <c r="A66" s="78"/>
-      <c r="B66" s="78" t="s">
+      <c r="A66" s="82"/>
+      <c r="B66" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="C66" s="78" t="s">
+      <c r="C66" s="82" t="s">
         <v>24</v>
       </c>
       <c r="D66" s="61" t="s">
@@ -3639,17 +3642,17 @@
       </c>
       <c r="G66" s="16"/>
       <c r="H66" s="15"/>
-      <c r="I66" s="7" t="s">
+      <c r="I66" s="109" t="s">
         <v>300</v>
       </c>
-      <c r="J66" s="1" t="s">
+      <c r="J66" s="109" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="6" customFormat="1" ht="87.75" customHeight="1">
-      <c r="A67" s="78"/>
-      <c r="B67" s="78"/>
-      <c r="C67" s="78"/>
+      <c r="A67" s="82"/>
+      <c r="B67" s="82"/>
+      <c r="C67" s="82"/>
       <c r="D67" s="64" t="s">
         <v>21</v>
       </c>
@@ -3661,19 +3664,19 @@
       </c>
       <c r="G67" s="58"/>
       <c r="H67" s="58"/>
-      <c r="I67" s="7" t="s">
+      <c r="I67" s="109" t="s">
         <v>301</v>
       </c>
-      <c r="J67" s="1" t="s">
+      <c r="J67" s="109" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="68" spans="1:10" s="6" customFormat="1" ht="45.95" customHeight="1">
-      <c r="A68" s="78"/>
-      <c r="B68" s="78" t="s">
+      <c r="A68" s="82"/>
+      <c r="B68" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="C68" s="78" t="s">
+      <c r="C68" s="82" t="s">
         <v>18</v>
       </c>
       <c r="D68" s="19" t="s">
@@ -3687,17 +3690,17 @@
       </c>
       <c r="G68" s="58"/>
       <c r="H68" s="58"/>
-      <c r="I68" s="7" t="s">
+      <c r="I68" s="109" t="s">
         <v>303</v>
       </c>
-      <c r="J68" s="1" t="s">
+      <c r="J68" s="109" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="69" spans="1:10" s="6" customFormat="1" ht="78" customHeight="1">
-      <c r="A69" s="78"/>
-      <c r="B69" s="78"/>
-      <c r="C69" s="78"/>
+      <c r="A69" s="82"/>
+      <c r="B69" s="82"/>
+      <c r="C69" s="82"/>
       <c r="D69" s="64" t="s">
         <v>15</v>
       </c>
@@ -3709,18 +3712,18 @@
       </c>
       <c r="G69" s="64"/>
       <c r="H69" s="58"/>
-      <c r="I69" s="7" t="s">
+      <c r="I69" s="109" t="s">
         <v>305</v>
       </c>
-      <c r="J69" s="1" t="s">
+      <c r="J69" s="109" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="70" spans="1:10" s="6" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A70" s="78" t="s">
+      <c r="A70" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B70" s="78" t="s">
+      <c r="B70" s="82" t="s">
         <v>12</v>
       </c>
       <c r="C70" s="19" t="s">
@@ -3737,16 +3740,16 @@
       </c>
       <c r="G70" s="60"/>
       <c r="H70" s="15"/>
-      <c r="I70" s="7" t="s">
+      <c r="I70" s="109" t="s">
         <v>307</v>
       </c>
-      <c r="J70" s="1" t="s">
+      <c r="J70" s="109" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="71" spans="1:10" s="6" customFormat="1" ht="39" customHeight="1">
-      <c r="A71" s="78"/>
-      <c r="B71" s="78"/>
+      <c r="A71" s="82"/>
+      <c r="B71" s="82"/>
       <c r="C71" s="19" t="s">
         <v>8</v>
       </c>
@@ -3761,15 +3764,15 @@
       </c>
       <c r="G71" s="16"/>
       <c r="H71" s="15"/>
-      <c r="I71" s="7" t="s">
+      <c r="I71" s="109" t="s">
         <v>308</v>
       </c>
-      <c r="J71" s="1" t="s">
+      <c r="J71" s="109" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="72" spans="1:10" s="6" customFormat="1" ht="122.25" customHeight="1">
-      <c r="A72" s="78"/>
+      <c r="A72" s="82"/>
       <c r="B72" s="61" t="s">
         <v>5</v>
       </c>
@@ -3787,33 +3790,34 @@
       </c>
       <c r="G72" s="64"/>
       <c r="H72" s="64"/>
-      <c r="I72" s="7" t="s">
+      <c r="I72" s="109" t="s">
         <v>309</v>
       </c>
-      <c r="J72" s="1" t="s">
+      <c r="J72" s="109" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="73" spans="1:10" s="6" customFormat="1" ht="33.6" customHeight="1">
-      <c r="A73" s="74" t="s">
+      <c r="A73" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B73" s="75"/>
-      <c r="C73" s="75"/>
-      <c r="D73" s="76"/>
+      <c r="B73" s="79"/>
+      <c r="C73" s="79"/>
+      <c r="D73" s="80"/>
       <c r="E73" s="9">
         <f>SUM(E6:E72)</f>
         <v>600</v>
       </c>
-      <c r="F73" s="74" t="s">
+      <c r="F73" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="G73" s="77"/>
+      <c r="G73" s="81"/>
       <c r="H73" s="72">
         <f>SUM(H6:H72)</f>
         <v>0</v>
       </c>
-      <c r="I73" s="7"/>
+      <c r="I73" s="76"/>
+      <c r="J73" s="109"/>
     </row>
   </sheetData>
   <autoFilter ref="I1:I85"/>
@@ -3908,28 +3912,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="81.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L114"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="71" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="71" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -3948,20 +3934,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="60" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="98" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
     </row>
     <row r="2" spans="1:12" s="42" customFormat="1" ht="18.75">
       <c r="A2" s="56" t="s">
@@ -3972,11 +3958,11 @@
         <v>194</v>
       </c>
       <c r="D2" s="56"/>
-      <c r="E2" s="97" t="s">
+      <c r="E2" s="99" t="s">
         <v>193</v>
       </c>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
       <c r="H2" s="44"/>
       <c r="I2" s="43"/>
       <c r="J2" s="43"/>
@@ -3984,17 +3970,17 @@
       <c r="L2" s="43"/>
     </row>
     <row r="3" spans="1:12" s="42" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="99" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
       <c r="D3" s="56"/>
-      <c r="E3" s="97" t="s">
+      <c r="E3" s="99" t="s">
         <v>191</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
       <c r="H3" s="44"/>
       <c r="I3" s="43"/>
       <c r="J3" s="43"/>
@@ -4058,7 +4044,7 @@
       <c r="D6" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="E6" s="98">
+      <c r="E6" s="100">
         <v>4</v>
       </c>
       <c r="F6" s="68" t="s">
@@ -4084,7 +4070,7 @@
       <c r="D7" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="E7" s="98"/>
+      <c r="E7" s="100"/>
       <c r="F7" s="68" t="s">
         <v>197</v>
       </c>
@@ -4125,7 +4111,7 @@
       <c r="A9" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="82" t="s">
         <v>176</v>
       </c>
       <c r="C9" s="16" t="s">
@@ -4134,7 +4120,7 @@
       <c r="D9" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="E9" s="98">
+      <c r="E9" s="100">
         <v>6</v>
       </c>
       <c r="F9" s="68" t="s">
@@ -4151,14 +4137,14 @@
       <c r="A10" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="B10" s="78"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="16" t="s">
         <v>175</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="E10" s="98"/>
+      <c r="E10" s="100"/>
       <c r="F10" s="68" t="s">
         <v>173</v>
       </c>
@@ -4173,14 +4159,14 @@
       <c r="A11" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="B11" s="78"/>
+      <c r="B11" s="82"/>
       <c r="C11" s="16" t="s">
         <v>175</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="E11" s="98">
+      <c r="E11" s="100">
         <v>6</v>
       </c>
       <c r="F11" s="68" t="s">
@@ -4197,14 +4183,14 @@
       <c r="A12" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="B12" s="78"/>
+      <c r="B12" s="82"/>
       <c r="C12" s="16" t="s">
         <v>175</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="E12" s="98"/>
+      <c r="E12" s="100"/>
       <c r="F12" s="68" t="s">
         <v>171</v>
       </c>
@@ -4219,14 +4205,14 @@
       <c r="A13" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="B13" s="78"/>
+      <c r="B13" s="82"/>
       <c r="C13" s="16" t="s">
         <v>175</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="E13" s="98"/>
+      <c r="E13" s="100"/>
       <c r="F13" s="68" t="s">
         <v>171</v>
       </c>
@@ -4241,14 +4227,14 @@
       <c r="A14" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="B14" s="78"/>
+      <c r="B14" s="82"/>
       <c r="C14" s="16" t="s">
         <v>170</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="E14" s="98">
+      <c r="E14" s="100">
         <v>12</v>
       </c>
       <c r="F14" s="68" t="s">
@@ -4265,14 +4251,14 @@
       <c r="A15" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="78"/>
+      <c r="B15" s="82"/>
       <c r="C15" s="16" t="s">
         <v>170</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="E15" s="98"/>
+      <c r="E15" s="100"/>
       <c r="F15" s="68" t="s">
         <v>168</v>
       </c>
@@ -4287,14 +4273,14 @@
       <c r="A16" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="B16" s="78"/>
+      <c r="B16" s="82"/>
       <c r="C16" s="16" t="s">
         <v>170</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="E16" s="98"/>
+      <c r="E16" s="100"/>
       <c r="F16" s="68" t="s">
         <v>168</v>
       </c>
@@ -4309,7 +4295,7 @@
       <c r="A17" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="82" t="s">
         <v>167</v>
       </c>
       <c r="C17" s="16" t="s">
@@ -4318,7 +4304,7 @@
       <c r="D17" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="E17" s="98">
+      <c r="E17" s="100">
         <v>8</v>
       </c>
       <c r="F17" s="68" t="s">
@@ -4335,14 +4321,14 @@
       <c r="A18" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="B18" s="78"/>
+      <c r="B18" s="82"/>
       <c r="C18" s="16" t="s">
         <v>166</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="E18" s="98"/>
+      <c r="E18" s="100"/>
       <c r="F18" s="68" t="s">
         <v>164</v>
       </c>
@@ -4357,14 +4343,14 @@
       <c r="A19" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="B19" s="78"/>
+      <c r="B19" s="82"/>
       <c r="C19" s="16" t="s">
         <v>163</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="E19" s="98">
+      <c r="E19" s="100">
         <v>4</v>
       </c>
       <c r="F19" s="68" t="s">
@@ -4381,14 +4367,14 @@
       <c r="A20" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="B20" s="78"/>
+      <c r="B20" s="82"/>
       <c r="C20" s="16" t="s">
         <v>163</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="E20" s="98"/>
+      <c r="E20" s="100"/>
       <c r="F20" s="68" t="s">
         <v>161</v>
       </c>
@@ -4400,7 +4386,7 @@
       <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12" s="6" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A21" s="91"/>
+      <c r="A21" s="95"/>
       <c r="B21" s="32" t="s">
         <v>160</v>
       </c>
@@ -4410,7 +4396,7 @@
       <c r="D21" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="E21" s="98">
+      <c r="E21" s="100">
         <v>4</v>
       </c>
       <c r="F21" s="68" t="s">
@@ -4424,7 +4410,7 @@
       <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A22" s="92"/>
+      <c r="A22" s="96"/>
       <c r="B22" s="32" t="s">
         <v>160</v>
       </c>
@@ -4434,7 +4420,7 @@
       <c r="D22" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="E22" s="98"/>
+      <c r="E22" s="100"/>
       <c r="F22" s="68" t="s">
         <v>157</v>
       </c>
@@ -4446,7 +4432,7 @@
       <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A23" s="92"/>
+      <c r="A23" s="96"/>
       <c r="B23" s="32" t="s">
         <v>160</v>
       </c>
@@ -4456,7 +4442,7 @@
       <c r="D23" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="E23" s="98"/>
+      <c r="E23" s="100"/>
       <c r="F23" s="68" t="s">
         <v>157</v>
       </c>
@@ -4468,7 +4454,7 @@
       <c r="L23" s="7"/>
     </row>
     <row r="24" spans="1:12" s="6" customFormat="1" ht="216.75">
-      <c r="A24" s="93"/>
+      <c r="A24" s="97"/>
       <c r="B24" s="32" t="s">
         <v>160</v>
       </c>
@@ -4492,7 +4478,7 @@
       <c r="L24" s="7"/>
     </row>
     <row r="25" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A25" s="91" t="s">
+      <c r="A25" s="95" t="s">
         <v>199</v>
       </c>
       <c r="B25" s="32"/>
@@ -4502,7 +4488,7 @@
       <c r="D25" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="E25" s="98">
+      <c r="E25" s="100">
         <v>10</v>
       </c>
       <c r="F25" s="68" t="s">
@@ -4516,7 +4502,7 @@
       <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A26" s="92"/>
+      <c r="A26" s="96"/>
       <c r="B26" s="31"/>
       <c r="C26" s="16" t="s">
         <v>153</v>
@@ -4524,7 +4510,7 @@
       <c r="D26" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="E26" s="98"/>
+      <c r="E26" s="100"/>
       <c r="F26" s="68" t="s">
         <v>151</v>
       </c>
@@ -4536,7 +4522,7 @@
       <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A27" s="92"/>
+      <c r="A27" s="96"/>
       <c r="B27" s="31"/>
       <c r="C27" s="16" t="s">
         <v>153</v>
@@ -4544,7 +4530,7 @@
       <c r="D27" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="E27" s="98"/>
+      <c r="E27" s="100"/>
       <c r="F27" s="68" t="s">
         <v>151</v>
       </c>
@@ -4556,7 +4542,7 @@
       <c r="L27" s="7"/>
     </row>
     <row r="28" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A28" s="92"/>
+      <c r="A28" s="96"/>
       <c r="B28" s="31"/>
       <c r="C28" s="16" t="s">
         <v>153</v>
@@ -4564,7 +4550,7 @@
       <c r="D28" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="E28" s="98"/>
+      <c r="E28" s="100"/>
       <c r="F28" s="68" t="s">
         <v>151</v>
       </c>
@@ -4576,15 +4562,15 @@
       <c r="L28" s="7"/>
     </row>
     <row r="29" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A29" s="92"/>
+      <c r="A29" s="96"/>
       <c r="B29" s="31"/>
-      <c r="C29" s="87" t="s">
+      <c r="C29" s="91" t="s">
         <v>150</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="E29" s="98">
+      <c r="E29" s="100">
         <v>6</v>
       </c>
       <c r="F29" s="68" t="s">
@@ -4598,13 +4584,13 @@
       <c r="L29" s="7"/>
     </row>
     <row r="30" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A30" s="92"/>
+      <c r="A30" s="96"/>
       <c r="B30" s="31"/>
-      <c r="C30" s="88"/>
+      <c r="C30" s="92"/>
       <c r="D30" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="E30" s="98"/>
+      <c r="E30" s="100"/>
       <c r="F30" s="68" t="s">
         <v>148</v>
       </c>
@@ -4616,13 +4602,13 @@
       <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A31" s="92"/>
+      <c r="A31" s="96"/>
       <c r="B31" s="30"/>
-      <c r="C31" s="90"/>
+      <c r="C31" s="94"/>
       <c r="D31" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="E31" s="98"/>
+      <c r="E31" s="100"/>
       <c r="F31" s="68" t="s">
         <v>148</v>
       </c>
@@ -4634,17 +4620,17 @@
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A32" s="92"/>
+      <c r="A32" s="96"/>
       <c r="B32" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="85" t="s">
+      <c r="C32" s="89" t="s">
         <v>146</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="E32" s="98">
+      <c r="E32" s="100">
         <v>8</v>
       </c>
       <c r="F32" s="68" t="s">
@@ -4658,15 +4644,15 @@
       <c r="L32" s="7"/>
     </row>
     <row r="33" spans="1:12" s="6" customFormat="1" ht="25.5">
-      <c r="A33" s="92"/>
+      <c r="A33" s="96"/>
       <c r="B33" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C33" s="86"/>
+      <c r="C33" s="90"/>
       <c r="D33" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="E33" s="98"/>
+      <c r="E33" s="100"/>
       <c r="F33" s="68" t="s">
         <v>144</v>
       </c>
@@ -4678,11 +4664,11 @@
       <c r="L33" s="7"/>
     </row>
     <row r="34" spans="1:12" s="6" customFormat="1" ht="25.5">
-      <c r="A34" s="92"/>
+      <c r="A34" s="96"/>
       <c r="B34" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="89"/>
+      <c r="C34" s="93"/>
       <c r="D34" s="48" t="s">
         <v>143</v>
       </c>
@@ -4700,17 +4686,17 @@
       <c r="L34" s="7"/>
     </row>
     <row r="35" spans="1:12" s="6" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A35" s="92"/>
+      <c r="A35" s="96"/>
       <c r="B35" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C35" s="87" t="s">
+      <c r="C35" s="91" t="s">
         <v>141</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="E35" s="98">
+      <c r="E35" s="100">
         <v>10</v>
       </c>
       <c r="F35" s="68" t="s">
@@ -4724,15 +4710,15 @@
       <c r="L35" s="7"/>
     </row>
     <row r="36" spans="1:12" s="6" customFormat="1" ht="25.5">
-      <c r="A36" s="93"/>
+      <c r="A36" s="97"/>
       <c r="B36" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C36" s="90"/>
+      <c r="C36" s="94"/>
       <c r="D36" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="E36" s="98"/>
+      <c r="E36" s="100"/>
       <c r="F36" s="68" t="s">
         <v>139</v>
       </c>
@@ -4744,10 +4730,10 @@
       <c r="L36" s="7"/>
     </row>
     <row r="37" spans="1:12" s="6" customFormat="1" ht="62.1" customHeight="1">
-      <c r="A37" s="91" t="s">
+      <c r="A37" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="B37" s="91"/>
+      <c r="B37" s="95"/>
       <c r="C37" s="19" t="s">
         <v>138</v>
       </c>
@@ -4768,15 +4754,15 @@
       <c r="L37" s="7"/>
     </row>
     <row r="38" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A38" s="92"/>
-      <c r="B38" s="92"/>
-      <c r="C38" s="87" t="s">
+      <c r="A38" s="96"/>
+      <c r="B38" s="96"/>
+      <c r="C38" s="91" t="s">
         <v>135</v>
       </c>
       <c r="D38" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="E38" s="98">
+      <c r="E38" s="100">
         <v>4</v>
       </c>
       <c r="F38" s="68" t="s">
@@ -4790,13 +4776,13 @@
       <c r="L38" s="7"/>
     </row>
     <row r="39" spans="1:12" s="6" customFormat="1" ht="51">
-      <c r="A39" s="92"/>
-      <c r="B39" s="93"/>
-      <c r="C39" s="90"/>
+      <c r="A39" s="96"/>
+      <c r="B39" s="97"/>
+      <c r="C39" s="94"/>
       <c r="D39" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="E39" s="98"/>
+      <c r="E39" s="100"/>
       <c r="F39" s="68" t="s">
         <v>133</v>
       </c>
@@ -4808,17 +4794,17 @@
       <c r="L39" s="7"/>
     </row>
     <row r="40" spans="1:12" s="6" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A40" s="92"/>
+      <c r="A40" s="96"/>
       <c r="B40" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="C40" s="85" t="s">
+      <c r="C40" s="89" t="s">
         <v>131</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="E40" s="98">
+      <c r="E40" s="100">
         <v>6</v>
       </c>
       <c r="F40" s="68" t="s">
@@ -4832,15 +4818,15 @@
       <c r="L40" s="7"/>
     </row>
     <row r="41" spans="1:12" s="6" customFormat="1" ht="55.5" customHeight="1">
-      <c r="A41" s="92"/>
+      <c r="A41" s="96"/>
       <c r="B41" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="89"/>
+      <c r="C41" s="93"/>
       <c r="D41" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="E41" s="98"/>
+      <c r="E41" s="100"/>
       <c r="F41" s="68" t="s">
         <v>129</v>
       </c>
@@ -4852,7 +4838,7 @@
       <c r="L41" s="7"/>
     </row>
     <row r="42" spans="1:12" s="6" customFormat="1" ht="25.5">
-      <c r="A42" s="92"/>
+      <c r="A42" s="96"/>
       <c r="B42" s="19" t="s">
         <v>132</v>
       </c>
@@ -4876,17 +4862,17 @@
       <c r="L42" s="7"/>
     </row>
     <row r="43" spans="1:12" s="6" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A43" s="92"/>
+      <c r="A43" s="96"/>
       <c r="B43" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="C43" s="85" t="s">
+      <c r="C43" s="89" t="s">
         <v>124</v>
       </c>
       <c r="D43" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="E43" s="98">
+      <c r="E43" s="100">
         <v>4</v>
       </c>
       <c r="F43" s="68" t="s">
@@ -4900,15 +4886,15 @@
       <c r="L43" s="7"/>
     </row>
     <row r="44" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A44" s="92"/>
+      <c r="A44" s="96"/>
       <c r="B44" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="C44" s="89"/>
+      <c r="C44" s="93"/>
       <c r="D44" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="E44" s="98"/>
+      <c r="E44" s="100"/>
       <c r="F44" s="68" t="s">
         <v>122</v>
       </c>
@@ -4920,7 +4906,7 @@
       <c r="L44" s="7"/>
     </row>
     <row r="45" spans="1:12" s="6" customFormat="1" ht="78.599999999999994" customHeight="1">
-      <c r="A45" s="93"/>
+      <c r="A45" s="97"/>
       <c r="B45" s="16" t="s">
         <v>125</v>
       </c>
@@ -4944,17 +4930,17 @@
       <c r="L45" s="7"/>
     </row>
     <row r="46" spans="1:12" s="6" customFormat="1" ht="81" customHeight="1">
-      <c r="A46" s="91" t="s">
+      <c r="A46" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="B46" s="91"/>
-      <c r="C46" s="85" t="s">
+      <c r="B46" s="95"/>
+      <c r="C46" s="89" t="s">
         <v>118</v>
       </c>
       <c r="D46" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="E46" s="98">
+      <c r="E46" s="100">
         <v>6</v>
       </c>
       <c r="F46" s="68" t="s">
@@ -4968,13 +4954,13 @@
       <c r="L46" s="7"/>
     </row>
     <row r="47" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A47" s="92"/>
-      <c r="B47" s="92"/>
-      <c r="C47" s="86"/>
+      <c r="A47" s="96"/>
+      <c r="B47" s="96"/>
+      <c r="C47" s="90"/>
       <c r="D47" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="E47" s="98"/>
+      <c r="E47" s="100"/>
       <c r="F47" s="68" t="s">
         <v>116</v>
       </c>
@@ -4986,13 +4972,13 @@
       <c r="L47" s="7"/>
     </row>
     <row r="48" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A48" s="92"/>
-      <c r="B48" s="92"/>
-      <c r="C48" s="86"/>
+      <c r="A48" s="96"/>
+      <c r="B48" s="96"/>
+      <c r="C48" s="90"/>
       <c r="D48" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="E48" s="98"/>
+      <c r="E48" s="100"/>
       <c r="F48" s="68" t="s">
         <v>116</v>
       </c>
@@ -5004,16 +4990,16 @@
       <c r="L48" s="7"/>
     </row>
     <row r="49" spans="1:12" s="6" customFormat="1" ht="12.75">
-      <c r="A49" s="92"/>
-      <c r="B49" s="92"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="78" t="s">
+      <c r="A49" s="96"/>
+      <c r="B49" s="96"/>
+      <c r="C49" s="90"/>
+      <c r="D49" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="E49" s="98">
+      <c r="E49" s="100">
         <v>6</v>
       </c>
-      <c r="F49" s="99" t="s">
+      <c r="F49" s="103" t="s">
         <v>114</v>
       </c>
       <c r="G49" s="52"/>
@@ -5024,12 +5010,12 @@
       <c r="L49" s="7"/>
     </row>
     <row r="50" spans="1:12" s="6" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A50" s="93"/>
-      <c r="B50" s="93"/>
-      <c r="C50" s="89"/>
-      <c r="D50" s="78"/>
-      <c r="E50" s="98"/>
-      <c r="F50" s="99"/>
+      <c r="A50" s="97"/>
+      <c r="B50" s="97"/>
+      <c r="C50" s="93"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="100"/>
+      <c r="F50" s="103"/>
       <c r="G50" s="54"/>
       <c r="H50" s="54"/>
       <c r="I50" s="7"/>
@@ -5038,10 +5024,10 @@
       <c r="L50" s="7"/>
     </row>
     <row r="51" spans="1:12" s="6" customFormat="1" ht="51" customHeight="1">
-      <c r="A51" s="91" t="s">
+      <c r="A51" s="95" t="s">
         <v>113</v>
       </c>
-      <c r="B51" s="85" t="s">
+      <c r="B51" s="89" t="s">
         <v>112</v>
       </c>
       <c r="C51" s="19" t="s">
@@ -5064,9 +5050,9 @@
       <c r="L51" s="7"/>
     </row>
     <row r="52" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A52" s="92"/>
-      <c r="B52" s="86"/>
-      <c r="C52" s="85" t="s">
+      <c r="A52" s="96"/>
+      <c r="B52" s="90"/>
+      <c r="C52" s="89" t="s">
         <v>108</v>
       </c>
       <c r="D52" s="48" t="s">
@@ -5086,9 +5072,9 @@
       <c r="L52" s="7"/>
     </row>
     <row r="53" spans="1:12" s="6" customFormat="1" ht="25.5">
-      <c r="A53" s="92"/>
-      <c r="B53" s="86"/>
-      <c r="C53" s="86"/>
+      <c r="A53" s="96"/>
+      <c r="B53" s="90"/>
+      <c r="C53" s="90"/>
       <c r="D53" s="48" t="s">
         <v>105</v>
       </c>
@@ -5106,9 +5092,9 @@
       <c r="L53" s="7"/>
     </row>
     <row r="54" spans="1:12" s="6" customFormat="1" ht="38.25">
-      <c r="A54" s="93"/>
-      <c r="B54" s="89"/>
-      <c r="C54" s="89"/>
+      <c r="A54" s="97"/>
+      <c r="B54" s="93"/>
+      <c r="C54" s="93"/>
       <c r="D54" s="48" t="s">
         <v>103</v>
       </c>
@@ -5126,7 +5112,7 @@
       <c r="L54" s="7"/>
     </row>
     <row r="55" spans="1:12" s="6" customFormat="1" ht="38.25">
-      <c r="A55" s="91"/>
+      <c r="A55" s="95"/>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
       <c r="D55" s="55" t="s">
@@ -5146,11 +5132,11 @@
       <c r="L55" s="7"/>
     </row>
     <row r="56" spans="1:12" s="6" customFormat="1" ht="156.94999999999999" customHeight="1">
-      <c r="A56" s="92"/>
-      <c r="B56" s="85" t="s">
+      <c r="A56" s="96"/>
+      <c r="B56" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="C56" s="91" t="s">
+      <c r="C56" s="95" t="s">
         <v>98</v>
       </c>
       <c r="D56" s="48" t="s">
@@ -5170,9 +5156,9 @@
       <c r="L56" s="7"/>
     </row>
     <row r="57" spans="1:12" s="6" customFormat="1" ht="89.1" customHeight="1">
-      <c r="A57" s="92"/>
-      <c r="B57" s="86"/>
-      <c r="C57" s="92"/>
+      <c r="A57" s="96"/>
+      <c r="B57" s="90"/>
+      <c r="C57" s="96"/>
       <c r="D57" s="48" t="s">
         <v>96</v>
       </c>
@@ -5190,9 +5176,9 @@
       <c r="L57" s="7"/>
     </row>
     <row r="58" spans="1:12" s="6" customFormat="1" ht="74.45" customHeight="1">
-      <c r="A58" s="92"/>
-      <c r="B58" s="86"/>
-      <c r="C58" s="92"/>
+      <c r="A58" s="96"/>
+      <c r="B58" s="90"/>
+      <c r="C58" s="96"/>
       <c r="D58" s="48" t="s">
         <v>95</v>
       </c>
@@ -5210,9 +5196,9 @@
       <c r="L58" s="7"/>
     </row>
     <row r="59" spans="1:12" s="6" customFormat="1" ht="51">
-      <c r="A59" s="93"/>
-      <c r="B59" s="89"/>
-      <c r="C59" s="93"/>
+      <c r="A59" s="97"/>
+      <c r="B59" s="93"/>
+      <c r="C59" s="97"/>
       <c r="D59" s="48" t="s">
         <v>94</v>
       </c>
@@ -5231,7 +5217,7 @@
     </row>
     <row r="60" spans="1:12" s="6" customFormat="1" ht="150.94999999999999" customHeight="1">
       <c r="A60" s="35"/>
-      <c r="B60" s="91"/>
+      <c r="B60" s="95"/>
       <c r="C60" s="32"/>
       <c r="D60" s="48" t="s">
         <v>93</v>
@@ -5251,7 +5237,7 @@
     </row>
     <row r="61" spans="1:12" s="6" customFormat="1" ht="174" customHeight="1">
       <c r="A61" s="35"/>
-      <c r="B61" s="93"/>
+      <c r="B61" s="97"/>
       <c r="C61" s="30"/>
       <c r="D61" s="48" t="s">
         <v>92</v>
@@ -5270,9 +5256,9 @@
       <c r="L61" s="7"/>
     </row>
     <row r="62" spans="1:12" s="6" customFormat="1" ht="260.45" customHeight="1">
-      <c r="A62" s="91"/>
-      <c r="B62" s="91"/>
-      <c r="C62" s="91"/>
+      <c r="A62" s="95"/>
+      <c r="B62" s="95"/>
+      <c r="C62" s="95"/>
       <c r="D62" s="48" t="s">
         <v>91</v>
       </c>
@@ -5290,9 +5276,9 @@
       <c r="L62" s="7"/>
     </row>
     <row r="63" spans="1:12" s="6" customFormat="1" ht="60.6" customHeight="1">
-      <c r="A63" s="93"/>
-      <c r="B63" s="93"/>
-      <c r="C63" s="93"/>
+      <c r="A63" s="97"/>
+      <c r="B63" s="97"/>
+      <c r="C63" s="97"/>
       <c r="D63" s="55" t="s">
         <v>90</v>
       </c>
@@ -5310,8 +5296,8 @@
       <c r="L63" s="7"/>
     </row>
     <row r="64" spans="1:12" s="6" customFormat="1" ht="59.1" customHeight="1">
-      <c r="A64" s="91"/>
-      <c r="B64" s="91"/>
+      <c r="A64" s="95"/>
+      <c r="B64" s="95"/>
       <c r="C64" s="32"/>
       <c r="D64" s="48" t="s">
         <v>89</v>
@@ -5330,8 +5316,8 @@
       <c r="L64" s="7"/>
     </row>
     <row r="65" spans="1:12" s="6" customFormat="1" ht="66" customHeight="1">
-      <c r="A65" s="92"/>
-      <c r="B65" s="92"/>
+      <c r="A65" s="96"/>
+      <c r="B65" s="96"/>
       <c r="C65" s="31"/>
       <c r="D65" s="48" t="s">
         <v>87</v>
@@ -5350,8 +5336,8 @@
       <c r="L65" s="7"/>
     </row>
     <row r="66" spans="1:12" s="6" customFormat="1" ht="57.95" customHeight="1">
-      <c r="A66" s="92"/>
-      <c r="B66" s="92"/>
+      <c r="A66" s="96"/>
+      <c r="B66" s="96"/>
       <c r="C66" s="31"/>
       <c r="D66" s="48" t="s">
         <v>86</v>
@@ -5370,8 +5356,8 @@
       <c r="L66" s="7"/>
     </row>
     <row r="67" spans="1:12" s="6" customFormat="1" ht="48" customHeight="1">
-      <c r="A67" s="92"/>
-      <c r="B67" s="92"/>
+      <c r="A67" s="96"/>
+      <c r="B67" s="96"/>
       <c r="C67" s="31"/>
       <c r="D67" s="48" t="s">
         <v>85</v>
@@ -5390,8 +5376,8 @@
       <c r="L67" s="7"/>
     </row>
     <row r="68" spans="1:12" s="6" customFormat="1" ht="59.1" customHeight="1">
-      <c r="A68" s="93"/>
-      <c r="B68" s="93"/>
+      <c r="A68" s="97"/>
+      <c r="B68" s="97"/>
       <c r="C68" s="30"/>
       <c r="D68" s="48" t="s">
         <v>84</v>
@@ -5410,15 +5396,15 @@
       <c r="L68" s="7"/>
     </row>
     <row r="69" spans="1:12" s="6" customFormat="1" ht="54" customHeight="1">
-      <c r="A69" s="91"/>
-      <c r="B69" s="91"/>
-      <c r="C69" s="85" t="s">
+      <c r="A69" s="95"/>
+      <c r="B69" s="95"/>
+      <c r="C69" s="89" t="s">
         <v>83</v>
       </c>
       <c r="D69" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E69" s="98">
+      <c r="E69" s="100">
         <v>10</v>
       </c>
       <c r="F69" s="68" t="s">
@@ -5432,13 +5418,13 @@
       <c r="L69" s="7"/>
     </row>
     <row r="70" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A70" s="92"/>
-      <c r="B70" s="92"/>
-      <c r="C70" s="86"/>
+      <c r="A70" s="96"/>
+      <c r="B70" s="96"/>
+      <c r="C70" s="90"/>
       <c r="D70" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E70" s="98"/>
+      <c r="E70" s="100"/>
       <c r="F70" s="68" t="s">
         <v>81</v>
       </c>
@@ -5450,13 +5436,13 @@
       <c r="L70" s="7"/>
     </row>
     <row r="71" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A71" s="92"/>
-      <c r="B71" s="92"/>
-      <c r="C71" s="86"/>
+      <c r="A71" s="96"/>
+      <c r="B71" s="96"/>
+      <c r="C71" s="90"/>
       <c r="D71" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E71" s="98"/>
+      <c r="E71" s="100"/>
       <c r="F71" s="68" t="s">
         <v>81</v>
       </c>
@@ -5468,9 +5454,9 @@
       <c r="L71" s="7"/>
     </row>
     <row r="72" spans="1:12" s="6" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A72" s="93"/>
-      <c r="B72" s="93"/>
-      <c r="C72" s="89"/>
+      <c r="A72" s="97"/>
+      <c r="B72" s="97"/>
+      <c r="C72" s="93"/>
       <c r="D72" s="48" t="s">
         <v>80</v>
       </c>
@@ -5488,8 +5474,8 @@
       <c r="L72" s="7"/>
     </row>
     <row r="73" spans="1:12" s="6" customFormat="1" ht="60" customHeight="1">
-      <c r="A73" s="91"/>
-      <c r="B73" s="91"/>
+      <c r="A73" s="95"/>
+      <c r="B73" s="95"/>
       <c r="C73" s="19" t="s">
         <v>78</v>
       </c>
@@ -5510,15 +5496,15 @@
       <c r="L73" s="7"/>
     </row>
     <row r="74" spans="1:12" s="6" customFormat="1" ht="54" customHeight="1">
-      <c r="A74" s="92"/>
-      <c r="B74" s="92"/>
-      <c r="C74" s="100" t="s">
+      <c r="A74" s="96"/>
+      <c r="B74" s="96"/>
+      <c r="C74" s="104" t="s">
         <v>76</v>
       </c>
       <c r="D74" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="E74" s="98">
+      <c r="E74" s="100">
         <v>20</v>
       </c>
       <c r="F74" s="68" t="s">
@@ -5532,13 +5518,13 @@
       <c r="L74" s="7"/>
     </row>
     <row r="75" spans="1:12" s="6" customFormat="1" ht="51" customHeight="1">
-      <c r="A75" s="93"/>
-      <c r="B75" s="93"/>
-      <c r="C75" s="101"/>
+      <c r="A75" s="97"/>
+      <c r="B75" s="97"/>
+      <c r="C75" s="105"/>
       <c r="D75" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="E75" s="98"/>
+      <c r="E75" s="100"/>
       <c r="F75" s="68" t="s">
         <v>74</v>
       </c>
@@ -5550,13 +5536,13 @@
       <c r="L75" s="7"/>
     </row>
     <row r="76" spans="1:12" s="6" customFormat="1" ht="59.45" customHeight="1">
-      <c r="A76" s="85" t="s">
+      <c r="A76" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="B76" s="78" t="s">
+      <c r="B76" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="C76" s="85" t="s">
+      <c r="C76" s="89" t="s">
         <v>71</v>
       </c>
       <c r="D76" s="48" t="s">
@@ -5576,9 +5562,9 @@
       <c r="L76" s="7"/>
     </row>
     <row r="77" spans="1:12" s="6" customFormat="1" ht="45.95" customHeight="1">
-      <c r="A77" s="86"/>
-      <c r="B77" s="78"/>
-      <c r="C77" s="89"/>
+      <c r="A77" s="90"/>
+      <c r="B77" s="82"/>
+      <c r="C77" s="93"/>
       <c r="D77" s="48" t="s">
         <v>69</v>
       </c>
@@ -5596,15 +5582,15 @@
       <c r="L77" s="7"/>
     </row>
     <row r="78" spans="1:12" s="6" customFormat="1" ht="54" customHeight="1">
-      <c r="A78" s="86"/>
-      <c r="B78" s="78"/>
-      <c r="C78" s="87" t="s">
+      <c r="A78" s="90"/>
+      <c r="B78" s="82"/>
+      <c r="C78" s="91" t="s">
         <v>68</v>
       </c>
       <c r="D78" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E78" s="98">
+      <c r="E78" s="100">
         <v>16</v>
       </c>
       <c r="F78" s="68" t="s">
@@ -5618,13 +5604,13 @@
       <c r="L78" s="7"/>
     </row>
     <row r="79" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A79" s="86"/>
-      <c r="B79" s="78"/>
-      <c r="C79" s="88"/>
+      <c r="A79" s="90"/>
+      <c r="B79" s="82"/>
+      <c r="C79" s="92"/>
       <c r="D79" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E79" s="98"/>
+      <c r="E79" s="100"/>
       <c r="F79" s="68" t="s">
         <v>66</v>
       </c>
@@ -5636,9 +5622,9 @@
       <c r="L79" s="7"/>
     </row>
     <row r="80" spans="1:12" s="6" customFormat="1" ht="12.75">
-      <c r="A80" s="86"/>
-      <c r="B80" s="78"/>
-      <c r="C80" s="90"/>
+      <c r="A80" s="90"/>
+      <c r="B80" s="82"/>
+      <c r="C80" s="94"/>
       <c r="D80" s="48" t="s">
         <v>65</v>
       </c>
@@ -5656,17 +5642,17 @@
       <c r="L80" s="7"/>
     </row>
     <row r="81" spans="1:12" s="6" customFormat="1" ht="54" customHeight="1">
-      <c r="A81" s="86"/>
-      <c r="B81" s="78" t="s">
+      <c r="A81" s="90"/>
+      <c r="B81" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="87" t="s">
+      <c r="C81" s="91" t="s">
         <v>62</v>
       </c>
       <c r="D81" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="E81" s="98">
+      <c r="E81" s="100">
         <v>20</v>
       </c>
       <c r="F81" s="68" t="s">
@@ -5680,13 +5666,13 @@
       <c r="L81" s="7"/>
     </row>
     <row r="82" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A82" s="86"/>
-      <c r="B82" s="78"/>
-      <c r="C82" s="90"/>
+      <c r="A82" s="90"/>
+      <c r="B82" s="82"/>
+      <c r="C82" s="94"/>
       <c r="D82" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="E82" s="98"/>
+      <c r="E82" s="100"/>
       <c r="F82" s="68" t="s">
         <v>60</v>
       </c>
@@ -5698,15 +5684,15 @@
       <c r="L82" s="7"/>
     </row>
     <row r="83" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A83" s="86"/>
-      <c r="B83" s="78"/>
-      <c r="C83" s="87" t="s">
+      <c r="A83" s="90"/>
+      <c r="B83" s="82"/>
+      <c r="C83" s="91" t="s">
         <v>59</v>
       </c>
       <c r="D83" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E83" s="98">
+      <c r="E83" s="100">
         <v>12</v>
       </c>
       <c r="F83" s="68" t="s">
@@ -5720,13 +5706,13 @@
       <c r="L83" s="7"/>
     </row>
     <row r="84" spans="1:12" s="6" customFormat="1" ht="38.25">
-      <c r="A84" s="86"/>
-      <c r="B84" s="78"/>
-      <c r="C84" s="88"/>
+      <c r="A84" s="90"/>
+      <c r="B84" s="82"/>
+      <c r="C84" s="92"/>
       <c r="D84" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E84" s="98"/>
+      <c r="E84" s="100"/>
       <c r="F84" s="68" t="s">
         <v>57</v>
       </c>
@@ -5738,13 +5724,13 @@
       <c r="L84" s="7"/>
     </row>
     <row r="85" spans="1:12" s="6" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A85" s="86"/>
-      <c r="B85" s="78"/>
-      <c r="C85" s="88"/>
+      <c r="A85" s="90"/>
+      <c r="B85" s="82"/>
+      <c r="C85" s="92"/>
       <c r="D85" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E85" s="102">
+      <c r="E85" s="106">
         <v>16</v>
       </c>
       <c r="F85" s="69" t="s">
@@ -5758,13 +5744,13 @@
       <c r="L85" s="7"/>
     </row>
     <row r="86" spans="1:12" s="6" customFormat="1" ht="38.25">
-      <c r="A86" s="86"/>
-      <c r="B86" s="78"/>
-      <c r="C86" s="88"/>
+      <c r="A86" s="90"/>
+      <c r="B86" s="82"/>
+      <c r="C86" s="92"/>
       <c r="D86" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E86" s="102"/>
+      <c r="E86" s="106"/>
       <c r="F86" s="69" t="s">
         <v>55</v>
       </c>
@@ -5776,13 +5762,13 @@
       <c r="L86" s="7"/>
     </row>
     <row r="87" spans="1:12" s="6" customFormat="1" ht="38.25">
-      <c r="A87" s="89"/>
-      <c r="B87" s="78"/>
-      <c r="C87" s="90"/>
+      <c r="A87" s="93"/>
+      <c r="B87" s="82"/>
+      <c r="C87" s="94"/>
       <c r="D87" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E87" s="102"/>
+      <c r="E87" s="106"/>
       <c r="F87" s="69" t="s">
         <v>55</v>
       </c>
@@ -5794,8 +5780,8 @@
       <c r="L87" s="7"/>
     </row>
     <row r="88" spans="1:12" s="6" customFormat="1" ht="96.6" customHeight="1">
-      <c r="A88" s="85"/>
-      <c r="B88" s="78" t="s">
+      <c r="A88" s="89"/>
+      <c r="B88" s="82" t="s">
         <v>54</v>
       </c>
       <c r="C88" s="19" t="s">
@@ -5818,8 +5804,8 @@
       <c r="L88" s="7"/>
     </row>
     <row r="89" spans="1:12" s="6" customFormat="1" ht="72" customHeight="1">
-      <c r="A89" s="86"/>
-      <c r="B89" s="78"/>
+      <c r="A89" s="90"/>
+      <c r="B89" s="82"/>
       <c r="C89" s="19" t="s">
         <v>51</v>
       </c>
@@ -5840,17 +5826,17 @@
       <c r="L89" s="7"/>
     </row>
     <row r="90" spans="1:12" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A90" s="86"/>
-      <c r="B90" s="78" t="s">
+      <c r="A90" s="90"/>
+      <c r="B90" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="C90" s="78" t="s">
+      <c r="C90" s="82" t="s">
         <v>48</v>
       </c>
       <c r="D90" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E90" s="98">
+      <c r="E90" s="100">
         <v>12</v>
       </c>
       <c r="F90" s="68" t="s">
@@ -5864,13 +5850,13 @@
       <c r="L90" s="7"/>
     </row>
     <row r="91" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A91" s="86"/>
-      <c r="B91" s="78"/>
-      <c r="C91" s="78"/>
+      <c r="A91" s="90"/>
+      <c r="B91" s="82"/>
+      <c r="C91" s="82"/>
       <c r="D91" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E91" s="98"/>
+      <c r="E91" s="100"/>
       <c r="F91" s="68" t="s">
         <v>46</v>
       </c>
@@ -5882,13 +5868,13 @@
       <c r="L91" s="7"/>
     </row>
     <row r="92" spans="1:12" s="6" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A92" s="86"/>
-      <c r="B92" s="78"/>
-      <c r="C92" s="78"/>
+      <c r="A92" s="90"/>
+      <c r="B92" s="82"/>
+      <c r="C92" s="82"/>
       <c r="D92" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E92" s="98"/>
+      <c r="E92" s="100"/>
       <c r="F92" s="68" t="s">
         <v>46</v>
       </c>
@@ -5900,16 +5886,16 @@
       <c r="L92" s="7"/>
     </row>
     <row r="93" spans="1:12" s="6" customFormat="1" ht="12.75">
-      <c r="A93" s="86"/>
-      <c r="B93" s="78"/>
-      <c r="C93" s="78"/>
-      <c r="D93" s="78" t="s">
+      <c r="A93" s="90"/>
+      <c r="B93" s="82"/>
+      <c r="C93" s="82"/>
+      <c r="D93" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="E93" s="98">
+      <c r="E93" s="100">
         <v>8</v>
       </c>
-      <c r="F93" s="99" t="s">
+      <c r="F93" s="103" t="s">
         <v>44</v>
       </c>
       <c r="G93" s="52"/>
@@ -5920,12 +5906,12 @@
       <c r="L93" s="7"/>
     </row>
     <row r="94" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A94" s="89"/>
-      <c r="B94" s="78"/>
-      <c r="C94" s="78"/>
-      <c r="D94" s="78"/>
-      <c r="E94" s="98"/>
-      <c r="F94" s="99"/>
+      <c r="A94" s="93"/>
+      <c r="B94" s="82"/>
+      <c r="C94" s="82"/>
+      <c r="D94" s="82"/>
+      <c r="E94" s="100"/>
+      <c r="F94" s="103"/>
       <c r="G94" s="53"/>
       <c r="H94" s="54"/>
       <c r="I94" s="7"/>
@@ -5934,19 +5920,19 @@
       <c r="L94" s="7"/>
     </row>
     <row r="95" spans="1:12" s="6" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A95" s="79" t="s">
+      <c r="A95" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="B95" s="82" t="s">
+      <c r="B95" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="C95" s="83" t="s">
+      <c r="C95" s="87" t="s">
         <v>41</v>
       </c>
       <c r="D95" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E95" s="102">
+      <c r="E95" s="106">
         <v>12</v>
       </c>
       <c r="F95" s="69" t="s">
@@ -5960,13 +5946,13 @@
       <c r="L95" s="7"/>
     </row>
     <row r="96" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A96" s="80"/>
-      <c r="B96" s="82"/>
-      <c r="C96" s="103"/>
+      <c r="A96" s="84"/>
+      <c r="B96" s="86"/>
+      <c r="C96" s="107"/>
       <c r="D96" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E96" s="102"/>
+      <c r="E96" s="106"/>
       <c r="F96" s="69" t="s">
         <v>39</v>
       </c>
@@ -5978,13 +5964,13 @@
       <c r="L96" s="7"/>
     </row>
     <row r="97" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A97" s="80"/>
-      <c r="B97" s="82"/>
-      <c r="C97" s="103"/>
+      <c r="A97" s="84"/>
+      <c r="B97" s="86"/>
+      <c r="C97" s="107"/>
       <c r="D97" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E97" s="102"/>
+      <c r="E97" s="106"/>
       <c r="F97" s="69" t="s">
         <v>39</v>
       </c>
@@ -5996,9 +5982,9 @@
       <c r="L97" s="7"/>
     </row>
     <row r="98" spans="1:12" s="6" customFormat="1" ht="25.5">
-      <c r="A98" s="80"/>
-      <c r="B98" s="82"/>
-      <c r="C98" s="84"/>
+      <c r="A98" s="84"/>
+      <c r="B98" s="86"/>
+      <c r="C98" s="88"/>
       <c r="D98" s="48" t="s">
         <v>38</v>
       </c>
@@ -6016,8 +6002,8 @@
       <c r="L98" s="7"/>
     </row>
     <row r="99" spans="1:12" s="6" customFormat="1" ht="51" customHeight="1">
-      <c r="A99" s="81"/>
-      <c r="B99" s="82"/>
+      <c r="A99" s="85"/>
+      <c r="B99" s="86"/>
       <c r="C99" s="26" t="s">
         <v>36</v>
       </c>
@@ -6062,7 +6048,7 @@
       <c r="L100" s="7"/>
     </row>
     <row r="101" spans="1:12" s="6" customFormat="1" ht="38.25">
-      <c r="A101" s="78" t="s">
+      <c r="A101" s="82" t="s">
         <v>29</v>
       </c>
       <c r="B101" s="48" t="s">
@@ -6088,11 +6074,11 @@
       <c r="L101" s="7"/>
     </row>
     <row r="102" spans="1:12" s="6" customFormat="1" ht="25.5">
-      <c r="A102" s="78"/>
-      <c r="B102" s="78" t="s">
+      <c r="A102" s="82"/>
+      <c r="B102" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="C102" s="78" t="s">
+      <c r="C102" s="82" t="s">
         <v>24</v>
       </c>
       <c r="D102" s="48" t="s">
@@ -6112,13 +6098,13 @@
       <c r="L102" s="7"/>
     </row>
     <row r="103" spans="1:12" s="6" customFormat="1" ht="54" customHeight="1">
-      <c r="A103" s="78"/>
-      <c r="B103" s="78"/>
-      <c r="C103" s="78"/>
+      <c r="A103" s="82"/>
+      <c r="B103" s="82"/>
+      <c r="C103" s="82"/>
       <c r="D103" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E103" s="98">
+      <c r="E103" s="100">
         <v>10</v>
       </c>
       <c r="F103" s="68" t="s">
@@ -6132,13 +6118,13 @@
       <c r="L103" s="7"/>
     </row>
     <row r="104" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1">
-      <c r="A104" s="78"/>
-      <c r="B104" s="78"/>
-      <c r="C104" s="78"/>
+      <c r="A104" s="82"/>
+      <c r="B104" s="82"/>
+      <c r="C104" s="82"/>
       <c r="D104" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E104" s="98"/>
+      <c r="E104" s="100"/>
       <c r="F104" s="68" t="s">
         <v>20</v>
       </c>
@@ -6150,17 +6136,17 @@
       <c r="L104" s="7"/>
     </row>
     <row r="105" spans="1:12" s="6" customFormat="1" ht="45.95" customHeight="1">
-      <c r="A105" s="78"/>
-      <c r="B105" s="78" t="s">
+      <c r="A105" s="82"/>
+      <c r="B105" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="C105" s="78" t="s">
+      <c r="C105" s="82" t="s">
         <v>18</v>
       </c>
       <c r="D105" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E105" s="98">
+      <c r="E105" s="100">
         <v>10</v>
       </c>
       <c r="F105" s="68" t="s">
@@ -6174,13 +6160,13 @@
       <c r="L105" s="7"/>
     </row>
     <row r="106" spans="1:12" s="6" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A106" s="78"/>
-      <c r="B106" s="78"/>
-      <c r="C106" s="78"/>
+      <c r="A106" s="82"/>
+      <c r="B106" s="82"/>
+      <c r="C106" s="82"/>
       <c r="D106" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E106" s="98"/>
+      <c r="E106" s="100"/>
       <c r="F106" s="68" t="s">
         <v>16</v>
       </c>
@@ -6192,13 +6178,13 @@
       <c r="L106" s="7"/>
     </row>
     <row r="107" spans="1:12" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A107" s="78"/>
-      <c r="B107" s="78"/>
-      <c r="C107" s="78"/>
+      <c r="A107" s="82"/>
+      <c r="B107" s="82"/>
+      <c r="C107" s="82"/>
       <c r="D107" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E107" s="98">
+      <c r="E107" s="100">
         <v>6</v>
       </c>
       <c r="F107" s="68" t="s">
@@ -6212,13 +6198,13 @@
       <c r="L107" s="7"/>
     </row>
     <row r="108" spans="1:12" s="6" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A108" s="78"/>
-      <c r="B108" s="78"/>
-      <c r="C108" s="78"/>
+      <c r="A108" s="82"/>
+      <c r="B108" s="82"/>
+      <c r="C108" s="82"/>
       <c r="D108" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E108" s="98"/>
+      <c r="E108" s="100"/>
       <c r="F108" s="68" t="s">
         <v>14</v>
       </c>
@@ -6230,10 +6216,10 @@
       <c r="L108" s="7"/>
     </row>
     <row r="109" spans="1:12" s="6" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A109" s="78" t="s">
+      <c r="A109" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B109" s="78" t="s">
+      <c r="B109" s="82" t="s">
         <v>12</v>
       </c>
       <c r="C109" s="19" t="s">
@@ -6256,8 +6242,8 @@
       <c r="L109" s="7"/>
     </row>
     <row r="110" spans="1:12" s="6" customFormat="1" ht="39" customHeight="1">
-      <c r="A110" s="78"/>
-      <c r="B110" s="78"/>
+      <c r="A110" s="82"/>
+      <c r="B110" s="82"/>
       <c r="C110" s="19" t="s">
         <v>8</v>
       </c>
@@ -6278,17 +6264,17 @@
       <c r="L110" s="7"/>
     </row>
     <row r="111" spans="1:12" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A111" s="78"/>
-      <c r="B111" s="78" t="s">
+      <c r="A111" s="82"/>
+      <c r="B111" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="C111" s="78" t="s">
+      <c r="C111" s="82" t="s">
         <v>4</v>
       </c>
       <c r="D111" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E111" s="98">
+      <c r="E111" s="100">
         <v>12</v>
       </c>
       <c r="F111" s="68" t="s">
@@ -6302,13 +6288,13 @@
       <c r="L111" s="7"/>
     </row>
     <row r="112" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A112" s="78"/>
-      <c r="B112" s="78"/>
-      <c r="C112" s="78"/>
+      <c r="A112" s="82"/>
+      <c r="B112" s="82"/>
+      <c r="C112" s="82"/>
       <c r="D112" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E112" s="98"/>
+      <c r="E112" s="100"/>
       <c r="F112" s="68" t="s">
         <v>2</v>
       </c>
@@ -6320,13 +6306,13 @@
       <c r="L112" s="7"/>
     </row>
     <row r="113" spans="1:12" s="6" customFormat="1" ht="93.95" customHeight="1">
-      <c r="A113" s="78"/>
-      <c r="B113" s="78"/>
-      <c r="C113" s="78"/>
+      <c r="A113" s="82"/>
+      <c r="B113" s="82"/>
+      <c r="C113" s="82"/>
       <c r="D113" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E113" s="98"/>
+      <c r="E113" s="100"/>
       <c r="F113" s="68" t="s">
         <v>2</v>
       </c>
@@ -6338,20 +6324,20 @@
       <c r="L113" s="7"/>
     </row>
     <row r="114" spans="1:12" s="6" customFormat="1" ht="33.6" customHeight="1">
-      <c r="A114" s="74" t="s">
+      <c r="A114" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B114" s="75"/>
-      <c r="C114" s="75"/>
-      <c r="D114" s="76"/>
+      <c r="B114" s="79"/>
+      <c r="C114" s="79"/>
+      <c r="D114" s="80"/>
       <c r="E114" s="9">
         <f>SUM(E6:E113)</f>
         <v>600</v>
       </c>
-      <c r="F114" s="74" t="s">
+      <c r="F114" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="G114" s="77"/>
+      <c r="G114" s="81"/>
       <c r="H114" s="8">
         <f>SUM(H6:H113)</f>
         <v>0</v>
@@ -6485,7 +6471,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L114"/>
   <sheetViews>
@@ -6508,20 +6494,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="60" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="98" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
     </row>
     <row r="2" spans="1:12" s="42" customFormat="1" ht="18.75">
       <c r="A2" s="45" t="s">
@@ -6532,11 +6518,11 @@
         <v>194</v>
       </c>
       <c r="D2" s="45"/>
-      <c r="E2" s="97" t="s">
+      <c r="E2" s="99" t="s">
         <v>193</v>
       </c>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
       <c r="H2" s="44"/>
       <c r="I2" s="43"/>
       <c r="J2" s="43"/>
@@ -6544,17 +6530,17 @@
       <c r="L2" s="43"/>
     </row>
     <row r="3" spans="1:12" s="42" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="99" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
       <c r="D3" s="45"/>
-      <c r="E3" s="97" t="s">
+      <c r="E3" s="99" t="s">
         <v>191</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
       <c r="H3" s="44"/>
       <c r="I3" s="43"/>
       <c r="J3" s="43"/>
@@ -6606,22 +6592,22 @@
       <c r="L5" s="39"/>
     </row>
     <row r="6" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="89" t="s">
         <v>182</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="82" t="s">
         <v>181</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="91" t="s">
         <v>180</v>
       </c>
-      <c r="D6" s="87" t="s">
+      <c r="D6" s="91" t="s">
         <v>179</v>
       </c>
-      <c r="E6" s="98">
+      <c r="E6" s="100">
         <v>4</v>
       </c>
-      <c r="F6" s="99" t="s">
+      <c r="F6" s="103" t="s">
         <v>197</v>
       </c>
       <c r="G6" s="14"/>
@@ -6632,12 +6618,12 @@
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" s="6" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A7" s="86"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="99"/>
+      <c r="A7" s="90"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="103"/>
       <c r="G7" s="20"/>
       <c r="H7" s="33"/>
       <c r="I7" s="7"/>
@@ -6646,9 +6632,9 @@
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12" s="6" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A8" s="86"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="90"/>
+      <c r="A8" s="90"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="94"/>
       <c r="D8" s="17" t="s">
         <v>178</v>
       </c>
@@ -6666,20 +6652,20 @@
       <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12" s="6" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A9" s="86"/>
-      <c r="B9" s="78" t="s">
+      <c r="A9" s="90"/>
+      <c r="B9" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="89" t="s">
         <v>175</v>
       </c>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="82" t="s">
         <v>174</v>
       </c>
-      <c r="E9" s="98">
+      <c r="E9" s="100">
         <v>6</v>
       </c>
-      <c r="F9" s="99" t="s">
+      <c r="F9" s="103" t="s">
         <v>173</v>
       </c>
       <c r="G9" s="14"/>
@@ -6690,12 +6676,12 @@
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12" s="6" customFormat="1" ht="51" customHeight="1">
-      <c r="A10" s="86"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="99"/>
+      <c r="A10" s="90"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="103"/>
       <c r="G10" s="12"/>
       <c r="H10" s="20"/>
       <c r="I10" s="7"/>
@@ -6704,16 +6690,16 @@
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A11" s="86"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="78" t="s">
+      <c r="A11" s="90"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="82" t="s">
         <v>172</v>
       </c>
-      <c r="E11" s="98">
+      <c r="E11" s="100">
         <v>6</v>
       </c>
-      <c r="F11" s="99" t="s">
+      <c r="F11" s="103" t="s">
         <v>171</v>
       </c>
       <c r="G11" s="14"/>
@@ -6724,12 +6710,12 @@
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A12" s="86"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="99"/>
+      <c r="A12" s="90"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="103"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="7"/>
@@ -6738,12 +6724,12 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A13" s="86"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="99"/>
+      <c r="A13" s="90"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="103"/>
       <c r="G13" s="12"/>
       <c r="H13" s="20"/>
       <c r="I13" s="7"/>
@@ -6752,18 +6738,18 @@
       <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A14" s="86"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="87" t="s">
+      <c r="A14" s="90"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="91" t="s">
         <v>170</v>
       </c>
-      <c r="D14" s="78" t="s">
+      <c r="D14" s="82" t="s">
         <v>169</v>
       </c>
-      <c r="E14" s="98">
+      <c r="E14" s="100">
         <v>12</v>
       </c>
-      <c r="F14" s="99" t="s">
+      <c r="F14" s="103" t="s">
         <v>168</v>
       </c>
       <c r="G14" s="14"/>
@@ -6774,12 +6760,12 @@
       <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A15" s="86"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="99"/>
+      <c r="A15" s="90"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="103"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="7"/>
@@ -6788,12 +6774,12 @@
       <c r="L15" s="7"/>
     </row>
     <row r="16" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A16" s="86"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="99"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="103"/>
       <c r="G16" s="12"/>
       <c r="H16" s="20"/>
       <c r="I16" s="7"/>
@@ -6802,20 +6788,20 @@
       <c r="L16" s="7"/>
     </row>
     <row r="17" spans="1:12" s="6" customFormat="1" ht="24" customHeight="1">
-      <c r="A17" s="86"/>
-      <c r="B17" s="78" t="s">
+      <c r="A17" s="90"/>
+      <c r="B17" s="82" t="s">
         <v>167</v>
       </c>
-      <c r="C17" s="87" t="s">
+      <c r="C17" s="91" t="s">
         <v>166</v>
       </c>
-      <c r="D17" s="78" t="s">
+      <c r="D17" s="82" t="s">
         <v>165</v>
       </c>
-      <c r="E17" s="98">
+      <c r="E17" s="100">
         <v>8</v>
       </c>
-      <c r="F17" s="99" t="s">
+      <c r="F17" s="103" t="s">
         <v>164</v>
       </c>
       <c r="G17" s="14"/>
@@ -6826,12 +6812,12 @@
       <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12" s="6" customFormat="1" ht="12.75">
-      <c r="A18" s="86"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="99"/>
+      <c r="A18" s="90"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="103"/>
       <c r="G18" s="12"/>
       <c r="H18" s="20"/>
       <c r="I18" s="7"/>
@@ -6840,18 +6826,18 @@
       <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A19" s="86"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="87" t="s">
+      <c r="A19" s="90"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="91" t="s">
         <v>163</v>
       </c>
-      <c r="D19" s="78" t="s">
+      <c r="D19" s="82" t="s">
         <v>162</v>
       </c>
-      <c r="E19" s="98">
+      <c r="E19" s="100">
         <v>4</v>
       </c>
-      <c r="F19" s="99" t="s">
+      <c r="F19" s="103" t="s">
         <v>161</v>
       </c>
       <c r="G19" s="14"/>
@@ -6862,12 +6848,12 @@
       <c r="L19" s="7"/>
     </row>
     <row r="20" spans="1:12" s="6" customFormat="1" ht="12.75">
-      <c r="A20" s="89"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="99"/>
+      <c r="A20" s="93"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="103"/>
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
       <c r="I20" s="7"/>
@@ -6876,20 +6862,20 @@
       <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12" s="6" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A21" s="91"/>
-      <c r="B21" s="91" t="s">
+      <c r="A21" s="95"/>
+      <c r="B21" s="95" t="s">
         <v>160</v>
       </c>
-      <c r="C21" s="87" t="s">
+      <c r="C21" s="91" t="s">
         <v>159</v>
       </c>
-      <c r="D21" s="78" t="s">
+      <c r="D21" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="E21" s="98">
+      <c r="E21" s="100">
         <v>4</v>
       </c>
-      <c r="F21" s="99" t="s">
+      <c r="F21" s="103" t="s">
         <v>157</v>
       </c>
       <c r="G21" s="14"/>
@@ -6900,12 +6886,12 @@
       <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A22" s="92"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="99"/>
+      <c r="A22" s="96"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="103"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="7"/>
@@ -6914,12 +6900,12 @@
       <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A23" s="92"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="99"/>
+      <c r="A23" s="96"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="103"/>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
       <c r="I23" s="7"/>
@@ -6928,8 +6914,8 @@
       <c r="L23" s="7"/>
     </row>
     <row r="24" spans="1:12" s="6" customFormat="1" ht="229.5">
-      <c r="A24" s="93"/>
-      <c r="B24" s="93"/>
+      <c r="A24" s="97"/>
+      <c r="B24" s="97"/>
       <c r="C24" s="19" t="s">
         <v>156</v>
       </c>
@@ -6950,18 +6936,18 @@
       <c r="L24" s="7"/>
     </row>
     <row r="25" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A25" s="91"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="87" t="s">
+      <c r="A25" s="95"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="D25" s="78" t="s">
+      <c r="D25" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="E25" s="98">
+      <c r="E25" s="100">
         <v>10</v>
       </c>
-      <c r="F25" s="99" t="s">
+      <c r="F25" s="103" t="s">
         <v>151</v>
       </c>
       <c r="G25" s="16"/>
@@ -6972,12 +6958,12 @@
       <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A26" s="92"/>
-      <c r="B26" s="92"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="99"/>
+      <c r="A26" s="96"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="103"/>
       <c r="G26" s="13"/>
       <c r="H26" s="12"/>
       <c r="I26" s="7"/>
@@ -6986,12 +6972,12 @@
       <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A27" s="92"/>
-      <c r="B27" s="92"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="99"/>
+      <c r="A27" s="96"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="103"/>
       <c r="G27" s="13"/>
       <c r="H27" s="12"/>
       <c r="I27" s="7"/>
@@ -7000,12 +6986,12 @@
       <c r="L27" s="7"/>
     </row>
     <row r="28" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A28" s="92"/>
-      <c r="B28" s="92"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="99"/>
+      <c r="A28" s="96"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="103"/>
       <c r="G28" s="13"/>
       <c r="H28" s="20"/>
       <c r="I28" s="7"/>
@@ -7014,18 +7000,18 @@
       <c r="L28" s="7"/>
     </row>
     <row r="29" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A29" s="92"/>
-      <c r="B29" s="92"/>
-      <c r="C29" s="87" t="s">
+      <c r="A29" s="96"/>
+      <c r="B29" s="96"/>
+      <c r="C29" s="91" t="s">
         <v>150</v>
       </c>
-      <c r="D29" s="78" t="s">
+      <c r="D29" s="82" t="s">
         <v>149</v>
       </c>
-      <c r="E29" s="98">
+      <c r="E29" s="100">
         <v>6</v>
       </c>
-      <c r="F29" s="99" t="s">
+      <c r="F29" s="103" t="s">
         <v>148</v>
       </c>
       <c r="G29" s="14"/>
@@ -7036,12 +7022,12 @@
       <c r="L29" s="7"/>
     </row>
     <row r="30" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A30" s="92"/>
-      <c r="B30" s="92"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="99"/>
+      <c r="A30" s="96"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="103"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="7"/>
@@ -7050,12 +7036,12 @@
       <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A31" s="92"/>
-      <c r="B31" s="93"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="99"/>
+      <c r="A31" s="96"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="103"/>
       <c r="G31" s="12"/>
       <c r="H31" s="20"/>
       <c r="I31" s="7"/>
@@ -7064,20 +7050,20 @@
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A32" s="92"/>
-      <c r="B32" s="85" t="s">
+      <c r="A32" s="96"/>
+      <c r="B32" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="85" t="s">
+      <c r="C32" s="89" t="s">
         <v>146</v>
       </c>
-      <c r="D32" s="78" t="s">
+      <c r="D32" s="82" t="s">
         <v>145</v>
       </c>
-      <c r="E32" s="98">
+      <c r="E32" s="100">
         <v>8</v>
       </c>
-      <c r="F32" s="99" t="s">
+      <c r="F32" s="103" t="s">
         <v>144</v>
       </c>
       <c r="G32" s="14"/>
@@ -7088,12 +7074,12 @@
       <c r="L32" s="7"/>
     </row>
     <row r="33" spans="1:12" s="6" customFormat="1" ht="12.75">
-      <c r="A33" s="92"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="98"/>
-      <c r="F33" s="99"/>
+      <c r="A33" s="96"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="103"/>
       <c r="G33" s="20"/>
       <c r="H33" s="20"/>
       <c r="I33" s="7"/>
@@ -7102,9 +7088,9 @@
       <c r="L33" s="7"/>
     </row>
     <row r="34" spans="1:12" s="6" customFormat="1" ht="25.5">
-      <c r="A34" s="92"/>
-      <c r="B34" s="86"/>
-      <c r="C34" s="89"/>
+      <c r="A34" s="96"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="93"/>
       <c r="D34" s="17" t="s">
         <v>143</v>
       </c>
@@ -7122,18 +7108,18 @@
       <c r="L34" s="7"/>
     </row>
     <row r="35" spans="1:12" s="6" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A35" s="92"/>
-      <c r="B35" s="86"/>
-      <c r="C35" s="87" t="s">
+      <c r="A35" s="96"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="D35" s="78" t="s">
+      <c r="D35" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="E35" s="98">
+      <c r="E35" s="100">
         <v>10</v>
       </c>
-      <c r="F35" s="99" t="s">
+      <c r="F35" s="103" t="s">
         <v>139</v>
       </c>
       <c r="G35" s="14"/>
@@ -7144,12 +7130,12 @@
       <c r="L35" s="7"/>
     </row>
     <row r="36" spans="1:12" s="6" customFormat="1" ht="12.75">
-      <c r="A36" s="93"/>
-      <c r="B36" s="89"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="98"/>
-      <c r="F36" s="99"/>
+      <c r="A36" s="97"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="103"/>
       <c r="G36" s="20"/>
       <c r="H36" s="20"/>
       <c r="I36" s="7"/>
@@ -7158,8 +7144,8 @@
       <c r="L36" s="7"/>
     </row>
     <row r="37" spans="1:12" s="6" customFormat="1" ht="62.1" customHeight="1">
-      <c r="A37" s="91"/>
-      <c r="B37" s="91"/>
+      <c r="A37" s="95"/>
+      <c r="B37" s="95"/>
       <c r="C37" s="19" t="s">
         <v>138</v>
       </c>
@@ -7180,18 +7166,18 @@
       <c r="L37" s="7"/>
     </row>
     <row r="38" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A38" s="92"/>
-      <c r="B38" s="92"/>
-      <c r="C38" s="87" t="s">
+      <c r="A38" s="96"/>
+      <c r="B38" s="96"/>
+      <c r="C38" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="D38" s="78" t="s">
+      <c r="D38" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="E38" s="98">
+      <c r="E38" s="100">
         <v>4</v>
       </c>
-      <c r="F38" s="99" t="s">
+      <c r="F38" s="103" t="s">
         <v>133</v>
       </c>
       <c r="G38" s="14"/>
@@ -7202,12 +7188,12 @@
       <c r="L38" s="7"/>
     </row>
     <row r="39" spans="1:12" s="6" customFormat="1" ht="12.75">
-      <c r="A39" s="92"/>
-      <c r="B39" s="93"/>
-      <c r="C39" s="90"/>
-      <c r="D39" s="78"/>
-      <c r="E39" s="98"/>
-      <c r="F39" s="99"/>
+      <c r="A39" s="96"/>
+      <c r="B39" s="97"/>
+      <c r="C39" s="94"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="103"/>
       <c r="G39" s="12"/>
       <c r="H39" s="20"/>
       <c r="I39" s="7"/>
@@ -7216,20 +7202,20 @@
       <c r="L39" s="7"/>
     </row>
     <row r="40" spans="1:12" s="6" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A40" s="92"/>
-      <c r="B40" s="78" t="s">
+      <c r="A40" s="96"/>
+      <c r="B40" s="82" t="s">
         <v>132</v>
       </c>
-      <c r="C40" s="85" t="s">
+      <c r="C40" s="89" t="s">
         <v>131</v>
       </c>
-      <c r="D40" s="78" t="s">
+      <c r="D40" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="E40" s="98">
+      <c r="E40" s="100">
         <v>6</v>
       </c>
-      <c r="F40" s="99" t="s">
+      <c r="F40" s="103" t="s">
         <v>129</v>
       </c>
       <c r="G40" s="14"/>
@@ -7240,12 +7226,12 @@
       <c r="L40" s="7"/>
     </row>
     <row r="41" spans="1:12" s="6" customFormat="1" ht="55.5" customHeight="1">
-      <c r="A41" s="92"/>
-      <c r="B41" s="78"/>
-      <c r="C41" s="89"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="98"/>
-      <c r="F41" s="99"/>
+      <c r="A41" s="96"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="93"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="103"/>
       <c r="G41" s="20"/>
       <c r="H41" s="20"/>
       <c r="I41" s="7"/>
@@ -7254,8 +7240,8 @@
       <c r="L41" s="7"/>
     </row>
     <row r="42" spans="1:12" s="6" customFormat="1" ht="51">
-      <c r="A42" s="92"/>
-      <c r="B42" s="78"/>
+      <c r="A42" s="96"/>
+      <c r="B42" s="82"/>
       <c r="C42" s="19" t="s">
         <v>128</v>
       </c>
@@ -7276,20 +7262,20 @@
       <c r="L42" s="7"/>
     </row>
     <row r="43" spans="1:12" s="6" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A43" s="92"/>
-      <c r="B43" s="85" t="s">
+      <c r="A43" s="96"/>
+      <c r="B43" s="89" t="s">
         <v>125</v>
       </c>
-      <c r="C43" s="85" t="s">
+      <c r="C43" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="D43" s="78" t="s">
+      <c r="D43" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="E43" s="98">
+      <c r="E43" s="100">
         <v>4</v>
       </c>
-      <c r="F43" s="99" t="s">
+      <c r="F43" s="103" t="s">
         <v>122</v>
       </c>
       <c r="G43" s="14"/>
@@ -7300,12 +7286,12 @@
       <c r="L43" s="7"/>
     </row>
     <row r="44" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A44" s="92"/>
-      <c r="B44" s="86"/>
-      <c r="C44" s="89"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="98"/>
-      <c r="F44" s="99"/>
+      <c r="A44" s="96"/>
+      <c r="B44" s="90"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="103"/>
       <c r="G44" s="20"/>
       <c r="H44" s="20"/>
       <c r="I44" s="7"/>
@@ -7314,8 +7300,8 @@
       <c r="L44" s="7"/>
     </row>
     <row r="45" spans="1:12" s="6" customFormat="1" ht="78.599999999999994" customHeight="1">
-      <c r="A45" s="93"/>
-      <c r="B45" s="89"/>
+      <c r="A45" s="97"/>
+      <c r="B45" s="93"/>
       <c r="C45" s="19" t="s">
         <v>121</v>
       </c>
@@ -7336,18 +7322,18 @@
       <c r="L45" s="7"/>
     </row>
     <row r="46" spans="1:12" s="6" customFormat="1" ht="81" customHeight="1">
-      <c r="A46" s="91"/>
-      <c r="B46" s="91"/>
-      <c r="C46" s="85" t="s">
+      <c r="A46" s="95"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="D46" s="78" t="s">
+      <c r="D46" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="E46" s="98">
+      <c r="E46" s="100">
         <v>6</v>
       </c>
-      <c r="F46" s="99" t="s">
+      <c r="F46" s="103" t="s">
         <v>116</v>
       </c>
       <c r="G46" s="14"/>
@@ -7358,12 +7344,12 @@
       <c r="L46" s="7"/>
     </row>
     <row r="47" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A47" s="92"/>
-      <c r="B47" s="92"/>
-      <c r="C47" s="86"/>
-      <c r="D47" s="78"/>
-      <c r="E47" s="98"/>
-      <c r="F47" s="99"/>
+      <c r="A47" s="96"/>
+      <c r="B47" s="96"/>
+      <c r="C47" s="90"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="100"/>
+      <c r="F47" s="103"/>
       <c r="G47" s="20"/>
       <c r="H47" s="20"/>
       <c r="I47" s="7"/>
@@ -7372,12 +7358,12 @@
       <c r="L47" s="7"/>
     </row>
     <row r="48" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A48" s="92"/>
-      <c r="B48" s="92"/>
-      <c r="C48" s="86"/>
-      <c r="D48" s="78"/>
-      <c r="E48" s="98"/>
-      <c r="F48" s="78"/>
+      <c r="A48" s="96"/>
+      <c r="B48" s="96"/>
+      <c r="C48" s="90"/>
+      <c r="D48" s="82"/>
+      <c r="E48" s="100"/>
+      <c r="F48" s="82"/>
       <c r="G48" s="12"/>
       <c r="H48" s="15"/>
       <c r="I48" s="7"/>
@@ -7386,16 +7372,16 @@
       <c r="L48" s="7"/>
     </row>
     <row r="49" spans="1:12" s="6" customFormat="1" ht="12.75">
-      <c r="A49" s="92"/>
-      <c r="B49" s="92"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="78" t="s">
+      <c r="A49" s="96"/>
+      <c r="B49" s="96"/>
+      <c r="C49" s="90"/>
+      <c r="D49" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="E49" s="98">
+      <c r="E49" s="100">
         <v>6</v>
       </c>
-      <c r="F49" s="99" t="s">
+      <c r="F49" s="103" t="s">
         <v>114</v>
       </c>
       <c r="G49" s="14"/>
@@ -7406,12 +7392,12 @@
       <c r="L49" s="7"/>
     </row>
     <row r="50" spans="1:12" s="6" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A50" s="93"/>
-      <c r="B50" s="93"/>
-      <c r="C50" s="89"/>
-      <c r="D50" s="78"/>
-      <c r="E50" s="98"/>
-      <c r="F50" s="99"/>
+      <c r="A50" s="97"/>
+      <c r="B50" s="97"/>
+      <c r="C50" s="93"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="100"/>
+      <c r="F50" s="103"/>
       <c r="G50" s="20"/>
       <c r="H50" s="20"/>
       <c r="I50" s="7"/>
@@ -7420,10 +7406,10 @@
       <c r="L50" s="7"/>
     </row>
     <row r="51" spans="1:12" s="6" customFormat="1" ht="51" customHeight="1">
-      <c r="A51" s="91" t="s">
+      <c r="A51" s="95" t="s">
         <v>113</v>
       </c>
-      <c r="B51" s="85" t="s">
+      <c r="B51" s="89" t="s">
         <v>112</v>
       </c>
       <c r="C51" s="19" t="s">
@@ -7446,9 +7432,9 @@
       <c r="L51" s="7"/>
     </row>
     <row r="52" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A52" s="92"/>
-      <c r="B52" s="86"/>
-      <c r="C52" s="85" t="s">
+      <c r="A52" s="96"/>
+      <c r="B52" s="90"/>
+      <c r="C52" s="89" t="s">
         <v>108</v>
       </c>
       <c r="D52" s="17" t="s">
@@ -7468,9 +7454,9 @@
       <c r="L52" s="7"/>
     </row>
     <row r="53" spans="1:12" s="6" customFormat="1" ht="38.25">
-      <c r="A53" s="92"/>
-      <c r="B53" s="86"/>
-      <c r="C53" s="86"/>
+      <c r="A53" s="96"/>
+      <c r="B53" s="90"/>
+      <c r="C53" s="90"/>
       <c r="D53" s="17" t="s">
         <v>105</v>
       </c>
@@ -7488,9 +7474,9 @@
       <c r="L53" s="7"/>
     </row>
     <row r="54" spans="1:12" s="6" customFormat="1" ht="76.5">
-      <c r="A54" s="93"/>
-      <c r="B54" s="89"/>
-      <c r="C54" s="89"/>
+      <c r="A54" s="97"/>
+      <c r="B54" s="93"/>
+      <c r="C54" s="93"/>
       <c r="D54" s="17" t="s">
         <v>103</v>
       </c>
@@ -7508,7 +7494,7 @@
       <c r="L54" s="7"/>
     </row>
     <row r="55" spans="1:12" s="6" customFormat="1" ht="63.75">
-      <c r="A55" s="91"/>
+      <c r="A55" s="95"/>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
       <c r="D55" s="34" t="s">
@@ -7528,11 +7514,11 @@
       <c r="L55" s="7"/>
     </row>
     <row r="56" spans="1:12" s="6" customFormat="1" ht="156.94999999999999" customHeight="1">
-      <c r="A56" s="92"/>
-      <c r="B56" s="85" t="s">
+      <c r="A56" s="96"/>
+      <c r="B56" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="C56" s="91" t="s">
+      <c r="C56" s="95" t="s">
         <v>98</v>
       </c>
       <c r="D56" s="17" t="s">
@@ -7552,9 +7538,9 @@
       <c r="L56" s="7"/>
     </row>
     <row r="57" spans="1:12" s="6" customFormat="1" ht="89.1" customHeight="1">
-      <c r="A57" s="92"/>
-      <c r="B57" s="86"/>
-      <c r="C57" s="92"/>
+      <c r="A57" s="96"/>
+      <c r="B57" s="90"/>
+      <c r="C57" s="96"/>
       <c r="D57" s="17" t="s">
         <v>96</v>
       </c>
@@ -7572,9 +7558,9 @@
       <c r="L57" s="7"/>
     </row>
     <row r="58" spans="1:12" s="6" customFormat="1" ht="74.45" customHeight="1">
-      <c r="A58" s="92"/>
-      <c r="B58" s="86"/>
-      <c r="C58" s="92"/>
+      <c r="A58" s="96"/>
+      <c r="B58" s="90"/>
+      <c r="C58" s="96"/>
       <c r="D58" s="17" t="s">
         <v>95</v>
       </c>
@@ -7592,9 +7578,9 @@
       <c r="L58" s="7"/>
     </row>
     <row r="59" spans="1:12" s="6" customFormat="1" ht="89.25">
-      <c r="A59" s="93"/>
-      <c r="B59" s="89"/>
-      <c r="C59" s="93"/>
+      <c r="A59" s="97"/>
+      <c r="B59" s="93"/>
+      <c r="C59" s="97"/>
       <c r="D59" s="17" t="s">
         <v>94</v>
       </c>
@@ -7613,7 +7599,7 @@
     </row>
     <row r="60" spans="1:12" s="6" customFormat="1" ht="150.94999999999999" customHeight="1">
       <c r="A60" s="35"/>
-      <c r="B60" s="91"/>
+      <c r="B60" s="95"/>
       <c r="C60" s="32"/>
       <c r="D60" s="17" t="s">
         <v>93</v>
@@ -7633,7 +7619,7 @@
     </row>
     <row r="61" spans="1:12" s="6" customFormat="1" ht="174" customHeight="1">
       <c r="A61" s="35"/>
-      <c r="B61" s="93"/>
+      <c r="B61" s="97"/>
       <c r="C61" s="30"/>
       <c r="D61" s="17" t="s">
         <v>92</v>
@@ -7652,9 +7638,9 @@
       <c r="L61" s="7"/>
     </row>
     <row r="62" spans="1:12" s="6" customFormat="1" ht="260.45" customHeight="1">
-      <c r="A62" s="91"/>
-      <c r="B62" s="91"/>
-      <c r="C62" s="91"/>
+      <c r="A62" s="95"/>
+      <c r="B62" s="95"/>
+      <c r="C62" s="95"/>
       <c r="D62" s="17" t="s">
         <v>91</v>
       </c>
@@ -7672,9 +7658,9 @@
       <c r="L62" s="7"/>
     </row>
     <row r="63" spans="1:12" s="6" customFormat="1" ht="60.6" customHeight="1">
-      <c r="A63" s="93"/>
-      <c r="B63" s="93"/>
-      <c r="C63" s="93"/>
+      <c r="A63" s="97"/>
+      <c r="B63" s="97"/>
+      <c r="C63" s="97"/>
       <c r="D63" s="34" t="s">
         <v>90</v>
       </c>
@@ -7692,8 +7678,8 @@
       <c r="L63" s="7"/>
     </row>
     <row r="64" spans="1:12" s="6" customFormat="1" ht="59.1" customHeight="1">
-      <c r="A64" s="91"/>
-      <c r="B64" s="91"/>
+      <c r="A64" s="95"/>
+      <c r="B64" s="95"/>
       <c r="C64" s="32"/>
       <c r="D64" s="17" t="s">
         <v>89</v>
@@ -7712,8 +7698,8 @@
       <c r="L64" s="7"/>
     </row>
     <row r="65" spans="1:12" s="6" customFormat="1" ht="66" customHeight="1">
-      <c r="A65" s="92"/>
-      <c r="B65" s="92"/>
+      <c r="A65" s="96"/>
+      <c r="B65" s="96"/>
       <c r="C65" s="31"/>
       <c r="D65" s="17" t="s">
         <v>87</v>
@@ -7732,8 +7718,8 @@
       <c r="L65" s="7"/>
     </row>
     <row r="66" spans="1:12" s="6" customFormat="1" ht="57.95" customHeight="1">
-      <c r="A66" s="92"/>
-      <c r="B66" s="92"/>
+      <c r="A66" s="96"/>
+      <c r="B66" s="96"/>
       <c r="C66" s="31"/>
       <c r="D66" s="17" t="s">
         <v>86</v>
@@ -7752,8 +7738,8 @@
       <c r="L66" s="7"/>
     </row>
     <row r="67" spans="1:12" s="6" customFormat="1" ht="48" customHeight="1">
-      <c r="A67" s="92"/>
-      <c r="B67" s="92"/>
+      <c r="A67" s="96"/>
+      <c r="B67" s="96"/>
       <c r="C67" s="31"/>
       <c r="D67" s="17" t="s">
         <v>85</v>
@@ -7772,8 +7758,8 @@
       <c r="L67" s="7"/>
     </row>
     <row r="68" spans="1:12" s="6" customFormat="1" ht="59.1" customHeight="1">
-      <c r="A68" s="93"/>
-      <c r="B68" s="93"/>
+      <c r="A68" s="97"/>
+      <c r="B68" s="97"/>
       <c r="C68" s="30"/>
       <c r="D68" s="17" t="s">
         <v>84</v>
@@ -7792,18 +7778,18 @@
       <c r="L68" s="7"/>
     </row>
     <row r="69" spans="1:12" s="6" customFormat="1" ht="54" customHeight="1">
-      <c r="A69" s="91"/>
-      <c r="B69" s="91"/>
-      <c r="C69" s="85" t="s">
+      <c r="A69" s="95"/>
+      <c r="B69" s="95"/>
+      <c r="C69" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="D69" s="78" t="s">
+      <c r="D69" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="E69" s="98">
+      <c r="E69" s="100">
         <v>10</v>
       </c>
-      <c r="F69" s="99" t="s">
+      <c r="F69" s="103" t="s">
         <v>81</v>
       </c>
       <c r="G69" s="14"/>
@@ -7814,12 +7800,12 @@
       <c r="L69" s="7"/>
     </row>
     <row r="70" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A70" s="92"/>
-      <c r="B70" s="92"/>
-      <c r="C70" s="86"/>
-      <c r="D70" s="78"/>
-      <c r="E70" s="98"/>
-      <c r="F70" s="99"/>
+      <c r="A70" s="96"/>
+      <c r="B70" s="96"/>
+      <c r="C70" s="90"/>
+      <c r="D70" s="82"/>
+      <c r="E70" s="100"/>
+      <c r="F70" s="103"/>
       <c r="G70" s="12"/>
       <c r="H70" s="12"/>
       <c r="I70" s="7"/>
@@ -7828,12 +7814,12 @@
       <c r="L70" s="7"/>
     </row>
     <row r="71" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A71" s="92"/>
-      <c r="B71" s="92"/>
-      <c r="C71" s="86"/>
-      <c r="D71" s="78"/>
-      <c r="E71" s="98"/>
-      <c r="F71" s="99"/>
+      <c r="A71" s="96"/>
+      <c r="B71" s="96"/>
+      <c r="C71" s="90"/>
+      <c r="D71" s="82"/>
+      <c r="E71" s="100"/>
+      <c r="F71" s="103"/>
       <c r="G71" s="20"/>
       <c r="H71" s="20"/>
       <c r="I71" s="7"/>
@@ -7842,9 +7828,9 @@
       <c r="L71" s="7"/>
     </row>
     <row r="72" spans="1:12" s="6" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A72" s="93"/>
-      <c r="B72" s="93"/>
-      <c r="C72" s="89"/>
+      <c r="A72" s="97"/>
+      <c r="B72" s="97"/>
+      <c r="C72" s="93"/>
       <c r="D72" s="17" t="s">
         <v>80</v>
       </c>
@@ -7862,8 +7848,8 @@
       <c r="L72" s="7"/>
     </row>
     <row r="73" spans="1:12" s="6" customFormat="1" ht="60" customHeight="1">
-      <c r="A73" s="91"/>
-      <c r="B73" s="91"/>
+      <c r="A73" s="95"/>
+      <c r="B73" s="95"/>
       <c r="C73" s="19" t="s">
         <v>78</v>
       </c>
@@ -7884,18 +7870,18 @@
       <c r="L73" s="7"/>
     </row>
     <row r="74" spans="1:12" s="6" customFormat="1" ht="54" customHeight="1">
-      <c r="A74" s="92"/>
-      <c r="B74" s="92"/>
-      <c r="C74" s="100" t="s">
+      <c r="A74" s="96"/>
+      <c r="B74" s="96"/>
+      <c r="C74" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="D74" s="78" t="s">
+      <c r="D74" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="E74" s="98">
+      <c r="E74" s="100">
         <v>20</v>
       </c>
-      <c r="F74" s="99" t="s">
+      <c r="F74" s="103" t="s">
         <v>74</v>
       </c>
       <c r="G74" s="14"/>
@@ -7906,12 +7892,12 @@
       <c r="L74" s="7"/>
     </row>
     <row r="75" spans="1:12" s="6" customFormat="1" ht="51" customHeight="1">
-      <c r="A75" s="93"/>
-      <c r="B75" s="93"/>
-      <c r="C75" s="101"/>
-      <c r="D75" s="78"/>
-      <c r="E75" s="98"/>
-      <c r="F75" s="99"/>
+      <c r="A75" s="97"/>
+      <c r="B75" s="97"/>
+      <c r="C75" s="105"/>
+      <c r="D75" s="82"/>
+      <c r="E75" s="100"/>
+      <c r="F75" s="103"/>
       <c r="G75" s="20"/>
       <c r="H75" s="20"/>
       <c r="I75" s="7"/>
@@ -7920,13 +7906,13 @@
       <c r="L75" s="7"/>
     </row>
     <row r="76" spans="1:12" s="6" customFormat="1" ht="59.45" customHeight="1">
-      <c r="A76" s="85" t="s">
+      <c r="A76" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="B76" s="78" t="s">
+      <c r="B76" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="C76" s="85" t="s">
+      <c r="C76" s="89" t="s">
         <v>71</v>
       </c>
       <c r="D76" s="17" t="s">
@@ -7946,9 +7932,9 @@
       <c r="L76" s="7"/>
     </row>
     <row r="77" spans="1:12" s="6" customFormat="1" ht="45.95" customHeight="1">
-      <c r="A77" s="86"/>
-      <c r="B77" s="78"/>
-      <c r="C77" s="89"/>
+      <c r="A77" s="90"/>
+      <c r="B77" s="82"/>
+      <c r="C77" s="93"/>
       <c r="D77" s="17" t="s">
         <v>69</v>
       </c>
@@ -7966,18 +7952,18 @@
       <c r="L77" s="7"/>
     </row>
     <row r="78" spans="1:12" s="6" customFormat="1" ht="54" customHeight="1">
-      <c r="A78" s="86"/>
-      <c r="B78" s="78"/>
-      <c r="C78" s="87" t="s">
+      <c r="A78" s="90"/>
+      <c r="B78" s="82"/>
+      <c r="C78" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="D78" s="78" t="s">
+      <c r="D78" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="E78" s="98">
+      <c r="E78" s="100">
         <v>16</v>
       </c>
-      <c r="F78" s="99" t="s">
+      <c r="F78" s="103" t="s">
         <v>66</v>
       </c>
       <c r="G78" s="14"/>
@@ -7988,12 +7974,12 @@
       <c r="L78" s="7"/>
     </row>
     <row r="79" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A79" s="86"/>
-      <c r="B79" s="78"/>
-      <c r="C79" s="88"/>
-      <c r="D79" s="78"/>
-      <c r="E79" s="98"/>
-      <c r="F79" s="99"/>
+      <c r="A79" s="90"/>
+      <c r="B79" s="82"/>
+      <c r="C79" s="92"/>
+      <c r="D79" s="82"/>
+      <c r="E79" s="100"/>
+      <c r="F79" s="103"/>
       <c r="G79" s="20"/>
       <c r="H79" s="20"/>
       <c r="I79" s="7"/>
@@ -8002,9 +7988,9 @@
       <c r="L79" s="7"/>
     </row>
     <row r="80" spans="1:12" s="6" customFormat="1" ht="25.5">
-      <c r="A80" s="86"/>
-      <c r="B80" s="78"/>
-      <c r="C80" s="90"/>
+      <c r="A80" s="90"/>
+      <c r="B80" s="82"/>
+      <c r="C80" s="94"/>
       <c r="D80" s="17" t="s">
         <v>65</v>
       </c>
@@ -8022,20 +8008,20 @@
       <c r="L80" s="7"/>
     </row>
     <row r="81" spans="1:12" s="6" customFormat="1" ht="54" customHeight="1">
-      <c r="A81" s="86"/>
-      <c r="B81" s="78" t="s">
+      <c r="A81" s="90"/>
+      <c r="B81" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="87" t="s">
+      <c r="C81" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="D81" s="78" t="s">
+      <c r="D81" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="E81" s="98">
+      <c r="E81" s="100">
         <v>20</v>
       </c>
-      <c r="F81" s="99" t="s">
+      <c r="F81" s="103" t="s">
         <v>60</v>
       </c>
       <c r="G81" s="14"/>
@@ -8046,12 +8032,12 @@
       <c r="L81" s="7"/>
     </row>
     <row r="82" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A82" s="86"/>
-      <c r="B82" s="78"/>
-      <c r="C82" s="90"/>
-      <c r="D82" s="78"/>
-      <c r="E82" s="98"/>
-      <c r="F82" s="99"/>
+      <c r="A82" s="90"/>
+      <c r="B82" s="82"/>
+      <c r="C82" s="94"/>
+      <c r="D82" s="82"/>
+      <c r="E82" s="100"/>
+      <c r="F82" s="103"/>
       <c r="G82" s="12"/>
       <c r="H82" s="20"/>
       <c r="I82" s="7"/>
@@ -8060,18 +8046,18 @@
       <c r="L82" s="7"/>
     </row>
     <row r="83" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A83" s="86"/>
-      <c r="B83" s="78"/>
-      <c r="C83" s="87" t="s">
+      <c r="A83" s="90"/>
+      <c r="B83" s="82"/>
+      <c r="C83" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="D83" s="78" t="s">
+      <c r="D83" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="E83" s="98">
+      <c r="E83" s="100">
         <v>12</v>
       </c>
-      <c r="F83" s="99" t="s">
+      <c r="F83" s="103" t="s">
         <v>57</v>
       </c>
       <c r="G83" s="14"/>
@@ -8082,12 +8068,12 @@
       <c r="L83" s="7"/>
     </row>
     <row r="84" spans="1:12" s="6" customFormat="1" ht="12.75">
-      <c r="A84" s="86"/>
-      <c r="B84" s="78"/>
-      <c r="C84" s="88"/>
-      <c r="D84" s="78"/>
-      <c r="E84" s="98"/>
-      <c r="F84" s="99"/>
+      <c r="A84" s="90"/>
+      <c r="B84" s="82"/>
+      <c r="C84" s="92"/>
+      <c r="D84" s="82"/>
+      <c r="E84" s="100"/>
+      <c r="F84" s="103"/>
       <c r="G84" s="12"/>
       <c r="H84" s="20"/>
       <c r="I84" s="7"/>
@@ -8096,16 +8082,16 @@
       <c r="L84" s="7"/>
     </row>
     <row r="85" spans="1:12" s="6" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A85" s="86"/>
-      <c r="B85" s="78"/>
-      <c r="C85" s="88"/>
-      <c r="D85" s="82" t="s">
+      <c r="A85" s="90"/>
+      <c r="B85" s="82"/>
+      <c r="C85" s="92"/>
+      <c r="D85" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="E85" s="102">
+      <c r="E85" s="106">
         <v>16</v>
       </c>
-      <c r="F85" s="104" t="s">
+      <c r="F85" s="108" t="s">
         <v>55</v>
       </c>
       <c r="G85" s="29"/>
@@ -8116,12 +8102,12 @@
       <c r="L85" s="7"/>
     </row>
     <row r="86" spans="1:12" s="6" customFormat="1" ht="12.75">
-      <c r="A86" s="86"/>
-      <c r="B86" s="78"/>
-      <c r="C86" s="88"/>
-      <c r="D86" s="82"/>
-      <c r="E86" s="102"/>
-      <c r="F86" s="104"/>
+      <c r="A86" s="90"/>
+      <c r="B86" s="82"/>
+      <c r="C86" s="92"/>
+      <c r="D86" s="86"/>
+      <c r="E86" s="106"/>
+      <c r="F86" s="108"/>
       <c r="G86" s="28"/>
       <c r="H86" s="28"/>
       <c r="I86" s="7"/>
@@ -8130,12 +8116,12 @@
       <c r="L86" s="7"/>
     </row>
     <row r="87" spans="1:12" s="6" customFormat="1" ht="12.75">
-      <c r="A87" s="89"/>
-      <c r="B87" s="78"/>
-      <c r="C87" s="90"/>
-      <c r="D87" s="82"/>
-      <c r="E87" s="102"/>
-      <c r="F87" s="104"/>
+      <c r="A87" s="93"/>
+      <c r="B87" s="82"/>
+      <c r="C87" s="94"/>
+      <c r="D87" s="86"/>
+      <c r="E87" s="106"/>
+      <c r="F87" s="108"/>
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="7"/>
@@ -8144,8 +8130,8 @@
       <c r="L87" s="7"/>
     </row>
     <row r="88" spans="1:12" s="6" customFormat="1" ht="96.6" customHeight="1">
-      <c r="A88" s="85"/>
-      <c r="B88" s="78" t="s">
+      <c r="A88" s="89"/>
+      <c r="B88" s="82" t="s">
         <v>54</v>
       </c>
       <c r="C88" s="19" t="s">
@@ -8168,8 +8154,8 @@
       <c r="L88" s="7"/>
     </row>
     <row r="89" spans="1:12" s="6" customFormat="1" ht="72" customHeight="1">
-      <c r="A89" s="86"/>
-      <c r="B89" s="78"/>
+      <c r="A89" s="90"/>
+      <c r="B89" s="82"/>
       <c r="C89" s="19" t="s">
         <v>51</v>
       </c>
@@ -8190,20 +8176,20 @@
       <c r="L89" s="7"/>
     </row>
     <row r="90" spans="1:12" s="6" customFormat="1" ht="12.75">
-      <c r="A90" s="86"/>
-      <c r="B90" s="78" t="s">
+      <c r="A90" s="90"/>
+      <c r="B90" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="C90" s="78" t="s">
+      <c r="C90" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="D90" s="78" t="s">
+      <c r="D90" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="E90" s="98">
+      <c r="E90" s="100">
         <v>12</v>
       </c>
-      <c r="F90" s="99" t="s">
+      <c r="F90" s="103" t="s">
         <v>46</v>
       </c>
       <c r="G90" s="14"/>
@@ -8214,12 +8200,12 @@
       <c r="L90" s="7"/>
     </row>
     <row r="91" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A91" s="86"/>
-      <c r="B91" s="78"/>
-      <c r="C91" s="78"/>
-      <c r="D91" s="78"/>
-      <c r="E91" s="98"/>
-      <c r="F91" s="99"/>
+      <c r="A91" s="90"/>
+      <c r="B91" s="82"/>
+      <c r="C91" s="82"/>
+      <c r="D91" s="82"/>
+      <c r="E91" s="100"/>
+      <c r="F91" s="103"/>
       <c r="G91" s="12"/>
       <c r="H91" s="12"/>
       <c r="I91" s="7"/>
@@ -8228,12 +8214,12 @@
       <c r="L91" s="7"/>
     </row>
     <row r="92" spans="1:12" s="6" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A92" s="86"/>
-      <c r="B92" s="78"/>
-      <c r="C92" s="78"/>
-      <c r="D92" s="78"/>
-      <c r="E92" s="98"/>
-      <c r="F92" s="99"/>
+      <c r="A92" s="90"/>
+      <c r="B92" s="82"/>
+      <c r="C92" s="82"/>
+      <c r="D92" s="82"/>
+      <c r="E92" s="100"/>
+      <c r="F92" s="103"/>
       <c r="G92" s="12"/>
       <c r="H92" s="20"/>
       <c r="I92" s="7"/>
@@ -8242,16 +8228,16 @@
       <c r="L92" s="7"/>
     </row>
     <row r="93" spans="1:12" s="6" customFormat="1" ht="12.75">
-      <c r="A93" s="86"/>
-      <c r="B93" s="78"/>
-      <c r="C93" s="78"/>
-      <c r="D93" s="78" t="s">
+      <c r="A93" s="90"/>
+      <c r="B93" s="82"/>
+      <c r="C93" s="82"/>
+      <c r="D93" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="E93" s="98">
+      <c r="E93" s="100">
         <v>8</v>
       </c>
-      <c r="F93" s="99" t="s">
+      <c r="F93" s="103" t="s">
         <v>44</v>
       </c>
       <c r="G93" s="14"/>
@@ -8262,12 +8248,12 @@
       <c r="L93" s="7"/>
     </row>
     <row r="94" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A94" s="89"/>
-      <c r="B94" s="78"/>
-      <c r="C94" s="78"/>
-      <c r="D94" s="78"/>
-      <c r="E94" s="98"/>
-      <c r="F94" s="99"/>
+      <c r="A94" s="93"/>
+      <c r="B94" s="82"/>
+      <c r="C94" s="82"/>
+      <c r="D94" s="82"/>
+      <c r="E94" s="100"/>
+      <c r="F94" s="103"/>
       <c r="G94" s="12"/>
       <c r="H94" s="20"/>
       <c r="I94" s="7"/>
@@ -8276,22 +8262,22 @@
       <c r="L94" s="7"/>
     </row>
     <row r="95" spans="1:12" s="6" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A95" s="79" t="s">
+      <c r="A95" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="B95" s="82" t="s">
+      <c r="B95" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="C95" s="83" t="s">
+      <c r="C95" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="D95" s="82" t="s">
+      <c r="D95" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="E95" s="102">
+      <c r="E95" s="106">
         <v>12</v>
       </c>
-      <c r="F95" s="104" t="s">
+      <c r="F95" s="108" t="s">
         <v>39</v>
       </c>
       <c r="G95" s="29"/>
@@ -8302,12 +8288,12 @@
       <c r="L95" s="7"/>
     </row>
     <row r="96" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A96" s="80"/>
-      <c r="B96" s="82"/>
-      <c r="C96" s="103"/>
-      <c r="D96" s="82"/>
-      <c r="E96" s="102"/>
-      <c r="F96" s="104"/>
+      <c r="A96" s="84"/>
+      <c r="B96" s="86"/>
+      <c r="C96" s="107"/>
+      <c r="D96" s="86"/>
+      <c r="E96" s="106"/>
+      <c r="F96" s="108"/>
       <c r="G96" s="28"/>
       <c r="H96" s="28"/>
       <c r="I96" s="7"/>
@@ -8316,12 +8302,12 @@
       <c r="L96" s="7"/>
     </row>
     <row r="97" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A97" s="80"/>
-      <c r="B97" s="82"/>
-      <c r="C97" s="103"/>
-      <c r="D97" s="82"/>
-      <c r="E97" s="102"/>
-      <c r="F97" s="104"/>
+      <c r="A97" s="84"/>
+      <c r="B97" s="86"/>
+      <c r="C97" s="107"/>
+      <c r="D97" s="86"/>
+      <c r="E97" s="106"/>
+      <c r="F97" s="108"/>
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
       <c r="I97" s="7"/>
@@ -8330,9 +8316,9 @@
       <c r="L97" s="7"/>
     </row>
     <row r="98" spans="1:12" s="6" customFormat="1" ht="38.25">
-      <c r="A98" s="80"/>
-      <c r="B98" s="82"/>
-      <c r="C98" s="84"/>
+      <c r="A98" s="84"/>
+      <c r="B98" s="86"/>
+      <c r="C98" s="88"/>
       <c r="D98" s="17" t="s">
         <v>38</v>
       </c>
@@ -8350,8 +8336,8 @@
       <c r="L98" s="7"/>
     </row>
     <row r="99" spans="1:12" s="6" customFormat="1" ht="51" customHeight="1">
-      <c r="A99" s="81"/>
-      <c r="B99" s="82"/>
+      <c r="A99" s="85"/>
+      <c r="B99" s="86"/>
       <c r="C99" s="26" t="s">
         <v>36</v>
       </c>
@@ -8396,7 +8382,7 @@
       <c r="L100" s="7"/>
     </row>
     <row r="101" spans="1:12" s="6" customFormat="1" ht="63.75">
-      <c r="A101" s="78" t="s">
+      <c r="A101" s="82" t="s">
         <v>29</v>
       </c>
       <c r="B101" s="17" t="s">
@@ -8422,11 +8408,11 @@
       <c r="L101" s="7"/>
     </row>
     <row r="102" spans="1:12" s="6" customFormat="1" ht="38.25">
-      <c r="A102" s="78"/>
-      <c r="B102" s="78" t="s">
+      <c r="A102" s="82"/>
+      <c r="B102" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="C102" s="78" t="s">
+      <c r="C102" s="82" t="s">
         <v>24</v>
       </c>
       <c r="D102" s="17" t="s">
@@ -8446,16 +8432,16 @@
       <c r="L102" s="7"/>
     </row>
     <row r="103" spans="1:12" s="6" customFormat="1" ht="54" customHeight="1">
-      <c r="A103" s="78"/>
-      <c r="B103" s="78"/>
-      <c r="C103" s="78"/>
-      <c r="D103" s="78" t="s">
+      <c r="A103" s="82"/>
+      <c r="B103" s="82"/>
+      <c r="C103" s="82"/>
+      <c r="D103" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="E103" s="98">
+      <c r="E103" s="100">
         <v>10</v>
       </c>
-      <c r="F103" s="99" t="s">
+      <c r="F103" s="103" t="s">
         <v>20</v>
       </c>
       <c r="G103" s="14"/>
@@ -8466,12 +8452,12 @@
       <c r="L103" s="7"/>
     </row>
     <row r="104" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1">
-      <c r="A104" s="78"/>
-      <c r="B104" s="78"/>
-      <c r="C104" s="78"/>
-      <c r="D104" s="78"/>
-      <c r="E104" s="98"/>
-      <c r="F104" s="99"/>
+      <c r="A104" s="82"/>
+      <c r="B104" s="82"/>
+      <c r="C104" s="82"/>
+      <c r="D104" s="82"/>
+      <c r="E104" s="100"/>
+      <c r="F104" s="103"/>
       <c r="G104" s="13"/>
       <c r="H104" s="20"/>
       <c r="I104" s="7"/>
@@ -8480,20 +8466,20 @@
       <c r="L104" s="7"/>
     </row>
     <row r="105" spans="1:12" s="6" customFormat="1" ht="45.95" customHeight="1">
-      <c r="A105" s="78"/>
-      <c r="B105" s="78" t="s">
+      <c r="A105" s="82"/>
+      <c r="B105" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="C105" s="78" t="s">
+      <c r="C105" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="D105" s="78" t="s">
+      <c r="D105" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="E105" s="98">
+      <c r="E105" s="100">
         <v>10</v>
       </c>
-      <c r="F105" s="99" t="s">
+      <c r="F105" s="103" t="s">
         <v>16</v>
       </c>
       <c r="G105" s="14"/>
@@ -8504,12 +8490,12 @@
       <c r="L105" s="7"/>
     </row>
     <row r="106" spans="1:12" s="6" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A106" s="78"/>
-      <c r="B106" s="78"/>
-      <c r="C106" s="78"/>
-      <c r="D106" s="78"/>
-      <c r="E106" s="98"/>
-      <c r="F106" s="99"/>
+      <c r="A106" s="82"/>
+      <c r="B106" s="82"/>
+      <c r="C106" s="82"/>
+      <c r="D106" s="82"/>
+      <c r="E106" s="100"/>
+      <c r="F106" s="103"/>
       <c r="G106" s="13"/>
       <c r="H106" s="20"/>
       <c r="I106" s="7"/>
@@ -8518,16 +8504,16 @@
       <c r="L106" s="7"/>
     </row>
     <row r="107" spans="1:12" s="6" customFormat="1" ht="12.75">
-      <c r="A107" s="78"/>
-      <c r="B107" s="78"/>
-      <c r="C107" s="78"/>
-      <c r="D107" s="78" t="s">
+      <c r="A107" s="82"/>
+      <c r="B107" s="82"/>
+      <c r="C107" s="82"/>
+      <c r="D107" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E107" s="98">
+      <c r="E107" s="100">
         <v>6</v>
       </c>
-      <c r="F107" s="99" t="s">
+      <c r="F107" s="103" t="s">
         <v>14</v>
       </c>
       <c r="G107" s="14"/>
@@ -8538,12 +8524,12 @@
       <c r="L107" s="7"/>
     </row>
     <row r="108" spans="1:12" s="6" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A108" s="78"/>
-      <c r="B108" s="78"/>
-      <c r="C108" s="78"/>
-      <c r="D108" s="78"/>
-      <c r="E108" s="98"/>
-      <c r="F108" s="99"/>
+      <c r="A108" s="82"/>
+      <c r="B108" s="82"/>
+      <c r="C108" s="82"/>
+      <c r="D108" s="82"/>
+      <c r="E108" s="100"/>
+      <c r="F108" s="103"/>
       <c r="G108" s="21"/>
       <c r="H108" s="20"/>
       <c r="I108" s="7"/>
@@ -8552,10 +8538,10 @@
       <c r="L108" s="7"/>
     </row>
     <row r="109" spans="1:12" s="6" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A109" s="78" t="s">
+      <c r="A109" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B109" s="78" t="s">
+      <c r="B109" s="82" t="s">
         <v>12</v>
       </c>
       <c r="C109" s="19" t="s">
@@ -8578,8 +8564,8 @@
       <c r="L109" s="7"/>
     </row>
     <row r="110" spans="1:12" s="6" customFormat="1" ht="39" customHeight="1">
-      <c r="A110" s="78"/>
-      <c r="B110" s="78"/>
+      <c r="A110" s="82"/>
+      <c r="B110" s="82"/>
       <c r="C110" s="19" t="s">
         <v>8</v>
       </c>
@@ -8600,20 +8586,20 @@
       <c r="L110" s="7"/>
     </row>
     <row r="111" spans="1:12" s="6" customFormat="1" ht="12.75">
-      <c r="A111" s="78"/>
-      <c r="B111" s="78" t="s">
+      <c r="A111" s="82"/>
+      <c r="B111" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="C111" s="78" t="s">
+      <c r="C111" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="D111" s="78" t="s">
+      <c r="D111" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="E111" s="98">
+      <c r="E111" s="100">
         <v>12</v>
       </c>
-      <c r="F111" s="99" t="s">
+      <c r="F111" s="103" t="s">
         <v>2</v>
       </c>
       <c r="G111" s="14"/>
@@ -8624,12 +8610,12 @@
       <c r="L111" s="7"/>
     </row>
     <row r="112" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A112" s="78"/>
-      <c r="B112" s="78"/>
-      <c r="C112" s="78"/>
-      <c r="D112" s="78"/>
-      <c r="E112" s="98"/>
-      <c r="F112" s="99"/>
+      <c r="A112" s="82"/>
+      <c r="B112" s="82"/>
+      <c r="C112" s="82"/>
+      <c r="D112" s="82"/>
+      <c r="E112" s="100"/>
+      <c r="F112" s="103"/>
       <c r="G112" s="13"/>
       <c r="H112" s="12"/>
       <c r="I112" s="7"/>
@@ -8638,12 +8624,12 @@
       <c r="L112" s="7"/>
     </row>
     <row r="113" spans="1:12" s="6" customFormat="1" ht="93.95" customHeight="1">
-      <c r="A113" s="78"/>
-      <c r="B113" s="78"/>
-      <c r="C113" s="78"/>
-      <c r="D113" s="78"/>
-      <c r="E113" s="98"/>
-      <c r="F113" s="99"/>
+      <c r="A113" s="82"/>
+      <c r="B113" s="82"/>
+      <c r="C113" s="82"/>
+      <c r="D113" s="82"/>
+      <c r="E113" s="100"/>
+      <c r="F113" s="103"/>
       <c r="G113" s="11"/>
       <c r="H113" s="10"/>
       <c r="I113" s="7"/>
@@ -8652,20 +8638,20 @@
       <c r="L113" s="7"/>
     </row>
     <row r="114" spans="1:12" s="6" customFormat="1" ht="33.6" customHeight="1">
-      <c r="A114" s="74" t="s">
+      <c r="A114" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B114" s="75"/>
-      <c r="C114" s="75"/>
-      <c r="D114" s="76"/>
+      <c r="B114" s="79"/>
+      <c r="C114" s="79"/>
+      <c r="D114" s="80"/>
       <c r="E114" s="9">
         <f>SUM(E6:E113)</f>
         <v>600</v>
       </c>
-      <c r="F114" s="74" t="s">
+      <c r="F114" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="G114" s="77"/>
+      <c r="G114" s="81"/>
       <c r="H114" s="8">
         <f>SUM(H6:H113)</f>
         <v>0</v>
@@ -8868,7 +8854,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<nXeGKudETKPeaCNGFh5i2aVdoOsLYjULCdH7T707tDyRRmguot4fEcJ2iD6f9>aijtZbeaDr5ifuku6q8Dl4KnAmxHbEzlw2o+upnhWGM=</nXeGKudETKPeaCNGFh5i2aVdoOsLYjULCdH7T707tDyRRmguot4fEcJ2iD6f9>
+<NovaPath_docOwner>BettyZhao</NovaPath_docOwner>
 </file>
 
 <file path=customXml/item10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8912,7 +8898,7 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<NovaPath_DocInfoFromAfterSave>False</NovaPath_DocInfoFromAfterSave>
+<nXeGKudETKPeaCNGFh5i2aVdoOsLYjULCdH7T707tDyRRmguot4fEcJ2iD6f9>aijtZbeaDr5ifuku6q8Dl4KnAmxHbEzlw2o+upnhWGM=</nXeGKudETKPeaCNGFh5i2aVdoOsLYjULCdH7T707tDyRRmguot4fEcJ2iD6f9>
 </file>
 
 <file path=customXml/item20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8936,11 +8922,11 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<nXeGKudETKPeaCNGFh5iy53cs4YTjZQd4Re9Stbph13fJwq3N1dxRUwfkxNCzGbktJIbKf2q8mQyY814Q>GoBUcRQBOiWNv9cnqy33XA==</nXeGKudETKPeaCNGFh5iy53cs4YTjZQd4Re9Stbph13fJwq3N1dxRUwfkxNCzGbktJIbKf2q8mQyY814Q>
+<NovaPath_DocInfoFromAfterSave>False</NovaPath_DocInfoFromAfterSave>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<NovaPath_docOwner>BettyZhao</NovaPath_docOwner>
+<nXeGKudETKPeaCNGFh5iy53cs4YTjZQd4Re9Stbph13fJwq3N1dxRUwfkxNCzGbktJIbKf2q8mQyY814Q>GoBUcRQBOiWNv9cnqy33XA==</nXeGKudETKPeaCNGFh5iy53cs4YTjZQd4Re9Stbph13fJwq3N1dxRUwfkxNCzGbktJIbKf2q8mQyY814Q>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8964,145 +8950,145 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DF244A0-4C99-4955-AA14-54C302512B59}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps10.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE647E52-7E4F-44D6-96BA-100D25AF143B}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps11.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D0EC57A-A701-480D-86D5-670176741503}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps12.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8976D703-A20B-4F24-93CE-49BE9AE2BA93}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps13.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A6C040B-20B0-4AF2-A5CF-F01DDEDA1850}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps14.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4439B6F-EC66-4059-9FBE-682AE95C09C4}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps15.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3564D02C-4600-4949-804F-8F74501D2A4D}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps16.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2667D5C-1ED1-4940-A87F-82D99ACD40C6}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps17.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F29A1C1F-4735-4419-A069-912A8B818F61}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps18.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FEAA1F9-BF82-4D84-8887-3EAA695AE1EE}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps19.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E6E8814-6A54-4CA4-8328-3FB7739D6385}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01CF30C1-4959-4D3A-B180-0B8F5A0AA3A1}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps10.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA0E88C0-F1EA-449C-B995-15E17DBC8D39}">
+<file path=customXml/itemProps20.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CF0F2DE-C73E-4BE0-A2DB-A2102327B85C}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps11.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEDB4CCD-1D90-41CE-B174-B023431F5227}">
+<file path=customXml/itemProps21.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FD570B2-8F18-4CDA-AA84-CF91FFD5212D}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps12.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A13956-F6F4-4ED3-B1BA-629CE64E97A0}">
+<file path=customXml/itemProps22.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{720FD674-D6E1-4E8B-A414-106C25C18157}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps13.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DAE2B47-CE57-49B9-ADFA-650237BD9EFA}">
+<file path=customXml/itemProps23.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07B5D051-55AF-4886-A468-94B5F0E1A473}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps14.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBBC12C5-1C3D-47D1-A130-32DE699F3694}">
+<file path=customXml/itemProps24.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DC09EBC-4661-48B9-98F8-593D6E9DD520}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps15.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A3602A2-EFFA-4B10-8DE6-0773E6334720}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps16.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D6603FE-A214-4988-BC8C-4EF5F0172D37}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps17.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E37B743-E031-4B12-8256-EE82887F871F}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps18.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B356C656-394D-4C41-B436-5A3BE095FA50}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps19.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5FE3B68-24C4-4464-BF86-A5FF5E137536}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB6F44DC-75F7-4D07-8DCE-3B3959060FA5}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps20.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF6EDC4A-07BB-4112-9383-2417321674FB}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps21.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D0E01D9-A2EF-4A9A-A30A-ECF39A4D690B}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps22.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0E0B70B-2960-4891-ABCA-B7677312889A}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps23.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36A505D7-C6D4-488C-AD2D-D87F56E6001F}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps24.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3823C6A-2266-4E88-8A37-46F4516097C4}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA82C119-EE81-4E19-BFC8-648830FF3AE0}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DF244A0-4C99-4955-AA14-54C302512B59}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08D29157-932B-4652-9A0A-354AA771EA73}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{894EF6BD-D2FC-4E03-AE5F-E61B4DFEBF10}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2B1C476-DAE5-4FB2-B67F-ED4E1FC97BD0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45935F80-06DD-4C0C-8180-0B9CDDDAC650}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps7.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96A1CE02-25AA-4820-B0DC-61E47B023F72}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25455C84-EC06-430C-B794-4E637D3ADF91}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps8.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1173FC0F-5613-44EE-B8ED-01FC8A8CB405}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC42048-54F6-4692-B7C0-B8F1F96E6E94}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps9.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95D5B16F-80C5-494C-8991-B801C70AD825}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7893F2C-21B8-4EF4-BA92-67CFA2A08A37}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>